--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE45E260-4FB7-C34C-9933-2A7CBFA245F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCAE935-F8D2-B64B-8F04-E8108518816C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" activeTab="3" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="day" sheetId="1" r:id="rId1"/>
+    <sheet name="week" sheetId="2" r:id="rId2"/>
+    <sheet name="month" sheetId="3" r:id="rId3"/>
+    <sheet name="year" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>售票机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +154,96 @@
   <si>
     <t>网页扫码</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿鸡蛋拌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>兰州拉面门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出行</t>
+  </si>
+  <si>
+    <t>地铁</t>
+  </si>
+  <si>
+    <t>一枚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+  </si>
+  <si>
+    <t>地铁站售票机</t>
+  </si>
+  <si>
+    <t>地铁站售票机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借给吕江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+  </si>
+  <si>
+    <t>肉酱拌面+加面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和 Bob 两人分了一份加面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次</t>
+  </si>
+  <si>
+    <t>乘车码小程序</t>
+  </si>
+  <si>
+    <t>炒面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1份</t>
+  </si>
+  <si>
+    <t>上水门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁售卡机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁：95折；公交：3元及以下8折，3元以上6元以下（含6元）7.5折，6元以上6.5折；换乘：5～90分钟内换乘，额外优惠0.4元/人次</t>
   </si>
 </sst>
 </file>
@@ -555,15 +644,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -583,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -612,13 +702,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -629,22 +719,22 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -664,7 +754,7 @@
         <v>26.8</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -681,16 +771,16 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>13.8</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -713,13 +803,13 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -730,22 +820,22 @@
         <v>0.93472222222222223</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
       </c>
       <c r="E7">
         <v>15.99</v>
       </c>
       <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -765,79 +855,314 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>18.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="A16" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C1048576" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{71BA34AC-19F5-8649-A6F6-E2F280D67423}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8 D10:D11 D14:D15 D18:D1048576" xr:uid="{71BA34AC-19F5-8649-A6F6-E2F280D67423}">
       <formula1>"地铁"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{24BF1A42-927F-5048-AE0A-0F0E42BC0B0F}">
+      <formula1>"支付宝,微信,现金"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F16 F18:F1048576" xr:uid="{F54D3C14-F33E-754E-A4AB-0B79FBCB5B18}">
+      <formula1>"1份,1次,1斤,1月,1枚"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H18:H1048576" xr:uid="{F6CAF4CE-3ED5-D041-B276-C04176570775}">
+      <formula1>"乘车码小程序,永和豆浆门店"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -845,4 +1170,43 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD00F1D-BDF3-F84D-B5ED-A52D485635D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449864C-81B0-2843-812E-DB373BCCD68D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F579D7EB-98F9-654B-82DC-57DD86037272}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCAE935-F8D2-B64B-8F04-E8108518816C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5CED34-A0EC-6748-91C7-AA9C411138B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" activeTab="3" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="day" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,43 @@
   </si>
   <si>
     <t>地铁：95折；公交：3元及以下8折，3元以上6元以下（含6元）7.5折，6元以上6.5折；换乘：5～90分钟内换乘，额外优惠0.4元/人次</t>
+  </si>
+  <si>
+    <t>干炒河粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>潮州牛肉门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香草拿铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1杯</t>
+  </si>
+  <si>
+    <t>luckin coffee APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+  </si>
+  <si>
+    <t>南瓜粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob 代买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,7 +682,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1131,16 +1168,82 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1"/>
@@ -1148,21 +1251,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C1048576" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C19" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8 D10:D11 D14:D15 D18:D1048576" xr:uid="{71BA34AC-19F5-8649-A6F6-E2F280D67423}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8 D10:D11 D14:D15 D18" xr:uid="{71BA34AC-19F5-8649-A6F6-E2F280D67423}">
       <formula1>"地铁"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{24BF1A42-927F-5048-AE0A-0F0E42BC0B0F}">
       <formula1>"支付宝,微信,现金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F16 F18:F1048576" xr:uid="{F54D3C14-F33E-754E-A4AB-0B79FBCB5B18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F16 F18:F19 F21:F1048576" xr:uid="{F54D3C14-F33E-754E-A4AB-0B79FBCB5B18}">
       <formula1>"1份,1次,1斤,1月,1枚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H18:H1048576" xr:uid="{F6CAF4CE-3ED5-D041-B276-C04176570775}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H18" xr:uid="{F6CAF4CE-3ED5-D041-B276-C04176570775}">
       <formula1>"乘车码小程序,永和豆浆门店"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20" xr:uid="{2B3FA2A7-F242-B244-8E23-89846C69BAC9}">
+      <formula1>"1份,1次,1斤,1月,1枚,1杯"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C1048576" xr:uid="{32056391-3EFC-ED40-8BE1-E01478CF1FA8}">
+      <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1176,7 +1285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD00F1D-BDF3-F84D-B5ED-A52D485635D1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -1202,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F579D7EB-98F9-654B-82DC-57DD86037272}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5CED34-A0EC-6748-91C7-AA9C411138B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D217F886-426F-9A40-85F6-2DBBBA1EB075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="day" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
     <t>地铁</t>
   </si>
   <si>
-    <t>一枚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现金</t>
   </si>
   <si>
@@ -187,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转账</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>和 Bob 两人分了一份加面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +269,33 @@
   <si>
     <t>Bob 代买</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市汇佳便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蓉王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打火机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟</t>
   </si>
 </sst>
 </file>
@@ -361,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I22" totalsRowShown="0">
-  <autoFilter ref="A1:I22" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I33" totalsRowShown="0">
+  <autoFilter ref="A1:I33" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
   <sortState ref="A2:I22">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
@@ -679,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -745,7 +760,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -790,6 +805,9 @@
       <c r="E4">
         <v>26.8</v>
       </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
@@ -944,13 +962,13 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -961,22 +979,22 @@
         <v>0.3520833333333333</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -996,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1013,16 +1031,16 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>18.5</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1031,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1051,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1077,13 +1095,13 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1094,22 +1112,22 @@
         <v>0.54375000000000007</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1123,22 +1141,22 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1158,13 +1176,13 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1175,22 +1193,22 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1201,22 +1219,22 @@
         <v>0.6020833333333333</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>4.8600000000000003</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1227,31 +1245,119 @@
         <v>0.75763888888888886</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
       </c>
       <c r="H21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C19" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
@@ -1261,7 +1367,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{24BF1A42-927F-5048-AE0A-0F0E42BC0B0F}">
       <formula1>"支付宝,微信,现金"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F16 F18:F19 F21:F1048576" xr:uid="{F54D3C14-F33E-754E-A4AB-0B79FBCB5B18}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F16 F18:F19 F21" xr:uid="{F54D3C14-F33E-754E-A4AB-0B79FBCB5B18}">
       <formula1>"1份,1次,1斤,1月,1枚"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15 H18" xr:uid="{F6CAF4CE-3ED5-D041-B276-C04176570775}">
@@ -1270,8 +1376,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20" xr:uid="{2B3FA2A7-F242-B244-8E23-89846C69BAC9}">
       <formula1>"1份,1次,1斤,1月,1枚,1杯"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C1048576" xr:uid="{32056391-3EFC-ED40-8BE1-E01478CF1FA8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{32056391-3EFC-ED40-8BE1-E01478CF1FA8}">
       <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C1048576" xr:uid="{28F5C9BB-5E68-3C44-81AB-0250EFC78F01}">
+      <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD00F1D-BDF3-F84D-B5ED-A52D485635D1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D217F886-426F-9A40-85F6-2DBBBA1EB075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E6F1B7-4791-584C-9455-1F823B6E8B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="day" sheetId="1" r:id="rId1"/>
-    <sheet name="week" sheetId="2" r:id="rId2"/>
-    <sheet name="month" sheetId="3" r:id="rId3"/>
-    <sheet name="year" sheetId="4" r:id="rId4"/>
+    <sheet name="records" sheetId="1" r:id="rId1"/>
+    <sheet name="day" sheetId="5" r:id="rId2"/>
+    <sheet name="week" sheetId="2" r:id="rId3"/>
+    <sheet name="month" sheetId="3" r:id="rId4"/>
+    <sheet name="year" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="145">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网页扫码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,13 +293,262 @@
   </si>
   <si>
     <t>烟</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>相互保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月第二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸酱面</t>
+  </si>
+  <si>
+    <t>兰州拉面门店</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>少年的你</t>
+  </si>
+  <si>
+    <t>2张</t>
+  </si>
+  <si>
+    <t>淘票票-支付宝</t>
+  </si>
+  <si>
+    <t>陈祖广付款：27.8</t>
+  </si>
+  <si>
+    <t>网购</t>
+  </si>
+  <si>
+    <t>乐扣乐扣便当盒套装</t>
+  </si>
+  <si>
+    <t>1套</t>
+  </si>
+  <si>
+    <t>银行卡</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>超市</t>
+  </si>
+  <si>
+    <t>伟昌薯粉条400g</t>
+  </si>
+  <si>
+    <t>1包</t>
+  </si>
+  <si>
+    <t>家乐福超市</t>
+  </si>
+  <si>
+    <t>多味菜</t>
+  </si>
+  <si>
+    <t>ST砀山梨</t>
+  </si>
+  <si>
+    <t>2个</t>
+  </si>
+  <si>
+    <t>四季绿荷兰黄瓜</t>
+  </si>
+  <si>
+    <t>2根</t>
+  </si>
+  <si>
+    <t>精品肋排2</t>
+  </si>
+  <si>
+    <t>1盒</t>
+  </si>
+  <si>
+    <t>高丽农庄泡萝卜块</t>
+  </si>
+  <si>
+    <t>海天9度纯酿米醋</t>
+  </si>
+  <si>
+    <t>1瓶</t>
+  </si>
+  <si>
+    <t>农夫天然水4L</t>
+  </si>
+  <si>
+    <t>娃哈哈八宝粥</t>
+  </si>
+  <si>
+    <t>1罐</t>
+  </si>
+  <si>
+    <t>贡菊A</t>
+  </si>
+  <si>
+    <t>湾仔韭菜猪肉馅水饺</t>
+  </si>
+  <si>
+    <t>康师傅红牛面五包</t>
+  </si>
+  <si>
+    <t>5包</t>
+  </si>
+  <si>
+    <t>HQ精选朝天椒</t>
+  </si>
+  <si>
+    <t>1盘</t>
+  </si>
+  <si>
+    <t>精选红洋葱</t>
+  </si>
+  <si>
+    <t>高丽农庄泡白菜200g</t>
+  </si>
+  <si>
+    <t>1袋</t>
+  </si>
+  <si>
+    <t>精选胡萝卜</t>
+  </si>
+  <si>
+    <t>3根</t>
+  </si>
+  <si>
+    <t>甘汁园白砂糖</t>
+  </si>
+  <si>
+    <t>高露洁360美白200gX</t>
+  </si>
+  <si>
+    <t>一夫2204牙刷2支</t>
+  </si>
+  <si>
+    <t>2支</t>
+  </si>
+  <si>
+    <t>组合刨</t>
+  </si>
+  <si>
+    <t>白菜1+莲花白1+韭菜2</t>
+  </si>
+  <si>
+    <t>4包</t>
+  </si>
+  <si>
+    <t>一次性保鲜盒</t>
+  </si>
+  <si>
+    <t>3盒</t>
+  </si>
+  <si>
+    <t>博瑞800m|</t>
+  </si>
+  <si>
+    <t>1个</t>
+  </si>
+  <si>
+    <t>挂面手打鸡蛋面900g</t>
+  </si>
+  <si>
+    <t>恒精梳棉船袜</t>
+  </si>
+  <si>
+    <t>1双</t>
+  </si>
+  <si>
+    <t>塑料背心袋</t>
+  </si>
+  <si>
+    <t>晨光屋型酸牛奶</t>
+  </si>
+  <si>
+    <t>2019 年 10 月 第一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈祖广付款：197.105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额($)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额(李)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额(陈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈：陈祖广；李：李博</t>
+  </si>
+  <si>
+    <t>陈：陈祖广；李：李博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家乐福超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob 帮忙用他手机 NFC 充值的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪扒炒乌冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上水茶餐厅门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮哥代付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luckincoffee瑞幸咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充2送1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,21 +564,53 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -341,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,11 +629,385 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
@@ -376,15 +1028,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I33" totalsRowShown="0">
-  <autoFilter ref="A1:I33" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState ref="A2:I22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I54" totalsRowShown="0">
+  <autoFilter ref="A1:I54" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState ref="A2:I54">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -394,6 +1046,30 @@
     <tableColumn id="6" xr3:uid="{9868FED4-FBBC-EF4E-8CFC-BEE572A025B8}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
+  <sortState ref="K3:U30">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -694,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -706,9 +1382,11 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -736,8 +1414,21 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>43759</v>
       </c>
@@ -760,10 +1451,43 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>43759</v>
       </c>
@@ -788,8 +1512,41 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="P3" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>43759</v>
       </c>
@@ -806,7 +1563,7 @@
         <v>26.8</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -814,8 +1571,41 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="P4" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>43759</v>
       </c>
@@ -840,8 +1630,41 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P5" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>43759</v>
       </c>
@@ -866,8 +1689,41 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>43759</v>
       </c>
@@ -884,16 +1740,49 @@
         <v>15.99</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="3">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="P7" s="3">
+        <v>16.684999999999999</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>16.684999999999999</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>43760</v>
       </c>
@@ -918,8 +1807,41 @@
       <c r="H8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5.45</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>5.45</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>43760</v>
       </c>
@@ -930,7 +1852,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -939,13 +1861,46 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>43760</v>
       </c>
@@ -953,10 +1908,10 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -965,13 +1920,46 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>43761</v>
       </c>
@@ -979,10 +1967,10 @@
         <v>0.3520833333333333</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -991,13 +1979,46 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="K11" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>43761</v>
       </c>
@@ -1005,10 +2026,10 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1017,13 +2038,46 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="4">
+        <v>12.48</v>
+      </c>
+      <c r="P12" s="4">
+        <v>12.48</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>43761</v>
       </c>
@@ -1031,10 +2085,10 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
       <c r="E13">
         <v>18.5</v>
@@ -1049,10 +2103,43 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="K13" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>43761</v>
       </c>
@@ -1060,10 +2147,10 @@
         <v>0.74722222222222223</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1072,13 +2159,46 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>43762</v>
       </c>
@@ -1086,25 +2206,58 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>43762</v>
       </c>
@@ -1112,80 +2265,179 @@
         <v>0.54375000000000007</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>17</v>
       </c>
       <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P16" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>43762</v>
       </c>
       <c r="B17" s="2">
-        <v>0.77222222222222225</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
       <c r="E17">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="K17" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>43762</v>
       </c>
       <c r="B18" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.77222222222222225</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>43763</v>
       </c>
@@ -1193,25 +2445,58 @@
         <v>0.52708333333333335</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
         <v>52</v>
       </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="H19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="P19" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>43763</v>
       </c>
@@ -1219,25 +2504,58 @@
         <v>0.6020833333333333</v>
       </c>
       <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
       </c>
       <c r="E20">
         <v>4.8600000000000003</v>
       </c>
       <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="P20" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>43763</v>
       </c>
@@ -1245,25 +2563,58 @@
         <v>0.75763888888888886</v>
       </c>
       <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
         <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
       </c>
       <c r="E21">
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="K21" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="3">
+        <v>25</v>
+      </c>
+      <c r="P21" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>43764</v>
       </c>
@@ -1271,25 +2622,58 @@
         <v>0.43611111111111112</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="K22" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="4">
+        <v>20</v>
+      </c>
+      <c r="P22" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>10</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>43764</v>
       </c>
@@ -1297,75 +2681,628 @@
         <v>0.43611111111111112</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="K23" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" s="3">
+        <v>10</v>
+      </c>
+      <c r="P23" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" s="4">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25">
+        <v>26.8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="P25" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>148.97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O26" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="P26" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27">
+        <v>140.33500000000001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="5">
+        <v>43765</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O27" s="3">
+        <v>10</v>
+      </c>
+      <c r="P27" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>3.06</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="7">
+        <v>43765</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="11">
+        <v>43765</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O29" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.84791666666666676</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="14">
+        <f>SUM(O3:O29)</f>
+        <v>345.34000000000009</v>
+      </c>
+      <c r="P30" s="14">
+        <f>SUM(P3:P29)</f>
+        <v>197.10500000000005</v>
+      </c>
+      <c r="Q30" s="14">
+        <f>SUM(Q3:Q29)</f>
+        <v>140.33500000000004</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>43768</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>43768</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:U1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="8">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C19" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8 D10:D11 D14:D15 D18" xr:uid="{71BA34AC-19F5-8649-A6F6-E2F280D67423}">
       <formula1>"地铁"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{24BF1A42-927F-5048-AE0A-0F0E42BC0B0F}">
-      <formula1>"支付宝,微信,现金"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F16 F18:F19 F21" xr:uid="{F54D3C14-F33E-754E-A4AB-0B79FBCB5B18}">
       <formula1>"1份,1次,1斤,1月,1枚"</formula1>
@@ -1379,18 +3316,47 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{32056391-3EFC-ED40-8BE1-E01478CF1FA8}">
       <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C1048576" xr:uid="{28F5C9BB-5E68-3C44-81AB-0250EFC78F01}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C23" xr:uid="{28F5C9BB-5E68-3C44-81AB-0250EFC78F01}">
       <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G26" xr:uid="{24BF1A42-927F-5048-AE0A-0F0E42BC0B0F}">
+      <formula1>"支付宝,微信,现金"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C25" xr:uid="{1A2EA207-7B5D-684A-8A80-01DEA8912458}">
+      <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C27" xr:uid="{5D70956C-08BC-1847-9287-58E3F0F5D56D}">
+      <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险,超市"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C1048576 M3:M30" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
+      <formula1>"超市,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27:G1048576 S3:S30" xr:uid="{194ABDD9-8D09-FC45-ACB3-2CCED48F5B47}">
+      <formula1>"支付宝,微信,现金,银行卡"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2FF376-F086-744B-9590-1745A2BB9815}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD00F1D-BDF3-F84D-B5ED-A52D485635D1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1405,7 +3371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449864C-81B0-2843-812E-DB373BCCD68D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1418,7 +3384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F579D7EB-98F9-654B-82DC-57DD86037272}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E6F1B7-4791-584C-9455-1F823B6E8B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56A1109-B436-844C-B9A3-C4133D724951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
-    <sheet name="day" sheetId="5" r:id="rId2"/>
+    <sheet name="day2" sheetId="6" r:id="rId2"/>
     <sheet name="week" sheetId="2" r:id="rId3"/>
     <sheet name="month" sheetId="3" r:id="rId4"/>
     <sheet name="year" sheetId="4" r:id="rId5"/>
+    <sheet name="template" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="176">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +543,101 @@
   <si>
     <t>充2送1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉刀削面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>转账</t>
+  </si>
+  <si>
+    <t>饮品</t>
+  </si>
+  <si>
+    <t>银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:00</t>
+  </si>
+  <si>
+    <t>1:00</t>
+  </si>
+  <si>
+    <t>2:00</t>
+  </si>
+  <si>
+    <t>3:00</t>
+  </si>
+  <si>
+    <t>4:00</t>
+  </si>
+  <si>
+    <t>5:00</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>7:00</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
   </si>
 </sst>
 </file>
@@ -619,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,9 +743,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -665,11 +758,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -949,13 +1054,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
@@ -988,6 +1086,13 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1035,8 +1140,8 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -1050,19 +1155,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
   <sortState ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="4"/>
@@ -1070,6 +1175,110 @@
     <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A1:AP28" totalsRowShown="0">
+  <autoFilter ref="A1:AP28" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
+  <tableColumns count="42">
+    <tableColumn id="1" xr3:uid="{DB348641-6509-1946-BF4A-65D4C285B05D}" name="日期"/>
+    <tableColumn id="2" xr3:uid="{984A3578-8B4C-FF47-890C-23F994CE29A7}" name="总计"/>
+    <tableColumn id="3" xr3:uid="{AB4BF04E-5252-2A45-BA9A-FE77AE04682C}" name="0:00"/>
+    <tableColumn id="4" xr3:uid="{F5481578-04BD-4747-B94B-07A528CB246A}" name="1:00"/>
+    <tableColumn id="5" xr3:uid="{C95BB74C-C926-9846-BE6C-586A841ACF0F}" name="2:00"/>
+    <tableColumn id="6" xr3:uid="{CFC4042D-D449-D04D-8340-326828E7D4A5}" name="3:00"/>
+    <tableColumn id="7" xr3:uid="{F016CEB8-9BFA-2B4D-BFAC-BFA14C72B826}" name="4:00"/>
+    <tableColumn id="8" xr3:uid="{BA7FB9BF-1093-ED44-9F83-D57C7FE01847}" name="5:00"/>
+    <tableColumn id="9" xr3:uid="{77294F2D-28ED-C34C-BFEF-5851A24EBF33}" name="6:00"/>
+    <tableColumn id="10" xr3:uid="{E99671D3-EF06-0644-9036-6ADDE74E11DF}" name="7:00"/>
+    <tableColumn id="11" xr3:uid="{3CAAE000-629C-B74F-9D6F-4C0769705305}" name="8:00"/>
+    <tableColumn id="12" xr3:uid="{5B47E6F3-457C-6941-B5C8-E355279ED643}" name="9:00"/>
+    <tableColumn id="13" xr3:uid="{195B383B-C1A1-3649-BE29-B283F8D7A5A2}" name="10:00"/>
+    <tableColumn id="14" xr3:uid="{7E4A4601-4C8A-4042-85E0-E114A44C97C2}" name="11:00"/>
+    <tableColumn id="15" xr3:uid="{DEBD9BEA-1E52-344E-B423-1AEC44A5EF3A}" name="12:00"/>
+    <tableColumn id="16" xr3:uid="{4740D7BD-EFD0-9D45-B836-FF1DA499E1AF}" name="13:00"/>
+    <tableColumn id="17" xr3:uid="{D453F3A6-05AB-4744-9839-84ECECB3868F}" name="14:00"/>
+    <tableColumn id="18" xr3:uid="{A8833EB5-D2ED-6D4A-BB41-3A9009754B55}" name="15:00"/>
+    <tableColumn id="19" xr3:uid="{5B7C3AEF-8793-ED4F-BAE9-87BD54D4924F}" name="16:00"/>
+    <tableColumn id="20" xr3:uid="{58A50733-BF36-2043-943F-18B034DA06F9}" name="17:00"/>
+    <tableColumn id="21" xr3:uid="{DCCF3356-D842-C347-9288-03BC2FB2B203}" name="18:00"/>
+    <tableColumn id="22" xr3:uid="{E87201F8-29DB-8942-BAC6-7F4830CC9B15}" name="19:00"/>
+    <tableColumn id="23" xr3:uid="{4B2D64E5-1C76-4A40-BBBE-CE936094CF8F}" name="20:00"/>
+    <tableColumn id="24" xr3:uid="{20B1EEEF-A812-6542-82F5-921EC29E5642}" name="21:00"/>
+    <tableColumn id="25" xr3:uid="{06701350-0123-4145-BB07-32B012A91A73}" name="22:00"/>
+    <tableColumn id="26" xr3:uid="{01E15D91-49BE-F14E-88CC-ADBD0DED3A89}" name="23:00"/>
+    <tableColumn id="27" xr3:uid="{415D7E32-8265-8747-9B65-C6B76CC305CB}" name="支付宝"/>
+    <tableColumn id="28" xr3:uid="{AED323A5-5824-F44D-B641-FF962098B5F6}" name="微信"/>
+    <tableColumn id="29" xr3:uid="{B898AE81-6E88-5A41-8A67-024A1C534AD4}" name="现金"/>
+    <tableColumn id="30" xr3:uid="{B82FD865-DDE9-9342-8EDF-CB970723E0E7}" name="银行卡"/>
+    <tableColumn id="31" xr3:uid="{62F1743C-6835-A945-97E7-B57CB9EDB2BB}" name="出行"/>
+    <tableColumn id="32" xr3:uid="{5930F147-FEC4-7D4A-A00E-D3C0EE2EB74A}" name="午饭"/>
+    <tableColumn id="33" xr3:uid="{9F2ADABF-C39E-F847-9447-CB59C9A8047F}" name="水果"/>
+    <tableColumn id="34" xr3:uid="{6587232B-0D6E-F94F-B2AC-4510BE92A667}" name="充值"/>
+    <tableColumn id="35" xr3:uid="{A3CFE40B-D056-F043-853C-8E548D41FC22}" name="转账"/>
+    <tableColumn id="36" xr3:uid="{6F12E6A2-C284-1149-BCD8-CF9CE7339A2C}" name="饮品"/>
+    <tableColumn id="37" xr3:uid="{108FD3D3-6549-9342-A26B-9B9909A6B3D7}" name="晚饭"/>
+    <tableColumn id="38" xr3:uid="{396B4908-B550-984B-BAB9-276714F3C7D3}" name="烟"/>
+    <tableColumn id="39" xr3:uid="{230A95C9-4DE8-AD4A-A3DD-767C150416E7}" name="电影"/>
+    <tableColumn id="40" xr3:uid="{6C2E0151-D8FC-554B-B253-9C3AE3942B7F}" name="网购"/>
+    <tableColumn id="41" xr3:uid="{298EA5C6-FA38-7348-9C1F-A1078CFBB7CE}" name="超市"/>
+    <tableColumn id="42" xr3:uid="{20A9684E-0DCF-674B-B73E-C92B4306FAE5}" name="保险"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP28" totalsRowShown="0">
+  <autoFilter ref="A1:AP28" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
+  <tableColumns count="42">
+    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
+      <calculatedColumnFormula>SUMIF(records!A2:A54, template!A2, records!E2:E54)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
+    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
+    <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
+    <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
+    <tableColumn id="8" xr3:uid="{79597B7D-20AD-D74C-B2C4-93F5777D74FF}" name="5:00"/>
+    <tableColumn id="9" xr3:uid="{5DF3B79D-EAB8-FA43-A3EC-CAA6D09BB7E1}" name="6:00"/>
+    <tableColumn id="10" xr3:uid="{FF546208-2DC6-154E-8C8F-10C65247C9D6}" name="7:00"/>
+    <tableColumn id="11" xr3:uid="{CE101360-776F-5C4F-BF60-B4E44EE3DEAA}" name="8:00"/>
+    <tableColumn id="12" xr3:uid="{F28257C5-E534-574F-ADE2-149B6AE69F01}" name="9:00"/>
+    <tableColumn id="13" xr3:uid="{00CD7CEE-28E4-3B49-8FD2-B699D8D7663B}" name="10:00"/>
+    <tableColumn id="14" xr3:uid="{AB7C6966-749C-BB4E-BCAC-5EA6C8C9343C}" name="11:00"/>
+    <tableColumn id="15" xr3:uid="{BF636E7B-F378-7841-AFAD-0BBD321E2961}" name="12:00"/>
+    <tableColumn id="16" xr3:uid="{A7264775-A82D-214E-A0A7-AED6590FCFA9}" name="13:00"/>
+    <tableColumn id="17" xr3:uid="{B3720E7F-87EF-0B45-92B1-31687408D5BA}" name="14:00"/>
+    <tableColumn id="18" xr3:uid="{A0BA1AE1-E284-0344-BBD3-DF94ABFE6456}" name="15:00"/>
+    <tableColumn id="19" xr3:uid="{C5641B5E-7E36-F94F-9C6A-0551218A33AF}" name="16:00"/>
+    <tableColumn id="20" xr3:uid="{6844148A-0A32-0C4C-A942-4C6BB579B1BC}" name="17:00"/>
+    <tableColumn id="21" xr3:uid="{86FECC94-DF08-2846-9647-FB53BCFE7522}" name="18:00"/>
+    <tableColumn id="22" xr3:uid="{BC6CED9F-3A7C-B34A-A5DB-A60481062618}" name="19:00"/>
+    <tableColumn id="23" xr3:uid="{001C0F10-4923-0743-8846-1E5D622EBD21}" name="20:00"/>
+    <tableColumn id="24" xr3:uid="{D2C8539C-8AD6-014F-9A59-16B7B8CDA9AB}" name="21:00"/>
+    <tableColumn id="25" xr3:uid="{C89230D6-7B22-9946-9668-036DF53ACDA2}" name="22:00"/>
+    <tableColumn id="26" xr3:uid="{16685DE8-F22E-7F43-B4E0-F28CC5DFD81D}" name="23:00"/>
+    <tableColumn id="27" xr3:uid="{1762542F-31A1-D949-8BB9-EFF3FC8E7AC5}" name="支付宝"/>
+    <tableColumn id="28" xr3:uid="{1C1725D6-45EE-F543-BE1D-153FA2902240}" name="微信"/>
+    <tableColumn id="29" xr3:uid="{09EBB820-12FE-C54A-8B78-E352001872CC}" name="现金"/>
+    <tableColumn id="30" xr3:uid="{99EBF780-E246-7944-A008-028DF02A3742}" name="银行卡"/>
+    <tableColumn id="31" xr3:uid="{F36E8852-F209-CB4F-B12B-ED3694234994}" name="出行"/>
+    <tableColumn id="32" xr3:uid="{418B9897-1F27-5342-BB6B-4E7137AF0B34}" name="午饭"/>
+    <tableColumn id="33" xr3:uid="{3E1F0788-D4FF-C14F-85DC-1A5E26C26D86}" name="水果"/>
+    <tableColumn id="34" xr3:uid="{299CDB6C-9F28-F548-A81F-1E1BCD092399}" name="充值"/>
+    <tableColumn id="35" xr3:uid="{F1F217B1-DE5C-2145-8EC1-6590638CEBF5}" name="转账"/>
+    <tableColumn id="36" xr3:uid="{FE309740-4BA0-CE4D-B938-E7579344FF1A}" name="饮品"/>
+    <tableColumn id="37" xr3:uid="{51AB2BDE-B2B6-3F43-A4F3-B40E31E95B32}" name="晚饭"/>
+    <tableColumn id="38" xr3:uid="{E2A7E210-9B13-6740-BDA5-169832104727}" name="烟"/>
+    <tableColumn id="39" xr3:uid="{865A2004-511E-CC40-B0A1-DAAA87C5D952}" name="电影"/>
+    <tableColumn id="40" xr3:uid="{DB98CC99-83CA-C74A-B94C-862969456B16}" name="网购"/>
+    <tableColumn id="41" xr3:uid="{F996B561-81A5-814C-8819-BC2D360F1E3A}" name="超市"/>
+    <tableColumn id="42" xr3:uid="{15BA6C74-47BF-7F4A-9043-F4C74084676B}" name="保险"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1372,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1414,19 +1623,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -1453,37 +1662,37 @@
       <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3061,37 +3270,37 @@
       <c r="H29" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <v>43765</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <v>0.80972222222222223</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="12">
         <v>15.8</v>
       </c>
-      <c r="P29" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="13">
+      <c r="P29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
         <v>7.9</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="S29" s="13" t="s">
+      <c r="S29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="U29" s="13" t="s">
+      <c r="U29" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3129,15 +3338,15 @@
       <c r="L30" s="8"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="14">
+      <c r="O30" s="13">
         <f>SUM(O3:O29)</f>
         <v>345.34000000000009</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="13">
         <f>SUM(P3:P29)</f>
         <v>197.10500000000005</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30" s="13">
         <f>SUM(Q3:Q29)</f>
         <v>140.33500000000004</v>
       </c>
@@ -3204,67 +3413,89 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
@@ -3297,7 +3528,7 @@
     <mergeCell ref="K1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="12">
+  <dataValidations disablePrompts="1" count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C19" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
@@ -3344,15 +3575,1557 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2FF376-F086-744B-9590-1745A2BB9815}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2B069-B7D1-B241-94FB-BD2BABA4F21B}">
+  <dimension ref="A1:AP12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2">
+        <v>43759</v>
+      </c>
+      <c r="B2">
+        <v>78.589999999999989</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>40.6</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>15.99</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>72.589999999999989</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>6</v>
+      </c>
+      <c r="AF2">
+        <v>16</v>
+      </c>
+      <c r="AG2">
+        <v>40.6</v>
+      </c>
+      <c r="AH2">
+        <v>15.99</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3">
+        <v>43760</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>19</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>6</v>
+      </c>
+      <c r="AF3">
+        <v>16</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4">
+        <v>43761</v>
+      </c>
+      <c r="B4">
+        <v>1024.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1003</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>18.5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>18.5</v>
+      </c>
+      <c r="AB4">
+        <v>1006</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>6</v>
+      </c>
+      <c r="AF4">
+        <v>18.5</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1000</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5">
+        <v>43762</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>103</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>123</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>106</v>
+      </c>
+      <c r="AF5">
+        <v>17</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6">
+        <v>43763</v>
+      </c>
+      <c r="B6">
+        <v>46.86</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <v>16.86</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>30</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AK6">
+        <v>12</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7">
+        <v>43764</v>
+      </c>
+      <c r="B7">
+        <v>71.8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>42.8</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>71.8</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>16</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>29</v>
+      </c>
+      <c r="AM7">
+        <v>26.8</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8">
+        <v>43765</v>
+      </c>
+      <c r="B8">
+        <v>289.30500000000001</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>148.97</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>140.33500000000001</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>140.33500000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>148.97</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>148.97</v>
+      </c>
+      <c r="AO8">
+        <v>140.33500000000001</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9">
+        <v>43766</v>
+      </c>
+      <c r="B9">
+        <v>3.06</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>3.06</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>3.06</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10">
+        <v>43767</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>50</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>16</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>50</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>16</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>50</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11">
+        <v>43768</v>
+      </c>
+      <c r="B11">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <v>54</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>78</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>24</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>54</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12">
+        <v>43769</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>12</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>12</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3395,4 +5168,2074 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2FF376-F086-744B-9590-1745A2BB9815}">
+  <dimension ref="A1:AP28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(records!A2:A54, template!A2, records!E2:E54)</f>
+        <v>78.589999999999989</v>
+      </c>
+      <c r="C2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>40.6</v>
+      </c>
+      <c r="V2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>15.99</v>
+      </c>
+      <c r="Z2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!G2:G54,template!AA1)</f>
+        <v>72.589999999999989</v>
+      </c>
+      <c r="AB2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!G2:G54,template!AB1)</f>
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!G2:G54,template!AC1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AE1)</f>
+        <v>6</v>
+      </c>
+      <c r="AF2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AF1)</f>
+        <v>16</v>
+      </c>
+      <c r="AG2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AG1)</f>
+        <v>40.6</v>
+      </c>
+      <c r="AH2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AH1)</f>
+        <v>15.99</v>
+      </c>
+      <c r="AI2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B3">
+        <f>SUMIF(records!A3:A55, template!A3, records!E3:E55)</f>
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!G2:G54,template!AA1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!G2:G54,template!AB1)</f>
+        <v>19</v>
+      </c>
+      <c r="AC3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!G2:G54,template!AC1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AE1)</f>
+        <v>6</v>
+      </c>
+      <c r="AF3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AF1)</f>
+        <v>16</v>
+      </c>
+      <c r="AG3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B4">
+        <f>SUMIF(records!A4:A56, template!A4, records!E4:E56)</f>
+        <v>1024.5</v>
+      </c>
+      <c r="C4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>1003</v>
+      </c>
+      <c r="L4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>18.5</v>
+      </c>
+      <c r="P4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!G2:G54,template!AA1)</f>
+        <v>18.5</v>
+      </c>
+      <c r="AB4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!G2:G54,template!AB1)</f>
+        <v>1006</v>
+      </c>
+      <c r="AC4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!G2:G54,template!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AE1)</f>
+        <v>6</v>
+      </c>
+      <c r="AF4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AF1)</f>
+        <v>18.5</v>
+      </c>
+      <c r="AG4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AI1)</f>
+        <v>1000</v>
+      </c>
+      <c r="AJ4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B5">
+        <f>SUMIF(records!A5:A57, template!A5, records!E5:E57)</f>
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>17</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>103</v>
+      </c>
+      <c r="V5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!G2:G54,template!AA1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!G2:G54,template!AB1)</f>
+        <v>123</v>
+      </c>
+      <c r="AC5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!G2:G54,template!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AE1)</f>
+        <v>106</v>
+      </c>
+      <c r="AF5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AF1)</f>
+        <v>17</v>
+      </c>
+      <c r="AG5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B6">
+        <f>SUMIF(records!A6:A58, template!A6, records!E6:E58)</f>
+        <v>46.86</v>
+      </c>
+      <c r="C6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="R6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>12</v>
+      </c>
+      <c r="V6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!G2:G54,template!AA1)</f>
+        <v>30</v>
+      </c>
+      <c r="AB6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!G2:G54,template!AB1)</f>
+        <v>16.86</v>
+      </c>
+      <c r="AC6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!G2:G54,template!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AE1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AF1)</f>
+        <v>30</v>
+      </c>
+      <c r="AG6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AJ1)</f>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AK6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AK1)</f>
+        <v>12</v>
+      </c>
+      <c r="AL6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B7">
+        <f>SUMIF(records!A7:A59, template!A7, records!E7:E59)</f>
+        <v>71.8</v>
+      </c>
+      <c r="C7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>42.8</v>
+      </c>
+      <c r="P7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!G2:G54,template!AA1)</f>
+        <v>71.8</v>
+      </c>
+      <c r="AB7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!G2:G54,template!AB1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!G2:G54,template!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AE1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AF1)</f>
+        <v>16</v>
+      </c>
+      <c r="AG7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AL1)</f>
+        <v>29</v>
+      </c>
+      <c r="AM7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AM1)</f>
+        <v>26.8</v>
+      </c>
+      <c r="AN7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B8">
+        <f>SUMIF(records!A8:A60, template!A8, records!E8:E60)</f>
+        <v>289.30500000000001</v>
+      </c>
+      <c r="C8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>148.97</v>
+      </c>
+      <c r="S8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>140.33500000000001</v>
+      </c>
+      <c r="W8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!G2:G54,template!AA1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!G2:G54,template!AB1)</f>
+        <v>140.33500000000001</v>
+      </c>
+      <c r="AC8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!G2:G54,template!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!G2:G54,template!AD1)</f>
+        <v>148.97</v>
+      </c>
+      <c r="AE8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AE1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AF1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AN1)</f>
+        <v>148.97</v>
+      </c>
+      <c r="AO8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AO1)</f>
+        <v>140.33500000000001</v>
+      </c>
+      <c r="AP8">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B9">
+        <f>SUMIF(records!A9:A61, template!A9, records!E9:E61)</f>
+        <v>3.06</v>
+      </c>
+      <c r="C9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>3.06</v>
+      </c>
+      <c r="S9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!G2:G54,template!AA1)</f>
+        <v>3.06</v>
+      </c>
+      <c r="AB9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!G2:G54,template!AB1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!G2:G54,template!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AE1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AF1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AP1)</f>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B10">
+        <f>SUMIF(records!A10:A62, template!A10, records!E10:E62)</f>
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>50</v>
+      </c>
+      <c r="X10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!G2:G54,template!AA1)</f>
+        <v>16</v>
+      </c>
+      <c r="AB10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!G2:G54,template!AB1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!G2:G54,template!AC1)</f>
+        <v>50</v>
+      </c>
+      <c r="AD10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AE1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AF1)</f>
+        <v>16</v>
+      </c>
+      <c r="AG10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AH1)</f>
+        <v>50</v>
+      </c>
+      <c r="AI10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="1">
+        <v>43768</v>
+      </c>
+      <c r="B11">
+        <f>SUMIF(records!A11:A63, template!A11, records!E11:E63)</f>
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>24</v>
+      </c>
+      <c r="P11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>54</v>
+      </c>
+      <c r="Q11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!G2:G54,template!AA1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!G2:G54,template!AB1)</f>
+        <v>78</v>
+      </c>
+      <c r="AC11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!G2:G54,template!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AE1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AF1)</f>
+        <v>24</v>
+      </c>
+      <c r="AG11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AH1)</f>
+        <v>54</v>
+      </c>
+      <c r="AI11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B12">
+        <f>SUMIF(records!A12:A64, template!A12, records!E12:E64)</f>
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!G2:G54,template!AA1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!G2:G54,template!AB1)</f>
+        <v>12</v>
+      </c>
+      <c r="AC12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!G2:G54,template!AC1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!G2:G54,template!AD1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AE1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AF1)</f>
+        <v>12</v>
+      </c>
+      <c r="AG12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AH1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AK1)</f>
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AL1)</f>
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AM1)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AN1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AO1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AP1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="1"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="D28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56A1109-B436-844C-B9A3-C4133D724951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957A6E2-25F3-FE47-BA23-C08D31AD78DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" activeTab="2" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
-    <sheet name="day2" sheetId="6" r:id="rId2"/>
-    <sheet name="week" sheetId="2" r:id="rId3"/>
-    <sheet name="month" sheetId="3" r:id="rId4"/>
-    <sheet name="year" sheetId="4" r:id="rId5"/>
-    <sheet name="template" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="day2" sheetId="6" r:id="rId3"/>
+    <sheet name="week" sheetId="2" r:id="rId4"/>
+    <sheet name="month" sheetId="3" r:id="rId5"/>
+    <sheet name="year" sheetId="4" r:id="rId6"/>
+    <sheet name="template" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="176">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -709,13 +710,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +772,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1582,7 +1597,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3575,14 +3590,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFA19D1-C572-4E46-B6DF-8094C1D7C063}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>43759</v>
+      </c>
+      <c r="B2" s="3">
+        <v>78.589999999999989</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>43760</v>
+      </c>
+      <c r="B3" s="4">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>43761</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1024.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2B069-B7D1-B241-94FB-BD2BABA4F21B}">
   <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" t="s">
@@ -3713,7 +3803,7 @@
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>43759</v>
       </c>
       <c r="B2">
@@ -3841,7 +3931,7 @@
       </c>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>43760</v>
       </c>
       <c r="B3">
@@ -3969,7 +4059,7 @@
       </c>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>43761</v>
       </c>
       <c r="B4">
@@ -4097,7 +4187,7 @@
       </c>
     </row>
     <row r="5" spans="1:42">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>43762</v>
       </c>
       <c r="B5">
@@ -4225,7 +4315,7 @@
       </c>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>43763</v>
       </c>
       <c r="B6">
@@ -4353,7 +4443,7 @@
       </c>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>43764</v>
       </c>
       <c r="B7">
@@ -4481,7 +4571,7 @@
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>43765</v>
       </c>
       <c r="B8">
@@ -4609,7 +4699,7 @@
       </c>
     </row>
     <row r="9" spans="1:42">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>43766</v>
       </c>
       <c r="B9">
@@ -4737,7 +4827,7 @@
       </c>
     </row>
     <row r="10" spans="1:42">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>43767</v>
       </c>
       <c r="B10">
@@ -4865,7 +4955,7 @@
       </c>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>43768</v>
       </c>
       <c r="B11">
@@ -4993,7 +5083,7 @@
       </c>
     </row>
     <row r="12" spans="1:42">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>43769</v>
       </c>
       <c r="B12">
@@ -5129,7 +5219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD00F1D-BDF3-F84D-B5ED-A52D485635D1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5144,7 +5234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449864C-81B0-2843-812E-DB373BCCD68D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5157,7 +5247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F579D7EB-98F9-654B-82DC-57DD86037272}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5170,12 +5260,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2FF376-F086-744B-9590-1745A2BB9815}">
   <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5489,7 +5579,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -5658,7 +5748,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -5827,7 +5917,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -5996,7 +6086,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -6165,7 +6255,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -6334,7 +6424,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -6503,7 +6593,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -6672,7 +6762,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -6841,7 +6931,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
@@ -7010,7 +7100,7 @@
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E8934E-6591-0F42-830A-CDE63A988FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B7B04-95C4-B043-852C-240CC5774A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="200">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,10 +722,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深圳-惠州</t>
-  </si>
-  <si>
     <t>惠州-深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳-惠州 改签到深圳坪山，上车补票到惠州东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2056,7 +2057,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4121,7 +4122,7 @@
         <v>195</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -4133,7 +4134,7 @@
         <v>197</v>
       </c>
       <c r="I41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4162,12 +4163,37 @@
         <v>197</v>
       </c>
       <c r="I42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1"/>
@@ -4218,7 +4244,7 @@
     <mergeCell ref="K1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="12">
+  <dataValidations disablePrompts="1" count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C19" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
@@ -7516,7 +7542,7 @@
       </c>
       <c r="B2">
         <f>SUM(records!E2:E54)</f>
-        <v>1954.1149999999998</v>
+        <v>1965.1149999999998</v>
       </c>
     </row>
   </sheetData>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B7B04-95C4-B043-852C-240CC5774A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4292A8-C623-2C49-8A4B-6732F4401E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="214">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,6 +727,59 @@
   </si>
   <si>
     <t>深圳-惠州 改签到深圳坪山，上车补票到惠州东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘三姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有家便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊田乌冬面 + 香辣鸡排 + 东鹏特饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东支付</t>
+  </si>
+  <si>
+    <t>京东支付首单 20 减 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富图宝八抓鱼支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花呗</t>
+  </si>
+  <si>
+    <t>天猫富图宝旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年11月房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪脚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪脚饭门店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2056,7 +2109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -4196,46 +4249,184 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47">
+        <v>98.7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="A48" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="C48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48">
+        <v>2000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49">
+        <v>17.98</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
@@ -4244,7 +4435,7 @@
     <mergeCell ref="K1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="12">
+  <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C19" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
@@ -4275,14 +4466,24 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C27" xr:uid="{5D70956C-08BC-1847-9287-58E3F0F5D56D}">
       <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险,超市"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C1048576 M3:M30" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M30 C28:C47" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
       <formula1>"超市,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S30 G27:G1048576" xr:uid="{194ABDD9-8D09-FC45-ACB3-2CCED48F5B47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S30 G27:G45" xr:uid="{194ABDD9-8D09-FC45-ACB3-2CCED48F5B47}">
       <formula1>"支付宝,微信,现金,银行卡"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46" xr:uid="{6AC63A75-0A4B-F844-8604-EDDBE48252C2}">
+      <formula1>"支付宝,微信,现金,银行卡,京东支付"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47:G1048576" xr:uid="{AB2624E0-09E7-5443-880C-92CC86805E28}">
+      <formula1>"花呗,支付宝,微信,现金,银行卡,京东支付"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:C1048576" xr:uid="{402C1FA3-762E-FE4D-9BF9-F5D3CB10D30E}">
+      <formula1>"超市,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,房租,保险"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -7542,7 +7743,7 @@
       </c>
       <c r="B2">
         <f>SUM(records!E2:E54)</f>
-        <v>1965.1149999999998</v>
+        <v>4129.7949999999992</v>
       </c>
     </row>
   </sheetData>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4292A8-C623-2C49-8A4B-6732F4401E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008BE5E-7BEA-0C45-8E43-386C2E5FF89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="239">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,6 +780,105 @@
   </si>
   <si>
     <t>猪脚饭门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三丝炒米粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖拿铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob 代付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木人禾美发店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木人禾珠光站门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和颜才淇一人1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯德基套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好日子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福合埕牛肉店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鲜粥+马鲛丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末惠州游，港口汽车站旁边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯德基门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巽寮湾全季酒店对面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门票</t>
+  </si>
+  <si>
+    <t>惠东海龟自然保护区门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠东海龟自然保护区售票窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末惠州游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康师傅红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠东海龟自然保护区售票窗口旁边便利店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好丽友派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠东油麻园小学附近小超市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1367,9 +1466,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I54" totalsRowShown="0">
-  <autoFilter ref="A1:I54" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState ref="A2:I54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I64" totalsRowShown="0">
+  <autoFilter ref="A1:I64" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState ref="A2:I64">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
@@ -1575,7 +1674,7 @@
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A54, template!A2, records!E2:E54)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A64, template!A2, records!E2:E64)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
@@ -2107,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2165,7 +2264,7 @@
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
     </row>
-    <row r="2" spans="1:21" hidden="1">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>43759</v>
       </c>
@@ -2224,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>43759</v>
       </c>
@@ -2283,7 +2382,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>43759</v>
       </c>
@@ -2342,7 +2441,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>43759</v>
       </c>
@@ -2401,7 +2500,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>43759</v>
       </c>
@@ -2460,7 +2559,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>43759</v>
       </c>
@@ -2519,7 +2618,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>43760</v>
       </c>
@@ -2578,7 +2677,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>43760</v>
       </c>
@@ -2637,7 +2736,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>43760</v>
       </c>
@@ -2696,7 +2795,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>43761</v>
       </c>
@@ -2755,7 +2854,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>43761</v>
       </c>
@@ -2814,7 +2913,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>43761</v>
       </c>
@@ -2876,7 +2975,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1">
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>43761</v>
       </c>
@@ -2935,7 +3034,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>43762</v>
       </c>
@@ -2994,7 +3093,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1">
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>43762</v>
       </c>
@@ -3053,7 +3152,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>43762</v>
       </c>
@@ -3112,7 +3211,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>43762</v>
       </c>
@@ -3174,7 +3273,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>43763</v>
       </c>
@@ -3233,7 +3332,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>43763</v>
       </c>
@@ -3292,7 +3391,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>43763</v>
       </c>
@@ -3351,7 +3450,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>43764</v>
       </c>
@@ -3410,7 +3509,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>43764</v>
       </c>
@@ -3469,7 +3568,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>43764</v>
       </c>
@@ -3528,7 +3627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1">
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>43764</v>
       </c>
@@ -3590,7 +3689,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1">
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>43765</v>
       </c>
@@ -3649,7 +3748,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1">
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>43765</v>
       </c>
@@ -3711,7 +3810,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1">
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>43766</v>
       </c>
@@ -3773,7 +3872,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1">
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>43767</v>
       </c>
@@ -3832,7 +3931,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1">
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>43767</v>
       </c>
@@ -3883,7 +3982,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" hidden="1">
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>43768</v>
       </c>
@@ -3912,7 +4011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1">
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>43768</v>
       </c>
@@ -3941,7 +4040,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>43769</v>
       </c>
@@ -4111,28 +4210,25 @@
         <v>43773</v>
       </c>
       <c r="B39" s="2">
-        <v>0.62291666666666667</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" t="s">
-        <v>193</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4140,25 +4236,28 @@
         <v>43773</v>
       </c>
       <c r="B40" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E40">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>57</v>
+      </c>
+      <c r="I40" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4384,7 +4483,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>43776</v>
       </c>
@@ -4410,32 +4509,316 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51">
+        <v>10.5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52">
+        <v>1500</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>218</v>
+      </c>
+      <c r="I52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="C54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>232</v>
+      </c>
+      <c r="I54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>236</v>
+      </c>
+      <c r="I55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>238</v>
+      </c>
+      <c r="I56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>228</v>
+      </c>
+      <c r="I57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s">
+        <v>222</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="15">
+  <dataValidations count="16">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C19" xr:uid="{3E43E9E5-CA6B-4F45-A703-CF25F1C54DE5}">
       <formula1>"出行,午饭,水果"</formula1>
     </dataValidation>
@@ -4478,8 +4861,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47:G1048576" xr:uid="{AB2624E0-09E7-5443-880C-92CC86805E28}">
       <formula1>"花呗,支付宝,微信,现金,银行卡,京东支付"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:C1048576" xr:uid="{402C1FA3-762E-FE4D-9BF9-F5D3CB10D30E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:C56" xr:uid="{402C1FA3-762E-FE4D-9BF9-F5D3CB10D30E}">
       <formula1>"超市,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,房租,保险"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C1048576" xr:uid="{DF5019A3-F445-8F45-B228-756FB479B348}">
+      <formula1>"超市,门票,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,房租,保险"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7742,8 +8128,8 @@
         <v>2019</v>
       </c>
       <c r="B2">
-        <f>SUM(records!E2:E54)</f>
-        <v>4129.7949999999992</v>
+        <f>SUM(records!E2:E64)</f>
+        <v>5887.2949999999992</v>
       </c>
     </row>
   </sheetData>
@@ -7902,163 +8288,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!G2:G64,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!G2:G64,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A2,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8071,163 +8457,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!G2:G64,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!G2:G64,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A3,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8240,163 +8626,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!G2:G64,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!G2:G64,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A4,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8409,163 +8795,163 @@
         <v>123</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>103</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!G2:G64,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!G2:G64,template!AB1)</f>
         <v>123</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AE1)</f>
         <v>106</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A5,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8578,163 +8964,163 @@
         <v>46.86</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>30</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>4.8600000000000003</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!G2:G64,template!AA1)</f>
         <v>30</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!G2:G64,template!AB1)</f>
         <v>16.86</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AJ1)</f>
         <v>4.8600000000000003</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AK1)</f>
         <v>12</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A6,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8747,163 +9133,163 @@
         <v>71.8</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>29</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>42.8</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!G2:G64,template!AA1)</f>
         <v>71.8</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!G2:G64,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AL1)</f>
         <v>29</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AM1)</f>
         <v>26.8</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A7,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8916,163 +9302,163 @@
         <v>289.30500000000001</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>148.97</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>140.33500000000001</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!G2:G64,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!G2:G64,template!AB1)</f>
         <v>140.33500000000001</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!G2:G64,template!AD1)</f>
         <v>148.97</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AN1)</f>
         <v>148.97</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AO1)</f>
         <v>140.33500000000001</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A8,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9085,163 +9471,163 @@
         <v>3.06</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>3.06</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!G2:G64,template!AA1)</f>
         <v>3.06</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!G2:G64,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A9,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AP1)</f>
         <v>3.06</v>
       </c>
     </row>
@@ -9254,163 +9640,163 @@
         <v>66</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>50</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!G2:G64,template!AA1)</f>
         <v>16</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!G2:G64,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!G2:G64,template!AC1)</f>
         <v>50</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AH1)</f>
         <v>50</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A10,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9423,163 +9809,163 @@
         <v>78</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>24</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>54</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!G2:G64,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!G2:G64,template!AB1)</f>
         <v>78</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AH1)</f>
         <v>54</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A11,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9592,163 +9978,163 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!C1,records!B2:B54, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!D1,records!B2:B54, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!E1,records!B2:B54, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!F1,records!B2:B54, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!G1,records!B2:B54, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!H1,records!B2:B54, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!I1,records!B2:B54, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!J1,records!B2:B54, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!K1,records!B2:B54, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!L1,records!B2:B54, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!M1,records!B2:B54, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!N1,records!B2:B54, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!O1,records!B2:B54, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
         <v>12</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!P1,records!B2:B54, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!Q1,records!B2:B54, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!R1,records!B2:B54, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!S1,records!B2:B54, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!T1,records!B2:B54, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!U1,records!B2:B54, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!V1,records!B2:B54, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!W1,records!B2:B54, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!X1,records!B2:B54, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!Y1,records!B2:B54, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12, records!B2:B54, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!G2:G54,template!AA1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!G2:G64,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!G2:G54,template!AB1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!G2:G64,template!AB1)</f>
         <v>12</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!G2:G54,template!AC1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!G2:G64,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!G2:G54,template!AD1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!G2:G64,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AE1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AF1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AF1)</f>
         <v>12</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AG1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AH1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AI1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AK1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AL1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AM1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AN1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AO1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E54,records!A2:A54,template!A12,records!C2:C54,template!AP1)</f>
+        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5008BE5E-7BEA-0C45-8E43-386C2E5FF89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A395FC9-49A1-F64A-9DFE-D2919FBADA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="2580" windowWidth="28240" windowHeight="17440" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="277">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,10 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深圳-惠州 改签到深圳坪山，上车补票到惠州东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘三姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,6 +875,160 @@
   </si>
   <si>
     <t>惠东油麻园小学附近小超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠东站到惠州南站高铁票一等座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州南站到深圳北高铁票一等座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车上补票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳北-惠州南(20) 深圳北-深圳坪山(12) 改签费(2) 深圳坪山-惠东(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改签费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳坪山 - 惠东高铁二等票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳北 - 深圳坪山高铁二等票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡布奇诺瑞纳冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob 代点，他有 3.8 折券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾仁炒米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠东到港口专线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车上买票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州稔山巽寮专线</t>
+  </si>
+  <si>
+    <t>焦糖玛奇朵</t>
+  </si>
+  <si>
+    <t>美团外卖APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食来食往饭团点餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（食来食往）Bob 代点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯瘦拼肉卷猪脚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛腩粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜+油麦菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈祖广代付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大掌柜69满减套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食来食往饭团点餐（加购了一个月会员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互保分摊 11 月第 1 期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汕牛肉门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中份的量也挺多的，下次点小份的就够了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小超市门店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖广代付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食来食往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食来食往饭团点餐（Bob）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1466,9 +1616,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I64" totalsRowShown="0">
-  <autoFilter ref="A1:I64" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState ref="A2:I64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I99" totalsRowShown="0">
+  <autoFilter ref="A1:I99" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState ref="A2:I99">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
@@ -1674,7 +1824,7 @@
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A64, template!A2, records!E2:E64)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A99, template!A2, records!E2:E99)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
@@ -2206,10 +2356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4271,10 +4421,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
         <v>196</v>
@@ -4286,7 +4436,7 @@
         <v>197</v>
       </c>
       <c r="I41" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4384,7 +4534,7 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E45">
         <v>21</v>
@@ -4396,7 +4546,7 @@
         <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4410,22 +4560,22 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46">
         <v>11</v>
       </c>
       <c r="F46" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" t="s">
         <v>203</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" t="s">
         <v>204</v>
-      </c>
-      <c r="H46" t="s">
-        <v>201</v>
-      </c>
-      <c r="I46" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4439,19 +4589,19 @@
         <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47">
         <v>98.7</v>
       </c>
       <c r="F47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G47" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" t="s">
         <v>207</v>
-      </c>
-      <c r="H47" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4462,10 +4612,10 @@
         <v>0.3354166666666667</v>
       </c>
       <c r="C48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" t="s">
         <v>209</v>
-      </c>
-      <c r="D48" t="s">
-        <v>210</v>
       </c>
       <c r="E48">
         <v>2000</v>
@@ -4480,7 +4630,7 @@
         <v>39</v>
       </c>
       <c r="I48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4494,7 +4644,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49">
         <v>17.98</v>
@@ -4503,10 +4653,10 @@
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4514,28 +4664,28 @@
         <v>43777</v>
       </c>
       <c r="B50" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.46597222222222223</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="I50" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4543,28 +4693,28 @@
         <v>43777</v>
       </c>
       <c r="B51" s="2">
-        <v>0.61249999999999993</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E51">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
         <v>24</v>
       </c>
       <c r="H51" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="I51" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4572,57 +4722,57 @@
         <v>43777</v>
       </c>
       <c r="B52" s="2">
-        <v>0.94166666666666676</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E52">
-        <v>1500</v>
+        <v>10.5</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>218</v>
+        <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>43778</v>
+        <v>43777</v>
       </c>
       <c r="B53" s="2">
-        <v>0.49652777777777773</v>
+        <v>0.94166666666666676</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I53" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4630,16 +4780,16 @@
         <v>43778</v>
       </c>
       <c r="B54" s="2">
-        <v>0.54583333333333328</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
         <v>196</v>
@@ -4648,10 +4798,10 @@
         <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I54" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4659,28 +4809,28 @@
         <v>43778</v>
       </c>
       <c r="B55" s="2">
-        <v>0.6430555555555556</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="I55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4688,130 +4838,811 @@
         <v>43778</v>
       </c>
       <c r="B56" s="2">
-        <v>0.71458333333333324</v>
+        <v>0.49652777777777773</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I56" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>43779</v>
+        <v>43778</v>
       </c>
       <c r="B57" s="2">
-        <v>0.60347222222222219</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E57">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I57" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="B58" s="2">
-        <v>0.6777777777777777</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E58">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>223</v>
+        <v>235</v>
+      </c>
+      <c r="I58" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>43780</v>
+        <v>43778</v>
       </c>
       <c r="B59" s="2">
-        <v>0.77916666666666667</v>
+        <v>0.71458333333333324</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E59">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
         <v>63</v>
       </c>
       <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>237</v>
+      </c>
+      <c r="I59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>197</v>
+      </c>
+      <c r="I60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.60347222222222219</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61">
+        <v>51</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
         <v>24</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H61" t="s">
+        <v>227</v>
+      </c>
+      <c r="I61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>250</v>
+      </c>
+      <c r="I62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64">
+        <v>88</v>
+      </c>
+      <c r="F64" t="s">
+        <v>221</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.77916666666666667</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66">
+        <v>13.8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>246</v>
+      </c>
+      <c r="E68">
+        <v>10.5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>260</v>
+      </c>
+      <c r="I69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>258</v>
+      </c>
+      <c r="I70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71">
+        <v>20.25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>253</v>
+      </c>
+      <c r="I71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E72">
+        <v>10.5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74">
+        <v>3.03</v>
+      </c>
+      <c r="F74" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>265</v>
+      </c>
+      <c r="I74" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="C75" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75">
+        <v>32.5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>253</v>
+      </c>
+      <c r="I75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>267</v>
+      </c>
+      <c r="I76" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>269</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>270</v>
+      </c>
+      <c r="I77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C78" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78">
+        <v>3.5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>270</v>
+      </c>
+      <c r="I78" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79">
+        <v>50</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" t="s">
+        <v>273</v>
+      </c>
+      <c r="E80">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F80" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C81" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" t="s">
+        <v>274</v>
+      </c>
+      <c r="E81">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s">
+        <v>275</v>
+      </c>
+      <c r="I81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4849,22 +5680,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C27" xr:uid="{5D70956C-08BC-1847-9287-58E3F0F5D56D}">
       <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险,超市"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M30 C28:C47" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M30 C28:C49" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
       <formula1>"超市,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S30 G27:G45" xr:uid="{194ABDD9-8D09-FC45-ACB3-2CCED48F5B47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S30 G27:G47" xr:uid="{194ABDD9-8D09-FC45-ACB3-2CCED48F5B47}">
       <formula1>"支付宝,微信,现金,银行卡"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G46" xr:uid="{6AC63A75-0A4B-F844-8604-EDDBE48252C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48" xr:uid="{6AC63A75-0A4B-F844-8604-EDDBE48252C2}">
       <formula1>"支付宝,微信,现金,银行卡,京东支付"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47:G1048576" xr:uid="{AB2624E0-09E7-5443-880C-92CC86805E28}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49:G1048576" xr:uid="{AB2624E0-09E7-5443-880C-92CC86805E28}">
       <formula1>"花呗,支付宝,微信,现金,银行卡,京东支付"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:C56" xr:uid="{402C1FA3-762E-FE4D-9BF9-F5D3CB10D30E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50:C58" xr:uid="{402C1FA3-762E-FE4D-9BF9-F5D3CB10D30E}">
       <formula1>"超市,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,房租,保险"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C1048576" xr:uid="{DF5019A3-F445-8F45-B228-756FB479B348}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59:C1048576" xr:uid="{DF5019A3-F445-8F45-B228-756FB479B348}">
       <formula1>"超市,门票,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,房租,保险"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8128,8 +8959,8 @@
         <v>2019</v>
       </c>
       <c r="B2">
-        <f>SUM(records!E2:E64)</f>
-        <v>5887.2949999999992</v>
+        <f>SUM(records!E2:E99)</f>
+        <v>6246.1949999999988</v>
       </c>
     </row>
   </sheetData>
@@ -8284,167 +9115,167 @@
         <v>43770</v>
       </c>
       <c r="B2">
-        <f>SUMIF(records!A2:A54, template!A2, records!E2:E54)</f>
+        <f>SUMIF(records!A2:A56, template!A2, records!E2:E56)</f>
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!G2:G99,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!G2:G99,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A2,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A2,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8453,167 +9284,167 @@
         <v>43771</v>
       </c>
       <c r="B3">
-        <f>SUMIF(records!A3:A55, template!A3, records!E3:E55)</f>
+        <f>SUMIF(records!A3:A57, template!A3, records!E3:E57)</f>
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!G2:G99,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!G2:G99,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A3,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A3,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8622,167 +9453,167 @@
         <v>43772</v>
       </c>
       <c r="B4">
-        <f>SUMIF(records!A4:A56, template!A4, records!E4:E56)</f>
+        <f>SUMIF(records!A4:A58, template!A4, records!E4:E58)</f>
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!G2:G99,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!G2:G99,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A4,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A4,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8791,167 +9622,167 @@
         <v>43762</v>
       </c>
       <c r="B5">
-        <f>SUMIF(records!A5:A57, template!A5, records!E5:E57)</f>
+        <f>SUMIF(records!A5:A59, template!A5, records!E5:E59)</f>
         <v>123</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>103</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!G2:G99,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!G2:G99,template!AB1)</f>
         <v>123</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AE1)</f>
         <v>106</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A5,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A5,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8960,167 +9791,167 @@
         <v>43763</v>
       </c>
       <c r="B6">
-        <f>SUMIF(records!A6:A58, template!A6, records!E6:E58)</f>
+        <f>SUMIF(records!A6:A60, template!A6, records!E6:E60)</f>
         <v>46.86</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>30</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>4.8600000000000003</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!G2:G99,template!AA1)</f>
         <v>30</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!G2:G99,template!AB1)</f>
         <v>16.86</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AJ1)</f>
         <v>4.8600000000000003</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AK1)</f>
         <v>12</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A6,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A6,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9129,167 +9960,167 @@
         <v>43764</v>
       </c>
       <c r="B7">
-        <f>SUMIF(records!A7:A59, template!A7, records!E7:E59)</f>
+        <f>SUMIF(records!A7:A61, template!A7, records!E7:E61)</f>
         <v>71.8</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>29</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>42.8</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!G2:G99,template!AA1)</f>
         <v>71.8</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!G2:G99,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AL1)</f>
         <v>29</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AM1)</f>
         <v>26.8</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A7,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A7,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9298,167 +10129,167 @@
         <v>43765</v>
       </c>
       <c r="B8">
-        <f>SUMIF(records!A8:A60, template!A8, records!E8:E60)</f>
+        <f>SUMIF(records!A8:A62, template!A8, records!E8:E62)</f>
         <v>289.30500000000001</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>148.97</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>140.33500000000001</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!G2:G99,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!G2:G99,template!AB1)</f>
         <v>140.33500000000001</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!G2:G99,template!AD1)</f>
         <v>148.97</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AN1)</f>
         <v>148.97</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AO1)</f>
         <v>140.33500000000001</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A8,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A8,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9467,167 +10298,167 @@
         <v>43766</v>
       </c>
       <c r="B9">
-        <f>SUMIF(records!A9:A61, template!A9, records!E9:E61)</f>
+        <f>SUMIF(records!A9:A63, template!A9, records!E9:E63)</f>
         <v>3.06</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>3.06</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!G2:G99,template!AA1)</f>
         <v>3.06</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!G2:G99,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A9,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A9,records!C2:C99,template!AP1)</f>
         <v>3.06</v>
       </c>
     </row>
@@ -9636,167 +10467,167 @@
         <v>43767</v>
       </c>
       <c r="B10">
-        <f>SUMIF(records!A10:A62, template!A10, records!E10:E62)</f>
+        <f>SUMIF(records!A10:A64, template!A10, records!E10:E64)</f>
         <v>66</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>50</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!G2:G99,template!AA1)</f>
         <v>16</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!G2:G99,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!G2:G99,template!AC1)</f>
         <v>50</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AH1)</f>
         <v>50</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A10,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A10,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9805,167 +10636,167 @@
         <v>43768</v>
       </c>
       <c r="B11">
-        <f>SUMIF(records!A11:A63, template!A11, records!E11:E63)</f>
+        <f>SUMIF(records!A11:A65, template!A11, records!E11:E65)</f>
         <v>78</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>24</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>54</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!G2:G99,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!G2:G99,template!AB1)</f>
         <v>78</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AH1)</f>
         <v>54</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A11,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A11,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -9974,167 +10805,167 @@
         <v>43769</v>
       </c>
       <c r="B12">
-        <f>SUMIF(records!A12:A64, template!A12, records!E12:E64)</f>
+        <f>SUMIF(records!A12:A66, template!A12, records!E12:E66)</f>
         <v>12</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!C1,records!B2:B64, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!C1,records!B2:B99, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!D1,records!B2:B64, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!D1,records!B2:B99, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!E1,records!B2:B64, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!E1,records!B2:B99, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!F1,records!B2:B64, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!F1,records!B2:B99, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!G1,records!B2:B64, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!G1,records!B2:B99, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!H1,records!B2:B64, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!H1,records!B2:B99, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!I1,records!B2:B64, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!I1,records!B2:B99, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!J1,records!B2:B64, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!J1,records!B2:B99, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!K1,records!B2:B64, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!K1,records!B2:B99, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!L1,records!B2:B64, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!L1,records!B2:B99, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!M1,records!B2:B64, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!M1,records!B2:B99, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!N1,records!B2:B64, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!N1,records!B2:B99, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!O1,records!B2:B64, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!O1,records!B2:B99, "&lt;" &amp; template!P1)</f>
         <v>12</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!P1,records!B2:B64, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!P1,records!B2:B99, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!Q1,records!B2:B64, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!Q1,records!B2:B99, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!R1,records!B2:B64, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!R1,records!B2:B99, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!S1,records!B2:B64, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!S1,records!B2:B99, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!T1,records!B2:B64, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!T1,records!B2:B99, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!U1,records!B2:B64, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!U1,records!B2:B99, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!V1,records!B2:B64, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!V1,records!B2:B99, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!W1,records!B2:B64, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!W1,records!B2:B99, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!X1,records!B2:B64, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!X1,records!B2:B99, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!Y1,records!B2:B64, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!Y1,records!B2:B99, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12, records!B2:B64, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12, records!B2:B99, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!G2:G64,template!AA1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!G2:G99,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!G2:G64,template!AB1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!G2:G99,template!AB1)</f>
         <v>12</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!G2:G64,template!AC1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!G2:G99,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!G2:G64,template!AD1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!G2:G99,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AE1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AF1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AF1)</f>
         <v>12</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AG1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AH1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AI1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AK1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AL1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AM1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AN1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AO1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E64,records!A2:A64,template!A12,records!C2:C64,template!AP1)</f>
+        <f>SUMIFS(records!E2:E99,records!A2:A99,template!A12,records!C2:C99,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09F69CE-45BC-424C-867F-9D84B4BD9D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9705E0-89B2-024D-BB85-7A5AA9C42A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="373">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1286,6 +1286,126 @@
   </si>
   <si>
     <t>莓莓芝士茉香茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠宜泰生活超市3号</t>
+  </si>
+  <si>
+    <t>水饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 年 12 月 6 号 一次超市购物</t>
+  </si>
+  <si>
+    <t>2019 年 12 月 6 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小票放太久，看不清了，下次要早点记账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 年 11 月 16 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 年 11 月1 6 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来炖排骨汤了，到12/12也没喝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思念花生汤圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海霸王福州包心鱼丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双汇泡面搭档火腿肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蒜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉馅</t>
+  </si>
+  <si>
+    <t>2019 年 12 月 2 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅轻发酵乳燕麦核桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿庄园豆芽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季豆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,7 +1484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1387,6 +1507,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1442,7 +1568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,17 +1659,1704 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
@@ -2093,15 +3906,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I127" totalsRowShown="0">
-  <autoFilter ref="A1:I127" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I149" totalsRowShown="0">
+  <autoFilter ref="A1:I149" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
   <sortState ref="A2:I123">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="102"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -2115,6 +3928,201 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
+  <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{951E6C41-8E10-0A4E-A6C3-A8D87A227907}" name="日期"/>
+    <tableColumn id="2" xr3:uid="{3DEB4119-4E7A-FB47-8EEC-925C96AD4671}" name="总计"/>
+    <tableColumn id="3" xr3:uid="{CF54B538-F54E-1542-A1DD-4FE594C3FC25}" name="出行"/>
+    <tableColumn id="4" xr3:uid="{4E5029B7-DF7E-FF45-9BC8-0D5EBD8811B8}" name="午饭"/>
+    <tableColumn id="5" xr3:uid="{D63D317D-AA54-474E-9362-73E7BA782266}" name="水果"/>
+    <tableColumn id="6" xr3:uid="{FFEFDC55-A633-B248-80B8-2033249CBAB4}" name="充值"/>
+    <tableColumn id="7" xr3:uid="{AEAECA32-C939-144D-B8C1-D388632A6CC9}" name="转账"/>
+    <tableColumn id="8" xr3:uid="{F97BC226-4EC4-5D4C-B2AC-F8B7FEB8364F}" name="饮品"/>
+    <tableColumn id="9" xr3:uid="{596E4DD0-6A89-7F4A-B72E-1AF7E4D92AA6}" name="晚饭"/>
+    <tableColumn id="10" xr3:uid="{C4386B18-2E46-014A-8FDC-0C1231144E8B}" name="烟"/>
+    <tableColumn id="11" xr3:uid="{F9237577-C555-5240-9D96-2142AED3266B}" name="电影"/>
+    <tableColumn id="12" xr3:uid="{B586E297-9E10-9942-AD15-6CAA4B2B60C2}" name="网购"/>
+    <tableColumn id="13" xr3:uid="{2AB79D47-298C-E247-BBC3-A230AF34A4C8}" name="超市"/>
+    <tableColumn id="14" xr3:uid="{24D9C995-49AC-0345-9677-511968FB7EC8}" name="保险"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
+  <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
+  <tableColumns count="44">
+    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{017C7CC6-7A50-E14C-9010-4A96C3E17AAE}" name="周次"/>
+    <tableColumn id="6" xr3:uid="{5013C261-37F5-024E-8869-62C7BB939C64}" name="总计"/>
+    <tableColumn id="7" xr3:uid="{86979D30-41EE-6C4C-B773-E0842C968F33}" name="0:00"/>
+    <tableColumn id="8" xr3:uid="{D7C5CAD1-8A59-6F42-AEAF-6E65956BE129}" name="1:00"/>
+    <tableColumn id="9" xr3:uid="{A5075338-9952-314E-B382-0DA9DD06FC76}" name="2:00"/>
+    <tableColumn id="10" xr3:uid="{DE685715-D32C-FA42-B0C3-F36E2D8A16D5}" name="3:00"/>
+    <tableColumn id="11" xr3:uid="{7CDC6AEB-29BD-E744-9562-B6BCC5C6D411}" name="4:00"/>
+    <tableColumn id="12" xr3:uid="{EA219B84-4752-E243-9E5B-7F3C3BB9D5BB}" name="5:00"/>
+    <tableColumn id="13" xr3:uid="{9E7E8529-8BF5-BD4E-8DFE-CEF9579C2D5C}" name="6:00"/>
+    <tableColumn id="14" xr3:uid="{EDB45FBE-AEA2-0548-80C8-D8D9B58EE492}" name="7:00"/>
+    <tableColumn id="15" xr3:uid="{5E8E24F9-67CF-A84F-83E5-1BA132101022}" name="8:00"/>
+    <tableColumn id="16" xr3:uid="{5E1767CA-9B75-9345-8D11-33A933BA7BA6}" name="9:00"/>
+    <tableColumn id="17" xr3:uid="{8C2271C9-3CAE-C145-B051-C65712DE3221}" name="10:00"/>
+    <tableColumn id="18" xr3:uid="{515667BC-6B50-2A4E-B1F3-93E203923A39}" name="11:00"/>
+    <tableColumn id="19" xr3:uid="{94C014A8-34FA-7545-9B0D-0CA2E834A599}" name="12:00"/>
+    <tableColumn id="20" xr3:uid="{09A63B6F-AC2C-D741-B8D3-36C7499236A9}" name="13:00"/>
+    <tableColumn id="21" xr3:uid="{E0E65717-C264-E04D-A156-E6B9A30A72D2}" name="14:00"/>
+    <tableColumn id="22" xr3:uid="{4957BE5F-D684-EF4D-A47E-CEFCB2FECE7A}" name="15:00"/>
+    <tableColumn id="23" xr3:uid="{B26C9A74-154F-AD43-AA45-C7B8D7C319D0}" name="16:00"/>
+    <tableColumn id="24" xr3:uid="{FE21D5E2-BA54-EA4E-B71F-531AEC85F03A}" name="17:00"/>
+    <tableColumn id="25" xr3:uid="{8AEA73D7-E6D9-864E-8E54-09CC203CE4F8}" name="18:00"/>
+    <tableColumn id="26" xr3:uid="{9B1D9739-1404-F14D-B31E-F36D99157EA3}" name="19:00"/>
+    <tableColumn id="27" xr3:uid="{D655117E-7C3A-CF45-BCB9-ADCF373468A6}" name="20:00"/>
+    <tableColumn id="28" xr3:uid="{7C87ADB5-91F4-BC42-B444-49D13E873A33}" name="21:00"/>
+    <tableColumn id="29" xr3:uid="{A626422A-AEA5-0B45-B518-D62432EE10E2}" name="22:00"/>
+    <tableColumn id="30" xr3:uid="{42E5ECAE-002D-9943-BA21-3A25E0497AA9}" name="23:00"/>
+    <tableColumn id="31" xr3:uid="{87C91A8D-BA59-6A4A-8EA2-24CDED1E3215}" name="支付宝"/>
+    <tableColumn id="32" xr3:uid="{21E7FAC1-6E45-FD4D-9664-4F86A10D55B2}" name="微信"/>
+    <tableColumn id="33" xr3:uid="{BC12FAC6-E295-D844-83E5-E895C52A9D54}" name="现金"/>
+    <tableColumn id="34" xr3:uid="{B9487250-336F-2043-8BB9-A0611A7EC46A}" name="银行卡"/>
+    <tableColumn id="35" xr3:uid="{21C8435F-BEEF-A04A-80FF-C3944E0FD7A7}" name="出行"/>
+    <tableColumn id="36" xr3:uid="{0EDB518E-AEB8-8146-941D-E12591627266}" name="午饭"/>
+    <tableColumn id="37" xr3:uid="{CE968EC8-6E68-8742-8BF0-6DD16A59778C}" name="水果"/>
+    <tableColumn id="38" xr3:uid="{5C4C9B4A-2B8B-C448-9C11-475C9525B948}" name="充值"/>
+    <tableColumn id="39" xr3:uid="{468CBC4C-729D-3F40-856A-38957D0B294C}" name="转账"/>
+    <tableColumn id="40" xr3:uid="{B7EA6E7C-CD78-D941-AD2B-82E0628A6CD2}" name="饮品"/>
+    <tableColumn id="41" xr3:uid="{5A60C2D3-0A36-DE40-AEC8-D0CBCFFD7498}" name="晚饭"/>
+    <tableColumn id="42" xr3:uid="{509AAE89-8194-3244-ABFA-BBB07BFBFF47}" name="烟"/>
+    <tableColumn id="43" xr3:uid="{6AD0F27F-18FA-6246-91BE-6BCA693E9A4E}" name="电影"/>
+    <tableColumn id="44" xr3:uid="{1D48DD41-6543-9B47-BCBF-167DA24FC5B8}" name="网购"/>
+    <tableColumn id="45" xr3:uid="{60A7F129-007A-6D42-9245-7FB1001C7711}" name="超市"/>
+    <tableColumn id="46" xr3:uid="{9D4775BB-B243-984A-8877-4FAEC6BACB7B}" name="保险"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
+  <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
+  <tableColumns count="44">
+    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{E3BB613C-2E5A-4046-9257-D1DB5057AC50}" name="月份"/>
+    <tableColumn id="4" xr3:uid="{581D6C9B-0675-814D-8E48-FE3CBE3222FF}" name="总计"/>
+    <tableColumn id="5" xr3:uid="{8CD512E4-B465-1948-AD0C-9D92E154A27C}" name="0:00"/>
+    <tableColumn id="6" xr3:uid="{95C84B0E-338C-0346-A9F7-0349AEC47F5D}" name="1:00"/>
+    <tableColumn id="7" xr3:uid="{FC29CB06-EA8D-C04F-AF3D-7DBC69D348DC}" name="2:00"/>
+    <tableColumn id="8" xr3:uid="{DFE5AD66-8BDB-9743-A6F0-4F4FA2ADBFF1}" name="3:00"/>
+    <tableColumn id="9" xr3:uid="{DB06A479-7AE6-494A-9F13-5851015861E3}" name="4:00"/>
+    <tableColumn id="10" xr3:uid="{D601BC89-D0C0-1F45-9BF4-A6F892985C56}" name="5:00"/>
+    <tableColumn id="11" xr3:uid="{9A13FE8F-7474-D248-BCDB-429E551F278B}" name="6:00"/>
+    <tableColumn id="12" xr3:uid="{AA9F5A94-0AB9-0B4F-ACD9-3675603CB27E}" name="7:00"/>
+    <tableColumn id="13" xr3:uid="{AACFD7AF-9208-1848-818C-FC986DC965AD}" name="8:00"/>
+    <tableColumn id="14" xr3:uid="{D2C10C93-6EA6-9245-A8D0-D6A2A2327970}" name="9:00"/>
+    <tableColumn id="15" xr3:uid="{5208471D-3996-AA4C-9946-1EAF5C0B1289}" name="10:00"/>
+    <tableColumn id="16" xr3:uid="{D08F9D6C-0E23-2343-B47F-7E1A4389ACEF}" name="11:00"/>
+    <tableColumn id="17" xr3:uid="{7FCFCA47-8958-BA4B-8D18-B92A7B499A28}" name="12:00"/>
+    <tableColumn id="18" xr3:uid="{62512BA8-8F9E-C44C-9235-075F4E4611D1}" name="13:00"/>
+    <tableColumn id="19" xr3:uid="{0EF6DF7D-2801-6945-96AF-2B5DD416E880}" name="14:00"/>
+    <tableColumn id="20" xr3:uid="{E4DD330C-C02D-F545-BB5C-34D59A54D09A}" name="15:00"/>
+    <tableColumn id="21" xr3:uid="{11C8EF13-981D-C24F-AA00-8558674718D8}" name="16:00"/>
+    <tableColumn id="22" xr3:uid="{F66238C2-7DF0-FC49-8241-A1CD4633CD5E}" name="17:00"/>
+    <tableColumn id="23" xr3:uid="{E875A7AD-DE20-AE4C-AE5D-58370383A1AB}" name="18:00"/>
+    <tableColumn id="24" xr3:uid="{6F35EEE0-5E7A-6749-BA99-A93EB17E035D}" name="19:00"/>
+    <tableColumn id="25" xr3:uid="{02022FE3-3C75-7B4D-8CE5-CBEC692214E3}" name="20:00"/>
+    <tableColumn id="26" xr3:uid="{1839CEE0-6014-4C42-8690-56DE8E7EB613}" name="21:00"/>
+    <tableColumn id="27" xr3:uid="{20EFDDCB-19DD-4A4B-ADB9-EAD654DB56E8}" name="22:00"/>
+    <tableColumn id="28" xr3:uid="{75B0F560-26CB-5A46-A629-17335F813599}" name="23:00"/>
+    <tableColumn id="29" xr3:uid="{AA689BED-DC61-DD4C-8BDF-1DBFA392B7DC}" name="支付宝"/>
+    <tableColumn id="30" xr3:uid="{2DAD8972-F431-0545-B717-C6975D79DA70}" name="微信"/>
+    <tableColumn id="31" xr3:uid="{81B3E610-5D08-A848-8050-D71BAB30DC6F}" name="现金"/>
+    <tableColumn id="32" xr3:uid="{832C0D1C-5674-7D4D-B948-1C715EC67596}" name="银行卡"/>
+    <tableColumn id="33" xr3:uid="{C6A69ADA-B68A-4C47-82D7-663680607442}" name="出行"/>
+    <tableColumn id="34" xr3:uid="{2634CE50-48FB-A246-A961-E8EFA6E8C635}" name="午饭"/>
+    <tableColumn id="35" xr3:uid="{8E24FB0A-9947-7E42-86EB-A169F9275B53}" name="水果"/>
+    <tableColumn id="36" xr3:uid="{1889C805-13B8-9E4F-A31E-B7F271197A58}" name="充值"/>
+    <tableColumn id="37" xr3:uid="{793EBF21-A586-F84E-A585-4D7AF3A516DB}" name="转账"/>
+    <tableColumn id="38" xr3:uid="{0CB890B3-3D37-5C41-A7B9-A4F3CC414A0E}" name="饮品"/>
+    <tableColumn id="39" xr3:uid="{5D0C8D65-2C60-5B4D-B79C-439E4F74DD98}" name="晚饭"/>
+    <tableColumn id="40" xr3:uid="{EA130573-8EEE-9F45-9718-BFE9BA5F9F1D}" name="烟"/>
+    <tableColumn id="41" xr3:uid="{FADA7872-AA9F-294E-8A42-059A146F88B6}" name="电影"/>
+    <tableColumn id="42" xr3:uid="{DCF85958-C71C-2943-A389-DC1E819ABEAE}" name="网购"/>
+    <tableColumn id="43" xr3:uid="{4EE0EC33-A019-B54B-BCDA-EF41408DE88F}" name="超市"/>
+    <tableColumn id="44" xr3:uid="{88518A4D-FF15-BE41-901D-42E55880A7C5}" name="保险"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
+    <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
+      <calculatedColumnFormula>SUM(records!E2:E149)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
+  <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
+  <tableColumns count="42">
+    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
+      <calculatedColumnFormula>SUMIF(records!A2:A149, template!A2, records!E2:E149)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
+    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
+    <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
+    <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
+    <tableColumn id="8" xr3:uid="{79597B7D-20AD-D74C-B2C4-93F5777D74FF}" name="5:00"/>
+    <tableColumn id="9" xr3:uid="{5DF3B79D-EAB8-FA43-A3EC-CAA6D09BB7E1}" name="6:00"/>
+    <tableColumn id="10" xr3:uid="{FF546208-2DC6-154E-8C8F-10C65247C9D6}" name="7:00"/>
+    <tableColumn id="11" xr3:uid="{CE101360-776F-5C4F-BF60-B4E44EE3DEAA}" name="8:00"/>
+    <tableColumn id="12" xr3:uid="{F28257C5-E534-574F-ADE2-149B6AE69F01}" name="9:00"/>
+    <tableColumn id="13" xr3:uid="{00CD7CEE-28E4-3B49-8FD2-B699D8D7663B}" name="10:00"/>
+    <tableColumn id="14" xr3:uid="{AB7C6966-749C-BB4E-BCAC-5EA6C8C9343C}" name="11:00"/>
+    <tableColumn id="15" xr3:uid="{BF636E7B-F378-7841-AFAD-0BBD321E2961}" name="12:00"/>
+    <tableColumn id="16" xr3:uid="{A7264775-A82D-214E-A0A7-AED6590FCFA9}" name="13:00"/>
+    <tableColumn id="17" xr3:uid="{B3720E7F-87EF-0B45-92B1-31687408D5BA}" name="14:00"/>
+    <tableColumn id="18" xr3:uid="{A0BA1AE1-E284-0344-BBD3-DF94ABFE6456}" name="15:00"/>
+    <tableColumn id="19" xr3:uid="{C5641B5E-7E36-F94F-9C6A-0551218A33AF}" name="16:00"/>
+    <tableColumn id="20" xr3:uid="{6844148A-0A32-0C4C-A942-4C6BB579B1BC}" name="17:00"/>
+    <tableColumn id="21" xr3:uid="{86FECC94-DF08-2846-9647-FB53BCFE7522}" name="18:00"/>
+    <tableColumn id="22" xr3:uid="{BC6CED9F-3A7C-B34A-A5DB-A60481062618}" name="19:00"/>
+    <tableColumn id="23" xr3:uid="{001C0F10-4923-0743-8846-1E5D622EBD21}" name="20:00"/>
+    <tableColumn id="24" xr3:uid="{D2C8539C-8AD6-014F-9A59-16B7B8CDA9AB}" name="21:00"/>
+    <tableColumn id="25" xr3:uid="{C89230D6-7B22-9946-9668-036DF53ACDA2}" name="22:00"/>
+    <tableColumn id="26" xr3:uid="{16685DE8-F22E-7F43-B4E0-F28CC5DFD81D}" name="23:00"/>
+    <tableColumn id="27" xr3:uid="{1762542F-31A1-D949-8BB9-EFF3FC8E7AC5}" name="支付宝"/>
+    <tableColumn id="28" xr3:uid="{1C1725D6-45EE-F543-BE1D-153FA2902240}" name="微信"/>
+    <tableColumn id="29" xr3:uid="{09EBB820-12FE-C54A-8B78-E352001872CC}" name="现金"/>
+    <tableColumn id="30" xr3:uid="{99EBF780-E246-7944-A008-028DF02A3742}" name="银行卡"/>
+    <tableColumn id="31" xr3:uid="{F36E8852-F209-CB4F-B12B-ED3694234994}" name="出行"/>
+    <tableColumn id="32" xr3:uid="{418B9897-1F27-5342-BB6B-4E7137AF0B34}" name="午饭"/>
+    <tableColumn id="33" xr3:uid="{3E1F0788-D4FF-C14F-85DC-1A5E26C26D86}" name="水果"/>
+    <tableColumn id="34" xr3:uid="{299CDB6C-9F28-F548-A81F-1E1BCD092399}" name="充值"/>
+    <tableColumn id="35" xr3:uid="{F1F217B1-DE5C-2145-8EC1-6590638CEBF5}" name="转账"/>
+    <tableColumn id="36" xr3:uid="{FE309740-4BA0-CE4D-B938-E7579344FF1A}" name="饮品"/>
+    <tableColumn id="37" xr3:uid="{51AB2BDE-B2B6-3F43-A4F3-B40E31E95B32}" name="晚饭"/>
+    <tableColumn id="38" xr3:uid="{E2A7E210-9B13-6740-BDA5-169832104727}" name="烟"/>
+    <tableColumn id="39" xr3:uid="{865A2004-511E-CC40-B0A1-DAAA87C5D952}" name="电影"/>
+    <tableColumn id="40" xr3:uid="{DB98CC99-83CA-C74A-B94C-862969456B16}" name="网购"/>
+    <tableColumn id="41" xr3:uid="{F996B561-81A5-814C-8819-BC2D360F1E3A}" name="超市"/>
+    <tableColumn id="42" xr3:uid="{15BA6C74-47BF-7F4A-9043-F4C74084676B}" name="保险"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -2167,12 +4175,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="69"/>
     <tableColumn id="3" xr3:uid="{92055967-689A-EC42-B55A-6B47F10291F6}" name="月份"/>
     <tableColumn id="4" xr3:uid="{55866787-4B70-3048-A457-F0AE2ECD6322}" name="总计">
       <calculatedColumnFormula>SUMIFS(day!B3:B55,day!A3:A55,"&gt;="&amp;template!A41,day!A3:A55,"&lt;="&amp;template!B41)</calculatedColumnFormula>
@@ -2303,30 +4311,138 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
   <sortState ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="94"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" headerRowBorderDxfId="65" tableBorderDxfId="66">
+  <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
+  <sortState ref="K34:S60">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
+  <sortState ref="K45:S69">
+    <sortCondition ref="K2:K29"/>
+    <sortCondition ref="L2:L29"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53">
+  <autoFilter ref="K61:S68" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
+  <sortState ref="K62:S87">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40">
+  <autoFilter ref="K71:S75" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
+  <sortState ref="K72:S94">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="15">
+  <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -2361,213 +4477,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
-  <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{951E6C41-8E10-0A4E-A6C3-A8D87A227907}" name="日期"/>
-    <tableColumn id="2" xr3:uid="{3DEB4119-4E7A-FB47-8EEC-925C96AD4671}" name="总计"/>
-    <tableColumn id="3" xr3:uid="{CF54B538-F54E-1542-A1DD-4FE594C3FC25}" name="出行"/>
-    <tableColumn id="4" xr3:uid="{4E5029B7-DF7E-FF45-9BC8-0D5EBD8811B8}" name="午饭"/>
-    <tableColumn id="5" xr3:uid="{D63D317D-AA54-474E-9362-73E7BA782266}" name="水果"/>
-    <tableColumn id="6" xr3:uid="{FFEFDC55-A633-B248-80B8-2033249CBAB4}" name="充值"/>
-    <tableColumn id="7" xr3:uid="{AEAECA32-C939-144D-B8C1-D388632A6CC9}" name="转账"/>
-    <tableColumn id="8" xr3:uid="{F97BC226-4EC4-5D4C-B2AC-F8B7FEB8364F}" name="饮品"/>
-    <tableColumn id="9" xr3:uid="{596E4DD0-6A89-7F4A-B72E-1AF7E4D92AA6}" name="晚饭"/>
-    <tableColumn id="10" xr3:uid="{C4386B18-2E46-014A-8FDC-0C1231144E8B}" name="烟"/>
-    <tableColumn id="11" xr3:uid="{F9237577-C555-5240-9D96-2142AED3266B}" name="电影"/>
-    <tableColumn id="12" xr3:uid="{B586E297-9E10-9942-AD15-6CAA4B2B60C2}" name="网购"/>
-    <tableColumn id="13" xr3:uid="{2AB79D47-298C-E247-BBC3-A230AF34A4C8}" name="超市"/>
-    <tableColumn id="14" xr3:uid="{24D9C995-49AC-0345-9677-511968FB7EC8}" name="保险"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
-  <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
-  <tableColumns count="44">
-    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{017C7CC6-7A50-E14C-9010-4A96C3E17AAE}" name="周次"/>
-    <tableColumn id="6" xr3:uid="{5013C261-37F5-024E-8869-62C7BB939C64}" name="总计"/>
-    <tableColumn id="7" xr3:uid="{86979D30-41EE-6C4C-B773-E0842C968F33}" name="0:00"/>
-    <tableColumn id="8" xr3:uid="{D7C5CAD1-8A59-6F42-AEAF-6E65956BE129}" name="1:00"/>
-    <tableColumn id="9" xr3:uid="{A5075338-9952-314E-B382-0DA9DD06FC76}" name="2:00"/>
-    <tableColumn id="10" xr3:uid="{DE685715-D32C-FA42-B0C3-F36E2D8A16D5}" name="3:00"/>
-    <tableColumn id="11" xr3:uid="{7CDC6AEB-29BD-E744-9562-B6BCC5C6D411}" name="4:00"/>
-    <tableColumn id="12" xr3:uid="{EA219B84-4752-E243-9E5B-7F3C3BB9D5BB}" name="5:00"/>
-    <tableColumn id="13" xr3:uid="{9E7E8529-8BF5-BD4E-8DFE-CEF9579C2D5C}" name="6:00"/>
-    <tableColumn id="14" xr3:uid="{EDB45FBE-AEA2-0548-80C8-D8D9B58EE492}" name="7:00"/>
-    <tableColumn id="15" xr3:uid="{5E8E24F9-67CF-A84F-83E5-1BA132101022}" name="8:00"/>
-    <tableColumn id="16" xr3:uid="{5E1767CA-9B75-9345-8D11-33A933BA7BA6}" name="9:00"/>
-    <tableColumn id="17" xr3:uid="{8C2271C9-3CAE-C145-B051-C65712DE3221}" name="10:00"/>
-    <tableColumn id="18" xr3:uid="{515667BC-6B50-2A4E-B1F3-93E203923A39}" name="11:00"/>
-    <tableColumn id="19" xr3:uid="{94C014A8-34FA-7545-9B0D-0CA2E834A599}" name="12:00"/>
-    <tableColumn id="20" xr3:uid="{09A63B6F-AC2C-D741-B8D3-36C7499236A9}" name="13:00"/>
-    <tableColumn id="21" xr3:uid="{E0E65717-C264-E04D-A156-E6B9A30A72D2}" name="14:00"/>
-    <tableColumn id="22" xr3:uid="{4957BE5F-D684-EF4D-A47E-CEFCB2FECE7A}" name="15:00"/>
-    <tableColumn id="23" xr3:uid="{B26C9A74-154F-AD43-AA45-C7B8D7C319D0}" name="16:00"/>
-    <tableColumn id="24" xr3:uid="{FE21D5E2-BA54-EA4E-B71F-531AEC85F03A}" name="17:00"/>
-    <tableColumn id="25" xr3:uid="{8AEA73D7-E6D9-864E-8E54-09CC203CE4F8}" name="18:00"/>
-    <tableColumn id="26" xr3:uid="{9B1D9739-1404-F14D-B31E-F36D99157EA3}" name="19:00"/>
-    <tableColumn id="27" xr3:uid="{D655117E-7C3A-CF45-BCB9-ADCF373468A6}" name="20:00"/>
-    <tableColumn id="28" xr3:uid="{7C87ADB5-91F4-BC42-B444-49D13E873A33}" name="21:00"/>
-    <tableColumn id="29" xr3:uid="{A626422A-AEA5-0B45-B518-D62432EE10E2}" name="22:00"/>
-    <tableColumn id="30" xr3:uid="{42E5ECAE-002D-9943-BA21-3A25E0497AA9}" name="23:00"/>
-    <tableColumn id="31" xr3:uid="{87C91A8D-BA59-6A4A-8EA2-24CDED1E3215}" name="支付宝"/>
-    <tableColumn id="32" xr3:uid="{21E7FAC1-6E45-FD4D-9664-4F86A10D55B2}" name="微信"/>
-    <tableColumn id="33" xr3:uid="{BC12FAC6-E295-D844-83E5-E895C52A9D54}" name="现金"/>
-    <tableColumn id="34" xr3:uid="{B9487250-336F-2043-8BB9-A0611A7EC46A}" name="银行卡"/>
-    <tableColumn id="35" xr3:uid="{21C8435F-BEEF-A04A-80FF-C3944E0FD7A7}" name="出行"/>
-    <tableColumn id="36" xr3:uid="{0EDB518E-AEB8-8146-941D-E12591627266}" name="午饭"/>
-    <tableColumn id="37" xr3:uid="{CE968EC8-6E68-8742-8BF0-6DD16A59778C}" name="水果"/>
-    <tableColumn id="38" xr3:uid="{5C4C9B4A-2B8B-C448-9C11-475C9525B948}" name="充值"/>
-    <tableColumn id="39" xr3:uid="{468CBC4C-729D-3F40-856A-38957D0B294C}" name="转账"/>
-    <tableColumn id="40" xr3:uid="{B7EA6E7C-CD78-D941-AD2B-82E0628A6CD2}" name="饮品"/>
-    <tableColumn id="41" xr3:uid="{5A60C2D3-0A36-DE40-AEC8-D0CBCFFD7498}" name="晚饭"/>
-    <tableColumn id="42" xr3:uid="{509AAE89-8194-3244-ABFA-BBB07BFBFF47}" name="烟"/>
-    <tableColumn id="43" xr3:uid="{6AD0F27F-18FA-6246-91BE-6BCA693E9A4E}" name="电影"/>
-    <tableColumn id="44" xr3:uid="{1D48DD41-6543-9B47-BCBF-167DA24FC5B8}" name="网购"/>
-    <tableColumn id="45" xr3:uid="{60A7F129-007A-6D42-9245-7FB1001C7711}" name="超市"/>
-    <tableColumn id="46" xr3:uid="{9D4775BB-B243-984A-8877-4FAEC6BACB7B}" name="保险"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
-  <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
-  <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E3BB613C-2E5A-4046-9257-D1DB5057AC50}" name="月份"/>
-    <tableColumn id="4" xr3:uid="{581D6C9B-0675-814D-8E48-FE3CBE3222FF}" name="总计"/>
-    <tableColumn id="5" xr3:uid="{8CD512E4-B465-1948-AD0C-9D92E154A27C}" name="0:00"/>
-    <tableColumn id="6" xr3:uid="{95C84B0E-338C-0346-A9F7-0349AEC47F5D}" name="1:00"/>
-    <tableColumn id="7" xr3:uid="{FC29CB06-EA8D-C04F-AF3D-7DBC69D348DC}" name="2:00"/>
-    <tableColumn id="8" xr3:uid="{DFE5AD66-8BDB-9743-A6F0-4F4FA2ADBFF1}" name="3:00"/>
-    <tableColumn id="9" xr3:uid="{DB06A479-7AE6-494A-9F13-5851015861E3}" name="4:00"/>
-    <tableColumn id="10" xr3:uid="{D601BC89-D0C0-1F45-9BF4-A6F892985C56}" name="5:00"/>
-    <tableColumn id="11" xr3:uid="{9A13FE8F-7474-D248-BCDB-429E551F278B}" name="6:00"/>
-    <tableColumn id="12" xr3:uid="{AA9F5A94-0AB9-0B4F-ACD9-3675603CB27E}" name="7:00"/>
-    <tableColumn id="13" xr3:uid="{AACFD7AF-9208-1848-818C-FC986DC965AD}" name="8:00"/>
-    <tableColumn id="14" xr3:uid="{D2C10C93-6EA6-9245-A8D0-D6A2A2327970}" name="9:00"/>
-    <tableColumn id="15" xr3:uid="{5208471D-3996-AA4C-9946-1EAF5C0B1289}" name="10:00"/>
-    <tableColumn id="16" xr3:uid="{D08F9D6C-0E23-2343-B47F-7E1A4389ACEF}" name="11:00"/>
-    <tableColumn id="17" xr3:uid="{7FCFCA47-8958-BA4B-8D18-B92A7B499A28}" name="12:00"/>
-    <tableColumn id="18" xr3:uid="{62512BA8-8F9E-C44C-9235-075F4E4611D1}" name="13:00"/>
-    <tableColumn id="19" xr3:uid="{0EF6DF7D-2801-6945-96AF-2B5DD416E880}" name="14:00"/>
-    <tableColumn id="20" xr3:uid="{E4DD330C-C02D-F545-BB5C-34D59A54D09A}" name="15:00"/>
-    <tableColumn id="21" xr3:uid="{11C8EF13-981D-C24F-AA00-8558674718D8}" name="16:00"/>
-    <tableColumn id="22" xr3:uid="{F66238C2-7DF0-FC49-8241-A1CD4633CD5E}" name="17:00"/>
-    <tableColumn id="23" xr3:uid="{E875A7AD-DE20-AE4C-AE5D-58370383A1AB}" name="18:00"/>
-    <tableColumn id="24" xr3:uid="{6F35EEE0-5E7A-6749-BA99-A93EB17E035D}" name="19:00"/>
-    <tableColumn id="25" xr3:uid="{02022FE3-3C75-7B4D-8CE5-CBEC692214E3}" name="20:00"/>
-    <tableColumn id="26" xr3:uid="{1839CEE0-6014-4C42-8690-56DE8E7EB613}" name="21:00"/>
-    <tableColumn id="27" xr3:uid="{20EFDDCB-19DD-4A4B-ADB9-EAD654DB56E8}" name="22:00"/>
-    <tableColumn id="28" xr3:uid="{75B0F560-26CB-5A46-A629-17335F813599}" name="23:00"/>
-    <tableColumn id="29" xr3:uid="{AA689BED-DC61-DD4C-8BDF-1DBFA392B7DC}" name="支付宝"/>
-    <tableColumn id="30" xr3:uid="{2DAD8972-F431-0545-B717-C6975D79DA70}" name="微信"/>
-    <tableColumn id="31" xr3:uid="{81B3E610-5D08-A848-8050-D71BAB30DC6F}" name="现金"/>
-    <tableColumn id="32" xr3:uid="{832C0D1C-5674-7D4D-B948-1C715EC67596}" name="银行卡"/>
-    <tableColumn id="33" xr3:uid="{C6A69ADA-B68A-4C47-82D7-663680607442}" name="出行"/>
-    <tableColumn id="34" xr3:uid="{2634CE50-48FB-A246-A961-E8EFA6E8C635}" name="午饭"/>
-    <tableColumn id="35" xr3:uid="{8E24FB0A-9947-7E42-86EB-A169F9275B53}" name="水果"/>
-    <tableColumn id="36" xr3:uid="{1889C805-13B8-9E4F-A31E-B7F271197A58}" name="充值"/>
-    <tableColumn id="37" xr3:uid="{793EBF21-A586-F84E-A585-4D7AF3A516DB}" name="转账"/>
-    <tableColumn id="38" xr3:uid="{0CB890B3-3D37-5C41-A7B9-A4F3CC414A0E}" name="饮品"/>
-    <tableColumn id="39" xr3:uid="{5D0C8D65-2C60-5B4D-B79C-439E4F74DD98}" name="晚饭"/>
-    <tableColumn id="40" xr3:uid="{EA130573-8EEE-9F45-9718-BFE9BA5F9F1D}" name="烟"/>
-    <tableColumn id="41" xr3:uid="{FADA7872-AA9F-294E-8A42-059A146F88B6}" name="电影"/>
-    <tableColumn id="42" xr3:uid="{DCF85958-C71C-2943-A389-DC1E819ABEAE}" name="网购"/>
-    <tableColumn id="43" xr3:uid="{4EE0EC33-A019-B54B-BCDA-EF41408DE88F}" name="超市"/>
-    <tableColumn id="44" xr3:uid="{88518A4D-FF15-BE41-901D-42E55880A7C5}" name="保险"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
-    <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E127)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
-  <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
-  <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A127, template!A2, records!E2:E127)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
-    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
-    <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
-    <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
-    <tableColumn id="8" xr3:uid="{79597B7D-20AD-D74C-B2C4-93F5777D74FF}" name="5:00"/>
-    <tableColumn id="9" xr3:uid="{5DF3B79D-EAB8-FA43-A3EC-CAA6D09BB7E1}" name="6:00"/>
-    <tableColumn id="10" xr3:uid="{FF546208-2DC6-154E-8C8F-10C65247C9D6}" name="7:00"/>
-    <tableColumn id="11" xr3:uid="{CE101360-776F-5C4F-BF60-B4E44EE3DEAA}" name="8:00"/>
-    <tableColumn id="12" xr3:uid="{F28257C5-E534-574F-ADE2-149B6AE69F01}" name="9:00"/>
-    <tableColumn id="13" xr3:uid="{00CD7CEE-28E4-3B49-8FD2-B699D8D7663B}" name="10:00"/>
-    <tableColumn id="14" xr3:uid="{AB7C6966-749C-BB4E-BCAC-5EA6C8C9343C}" name="11:00"/>
-    <tableColumn id="15" xr3:uid="{BF636E7B-F378-7841-AFAD-0BBD321E2961}" name="12:00"/>
-    <tableColumn id="16" xr3:uid="{A7264775-A82D-214E-A0A7-AED6590FCFA9}" name="13:00"/>
-    <tableColumn id="17" xr3:uid="{B3720E7F-87EF-0B45-92B1-31687408D5BA}" name="14:00"/>
-    <tableColumn id="18" xr3:uid="{A0BA1AE1-E284-0344-BBD3-DF94ABFE6456}" name="15:00"/>
-    <tableColumn id="19" xr3:uid="{C5641B5E-7E36-F94F-9C6A-0551218A33AF}" name="16:00"/>
-    <tableColumn id="20" xr3:uid="{6844148A-0A32-0C4C-A942-4C6BB579B1BC}" name="17:00"/>
-    <tableColumn id="21" xr3:uid="{86FECC94-DF08-2846-9647-FB53BCFE7522}" name="18:00"/>
-    <tableColumn id="22" xr3:uid="{BC6CED9F-3A7C-B34A-A5DB-A60481062618}" name="19:00"/>
-    <tableColumn id="23" xr3:uid="{001C0F10-4923-0743-8846-1E5D622EBD21}" name="20:00"/>
-    <tableColumn id="24" xr3:uid="{D2C8539C-8AD6-014F-9A59-16B7B8CDA9AB}" name="21:00"/>
-    <tableColumn id="25" xr3:uid="{C89230D6-7B22-9946-9668-036DF53ACDA2}" name="22:00"/>
-    <tableColumn id="26" xr3:uid="{16685DE8-F22E-7F43-B4E0-F28CC5DFD81D}" name="23:00"/>
-    <tableColumn id="27" xr3:uid="{1762542F-31A1-D949-8BB9-EFF3FC8E7AC5}" name="支付宝"/>
-    <tableColumn id="28" xr3:uid="{1C1725D6-45EE-F543-BE1D-153FA2902240}" name="微信"/>
-    <tableColumn id="29" xr3:uid="{09EBB820-12FE-C54A-8B78-E352001872CC}" name="现金"/>
-    <tableColumn id="30" xr3:uid="{99EBF780-E246-7944-A008-028DF02A3742}" name="银行卡"/>
-    <tableColumn id="31" xr3:uid="{F36E8852-F209-CB4F-B12B-ED3694234994}" name="出行"/>
-    <tableColumn id="32" xr3:uid="{418B9897-1F27-5342-BB6B-4E7137AF0B34}" name="午饭"/>
-    <tableColumn id="33" xr3:uid="{3E1F0788-D4FF-C14F-85DC-1A5E26C26D86}" name="水果"/>
-    <tableColumn id="34" xr3:uid="{299CDB6C-9F28-F548-A81F-1E1BCD092399}" name="充值"/>
-    <tableColumn id="35" xr3:uid="{F1F217B1-DE5C-2145-8EC1-6590638CEBF5}" name="转账"/>
-    <tableColumn id="36" xr3:uid="{FE309740-4BA0-CE4D-B938-E7579344FF1A}" name="饮品"/>
-    <tableColumn id="37" xr3:uid="{51AB2BDE-B2B6-3F43-A4F3-B40E31E95B32}" name="晚饭"/>
-    <tableColumn id="38" xr3:uid="{E2A7E210-9B13-6740-BDA5-169832104727}" name="烟"/>
-    <tableColumn id="39" xr3:uid="{865A2004-511E-CC40-B0A1-DAAA87C5D952}" name="电影"/>
-    <tableColumn id="40" xr3:uid="{DB98CC99-83CA-C74A-B94C-862969456B16}" name="网购"/>
-    <tableColumn id="41" xr3:uid="{F996B561-81A5-814C-8819-BC2D360F1E3A}" name="超市"/>
-    <tableColumn id="42" xr3:uid="{15BA6C74-47BF-7F4A-9043-F4C74084676B}" name="保险"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2868,10 +4789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:U149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="J44" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2880,6 +4801,7 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
     <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
@@ -2912,19 +4834,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -4701,8 +6623,21 @@
       <c r="I32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>43769</v>
       </c>
@@ -4727,8 +6662,35 @@
       <c r="H33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>43770</v>
       </c>
@@ -4756,8 +6718,32 @@
       <c r="I34" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="M34" t="s">
+        <v>258</v>
+      </c>
+      <c r="N34" t="s">
+        <v>361</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>303</v>
+      </c>
+      <c r="R34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>43771</v>
       </c>
@@ -4785,8 +6771,32 @@
       <c r="I35" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="M35" t="s">
+        <v>258</v>
+      </c>
+      <c r="N35" t="s">
+        <v>362</v>
+      </c>
+      <c r="O35">
+        <v>1.3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>303</v>
+      </c>
+      <c r="R35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>43771</v>
       </c>
@@ -4811,8 +6821,32 @@
       <c r="H36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="M36" t="s">
+        <v>258</v>
+      </c>
+      <c r="N36" t="s">
+        <v>364</v>
+      </c>
+      <c r="O36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P36" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>303</v>
+      </c>
+      <c r="R36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>43771</v>
       </c>
@@ -4840,8 +6874,32 @@
       <c r="I37" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="M37" t="s">
+        <v>258</v>
+      </c>
+      <c r="N37" t="s">
+        <v>365</v>
+      </c>
+      <c r="O37">
+        <v>0.5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>303</v>
+      </c>
+      <c r="R37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>43772</v>
       </c>
@@ -4866,8 +6924,32 @@
       <c r="H38" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="M38" t="s">
+        <v>258</v>
+      </c>
+      <c r="N38" t="s">
+        <v>367</v>
+      </c>
+      <c r="O38">
+        <v>8.9</v>
+      </c>
+      <c r="P38" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>303</v>
+      </c>
+      <c r="R38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>43773</v>
       </c>
@@ -4892,8 +6974,32 @@
       <c r="H39" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="K39" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="M39" t="s">
+        <v>258</v>
+      </c>
+      <c r="N39" t="s">
+        <v>345</v>
+      </c>
+      <c r="O39">
+        <v>15.8</v>
+      </c>
+      <c r="P39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>303</v>
+      </c>
+      <c r="R39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>43773</v>
       </c>
@@ -4921,8 +7027,32 @@
       <c r="I40" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="K40" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="M40" t="s">
+        <v>258</v>
+      </c>
+      <c r="N40" t="s">
+        <v>366</v>
+      </c>
+      <c r="O40">
+        <v>7.8</v>
+      </c>
+      <c r="P40" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>303</v>
+      </c>
+      <c r="R40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>43773</v>
       </c>
@@ -4950,8 +7080,22 @@
       <c r="I41" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K41" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="34"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="36">
+        <f>SUM(O34:O40)</f>
+        <v>39.6</v>
+      </c>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>43773</v>
       </c>
@@ -4980,7 +7124,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>43774</v>
       </c>
@@ -5008,8 +7152,19 @@
       <c r="I43" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>43775</v>
       </c>
@@ -5034,8 +7189,35 @@
       <c r="H44" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="K44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>43775</v>
       </c>
@@ -5060,8 +7242,32 @@
       <c r="H45" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="K45" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="M45" t="s">
+        <v>258</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45">
+        <v>3.5</v>
+      </c>
+      <c r="P45" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>303</v>
+      </c>
+      <c r="R45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>43775</v>
       </c>
@@ -5089,8 +7295,35 @@
       <c r="I46" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="K46" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="M46" t="s">
+        <v>258</v>
+      </c>
+      <c r="N46" t="s">
+        <v>356</v>
+      </c>
+      <c r="O46">
+        <v>5.2</v>
+      </c>
+      <c r="P46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>303</v>
+      </c>
+      <c r="R46" t="s">
+        <v>283</v>
+      </c>
+      <c r="S46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>43775</v>
       </c>
@@ -5115,8 +7348,32 @@
       <c r="H47" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="K47" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="M47" t="s">
+        <v>258</v>
+      </c>
+      <c r="N47" t="s">
+        <v>358</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>303</v>
+      </c>
+      <c r="R47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>43776</v>
       </c>
@@ -5144,8 +7401,32 @@
       <c r="I48" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="K48" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="M48" t="s">
+        <v>258</v>
+      </c>
+      <c r="N48" t="s">
+        <v>359</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>303</v>
+      </c>
+      <c r="R48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>43776</v>
       </c>
@@ -5170,8 +7451,35 @@
       <c r="H49" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49" s="1">
+        <v>43785</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="M49" t="s">
+        <v>258</v>
+      </c>
+      <c r="N49" t="s">
+        <v>360</v>
+      </c>
+      <c r="O49">
+        <v>17.8</v>
+      </c>
+      <c r="P49" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>303</v>
+      </c>
+      <c r="R49" t="s">
+        <v>283</v>
+      </c>
+      <c r="S49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>43777</v>
       </c>
@@ -5199,8 +7507,22 @@
       <c r="I50" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="K50" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="L50" s="34"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="36">
+        <f>SUM(O45:O49)</f>
+        <v>36.5</v>
+      </c>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>43777</v>
       </c>
@@ -5229,7 +7551,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>43777</v>
       </c>
@@ -5257,8 +7579,21 @@
       <c r="I52" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="K52" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>43777</v>
       </c>
@@ -5286,8 +7621,41 @@
       <c r="I53" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="K53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U53" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>43778</v>
       </c>
@@ -5315,8 +7683,41 @@
       <c r="I54" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="K54" s="5">
+        <v>43800</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="O54" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>43778</v>
       </c>
@@ -5344,8 +7745,41 @@
       <c r="I55" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="K55" s="7">
+        <v>43800</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="O55" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="P55" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>43778</v>
       </c>
@@ -5373,8 +7807,41 @@
       <c r="I56" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="K56" s="5">
+        <v>43800</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="O56" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P56" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="1">
         <v>43778</v>
       </c>
@@ -5402,8 +7869,41 @@
       <c r="I57" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="K57" s="7">
+        <v>43800</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="O57" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="P57" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="1">
         <v>43778</v>
       </c>
@@ -5431,8 +7931,41 @@
       <c r="I58" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="K58" s="5">
+        <v>43800</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="O58" s="5">
+        <v>11.99</v>
+      </c>
+      <c r="P58" s="6">
+        <v>11.99</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="1">
         <v>43778</v>
       </c>
@@ -5461,7 +7994,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:21">
       <c r="A60" s="1">
         <v>43779</v>
       </c>
@@ -5489,8 +8022,19 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="K60" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="1">
         <v>43779</v>
       </c>
@@ -5518,8 +8062,35 @@
       <c r="I61" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="K61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="1">
         <v>43779</v>
       </c>
@@ -5547,8 +8118,32 @@
       <c r="I62" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="K62" s="1">
+        <v>43805</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="M62" t="s">
+        <v>258</v>
+      </c>
+      <c r="N62" t="s">
+        <v>343</v>
+      </c>
+      <c r="O62">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P62" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>303</v>
+      </c>
+      <c r="R62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="1">
         <v>43779</v>
       </c>
@@ -5576,8 +8171,32 @@
       <c r="I63" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="K63" s="1">
+        <v>43805</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="M63" t="s">
+        <v>258</v>
+      </c>
+      <c r="N63" t="s">
+        <v>344</v>
+      </c>
+      <c r="O63">
+        <v>12.5</v>
+      </c>
+      <c r="P63" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>303</v>
+      </c>
+      <c r="R63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="1">
         <v>43780</v>
       </c>
@@ -5602,8 +8221,32 @@
       <c r="H64" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="K64" s="1">
+        <v>43805</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="M64" t="s">
+        <v>258</v>
+      </c>
+      <c r="N64" t="s">
+        <v>346</v>
+      </c>
+      <c r="O64">
+        <v>15.8</v>
+      </c>
+      <c r="P64" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>303</v>
+      </c>
+      <c r="R64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>43780</v>
       </c>
@@ -5628,8 +8271,32 @@
       <c r="H65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="K65" s="1">
+        <v>43805</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="M65" t="s">
+        <v>258</v>
+      </c>
+      <c r="N65" t="s">
+        <v>350</v>
+      </c>
+      <c r="O65">
+        <v>7.5</v>
+      </c>
+      <c r="P65" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>303</v>
+      </c>
+      <c r="R65" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>43781</v>
       </c>
@@ -5654,8 +8321,35 @@
       <c r="H66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="K66" s="1">
+        <v>43805</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="M66" t="s">
+        <v>258</v>
+      </c>
+      <c r="N66" t="s">
+        <v>351</v>
+      </c>
+      <c r="O66">
+        <v>1.5</v>
+      </c>
+      <c r="P66" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>303</v>
+      </c>
+      <c r="R66" t="s">
+        <v>283</v>
+      </c>
+      <c r="S66" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
         <v>43781</v>
       </c>
@@ -5683,8 +8377,35 @@
       <c r="I67" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="K67" s="1">
+        <v>43805</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="M67" t="s">
+        <v>258</v>
+      </c>
+      <c r="N67" t="s">
+        <v>351</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="P67" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>303</v>
+      </c>
+      <c r="R67" t="s">
+        <v>342</v>
+      </c>
+      <c r="S67" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>43781</v>
       </c>
@@ -5712,8 +8433,16 @@
       <c r="I68" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="K68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="O68" s="13">
+        <f>SUM(O62:O67)</f>
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>43781</v>
       </c>
@@ -5742,7 +8471,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>43782</v>
       </c>
@@ -5770,8 +8499,19 @@
       <c r="I70" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="K70" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>43782</v>
       </c>
@@ -5799,8 +8539,35 @@
       <c r="I71" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="K71" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>43783</v>
       </c>
@@ -5828,8 +8595,32 @@
       <c r="I72" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="K72" s="1">
+        <v>43801</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="M72" t="s">
+        <v>258</v>
+      </c>
+      <c r="N72" t="s">
+        <v>355</v>
+      </c>
+      <c r="O72">
+        <v>1.9</v>
+      </c>
+      <c r="P72" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>303</v>
+      </c>
+      <c r="R72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>43783</v>
       </c>
@@ -5854,8 +8645,32 @@
       <c r="H73" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="K73" s="1">
+        <v>43801</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="M73" t="s">
+        <v>258</v>
+      </c>
+      <c r="N73" t="s">
+        <v>349</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="P73" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>303</v>
+      </c>
+      <c r="R73" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>43783</v>
       </c>
@@ -5883,8 +8698,32 @@
       <c r="I74" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="K74" s="1">
+        <v>43801</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="M74" t="s">
+        <v>258</v>
+      </c>
+      <c r="N74" t="s">
+        <v>346</v>
+      </c>
+      <c r="O74">
+        <v>15.8</v>
+      </c>
+      <c r="P74" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>303</v>
+      </c>
+      <c r="R74" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>43783</v>
       </c>
@@ -5912,8 +8751,16 @@
       <c r="I75" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="K75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L75" s="2"/>
+      <c r="O75" s="13">
+        <f>SUM(O72:O74)</f>
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>43784</v>
       </c>
@@ -5942,7 +8789,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>43785</v>
       </c>
@@ -5971,7 +8818,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>43785</v>
       </c>
@@ -6000,7 +8847,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>43786</v>
       </c>
@@ -6026,7 +8873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>43787</v>
       </c>
@@ -7240,24 +10087,205 @@
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C124" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" t="s">
+        <v>347</v>
+      </c>
+      <c r="E124">
+        <v>51.1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>303</v>
+      </c>
+      <c r="H124" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="C125" t="s">
+        <v>258</v>
+      </c>
+      <c r="D125" t="s">
+        <v>353</v>
+      </c>
+      <c r="E125">
+        <v>36.5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>303</v>
+      </c>
+      <c r="H125" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
+      <c r="A126" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C126" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" t="s">
+        <v>353</v>
+      </c>
+      <c r="E126">
+        <v>39.6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>303</v>
+      </c>
+      <c r="H126" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>258</v>
+      </c>
+      <c r="D127" t="s">
+        <v>368</v>
+      </c>
+      <c r="E127">
+        <v>19.7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>303</v>
+      </c>
+      <c r="H127" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="K70:S70"/>
+    <mergeCell ref="K52:U52"/>
     <mergeCell ref="K1:U1"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="K60:S60"/>
+    <mergeCell ref="K43:S43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="13">
@@ -7288,10 +10316,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C27" xr:uid="{5D70956C-08BC-1847-9287-58E3F0F5D56D}">
       <formula1>"出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险,超市"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M30 C28:C49" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M30 C28:C49 M54:M58" xr:uid="{4C9076EE-28FE-714B-A0EA-145826F14EE2}">
       <formula1>"超市,电影,网购,出行,饮品,午饭,晚饭,水果,转账,充值,烟,酒,保险"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S30" xr:uid="{194ABDD9-8D09-FC45-ACB3-2CCED48F5B47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S30 S54:S58" xr:uid="{194ABDD9-8D09-FC45-ACB3-2CCED48F5B47}">
       <formula1>"支付宝,微信,现金,银行卡"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50:C58" xr:uid="{402C1FA3-762E-FE4D-9BF9-F5D3CB10D30E}">
@@ -7303,9 +10331,14 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="2">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7324,58 +10357,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AB1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AB1" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AI1" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">
@@ -10757,163 +13790,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!G2:G149,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!G2:G149,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A2,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -10926,163 +13959,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!G2:G149,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!G2:G149,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A3,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11095,163 +14128,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!G2:G149,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!G2:G149,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A4,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11264,163 +14297,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!G2:G149,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!G2:G149,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A5,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11433,163 +14466,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!G2:G149,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!G2:G149,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A6,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11602,163 +14635,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!G2:G149,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!G2:G149,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A7,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11771,163 +14804,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!G2:G149,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!G2:G149,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A8,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -11940,163 +14973,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!G2:G149,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!G2:G149,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A9,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -12109,163 +15142,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!G2:G149,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!G2:G149,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!G2:G149,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A10,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -12278,163 +15311,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!G2:G149,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!G2:G149,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!G2:G149,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A11,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -12447,163 +15480,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!C1,records!B2:B127, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!D1,records!B2:B127, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!E1,records!B2:B127, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!F1,records!B2:B127, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!G1,records!B2:B127, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!H1,records!B2:B127, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!I1,records!B2:B127, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!J1,records!B2:B127, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!K1,records!B2:B127, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!L1,records!B2:B127, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!M1,records!B2:B127, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!N1,records!B2:B127, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!O1,records!B2:B127, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!P1,records!B2:B127, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!Q1,records!B2:B127, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!R1,records!B2:B127, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!S1,records!B2:B127, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!T1,records!B2:B127, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!U1,records!B2:B127, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!V1,records!B2:B127, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!W1,records!B2:B127, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!X1,records!B2:B127, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!Y1,records!B2:B127, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12, records!B2:B127, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!G2:G127,template!AA1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!G2:G149,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!G2:G127,template!AB1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!G2:G149,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!G2:G127,template!AC1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!G2:G149,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!G2:G127,template!AD1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!G2:G149,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AE1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AF1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AG1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AH1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AI1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AK1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AL1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AM1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AN1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AO1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E127,records!A2:A127,template!A12,records!C2:C127,template!AP1)</f>
+        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9705E0-89B2-024D-BB85-7A5AA9C42A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17177039-058E-104D-A9D4-B1B7A41F1B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="411">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,6 +1406,157 @@
   </si>
   <si>
     <t>四季豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永和豆浆粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自点 2.8 折券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ligao 力高牛仔裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 年 12 月 16 号 一次超市购物</t>
+  </si>
+  <si>
+    <t>2019 年 12 月 16 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱿鱼圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>248g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫超市卡支付 52.82，支付宝-余额宝支付 5（快递）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝-余额宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱鸭舌头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智行APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡腿饭套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州-武昌 火车硬座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武昌-西安 火车硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12306APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州-西安 火车硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳-西安 火车硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候补，自己的账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候补票，李佳雯账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候补，李静账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州-武昌 火车硬卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候补，嘟嘟账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准美式咖啡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1687,7 +1838,583 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="130">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3908,13 +4635,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I149" totalsRowShown="0">
   <autoFilter ref="A1:I149" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState ref="A2:I123">
+  <sortState ref="A2:I149">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="128"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -3928,6 +4655,56 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
+  <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{DB348641-6509-1946-BF4A-65D4C285B05D}" name="日期"/>
+    <tableColumn id="2" xr3:uid="{984A3578-8B4C-FF47-890C-23F994CE29A7}" name="总计"/>
+    <tableColumn id="3" xr3:uid="{AB4BF04E-5252-2A45-BA9A-FE77AE04682C}" name="0:00"/>
+    <tableColumn id="4" xr3:uid="{F5481578-04BD-4747-B94B-07A528CB246A}" name="1:00"/>
+    <tableColumn id="5" xr3:uid="{C95BB74C-C926-9846-BE6C-586A841ACF0F}" name="2:00"/>
+    <tableColumn id="6" xr3:uid="{CFC4042D-D449-D04D-8340-326828E7D4A5}" name="3:00"/>
+    <tableColumn id="7" xr3:uid="{F016CEB8-9BFA-2B4D-BFAC-BFA14C72B826}" name="4:00"/>
+    <tableColumn id="8" xr3:uid="{BA7FB9BF-1093-ED44-9F83-D57C7FE01847}" name="5:00"/>
+    <tableColumn id="9" xr3:uid="{77294F2D-28ED-C34C-BFEF-5851A24EBF33}" name="6:00"/>
+    <tableColumn id="10" xr3:uid="{E99671D3-EF06-0644-9036-6ADDE74E11DF}" name="7:00"/>
+    <tableColumn id="11" xr3:uid="{3CAAE000-629C-B74F-9D6F-4C0769705305}" name="8:00"/>
+    <tableColumn id="12" xr3:uid="{5B47E6F3-457C-6941-B5C8-E355279ED643}" name="9:00"/>
+    <tableColumn id="13" xr3:uid="{195B383B-C1A1-3649-BE29-B283F8D7A5A2}" name="10:00"/>
+    <tableColumn id="14" xr3:uid="{7E4A4601-4C8A-4042-85E0-E114A44C97C2}" name="11:00"/>
+    <tableColumn id="15" xr3:uid="{DEBD9BEA-1E52-344E-B423-1AEC44A5EF3A}" name="12:00"/>
+    <tableColumn id="16" xr3:uid="{4740D7BD-EFD0-9D45-B836-FF1DA499E1AF}" name="13:00"/>
+    <tableColumn id="17" xr3:uid="{D453F3A6-05AB-4744-9839-84ECECB3868F}" name="14:00"/>
+    <tableColumn id="18" xr3:uid="{A8833EB5-D2ED-6D4A-BB41-3A9009754B55}" name="15:00"/>
+    <tableColumn id="19" xr3:uid="{5B7C3AEF-8793-ED4F-BAE9-87BD54D4924F}" name="16:00"/>
+    <tableColumn id="20" xr3:uid="{58A50733-BF36-2043-943F-18B034DA06F9}" name="17:00"/>
+    <tableColumn id="21" xr3:uid="{DCCF3356-D842-C347-9288-03BC2FB2B203}" name="18:00"/>
+    <tableColumn id="22" xr3:uid="{E87201F8-29DB-8942-BAC6-7F4830CC9B15}" name="19:00"/>
+    <tableColumn id="23" xr3:uid="{4B2D64E5-1C76-4A40-BBBE-CE936094CF8F}" name="20:00"/>
+    <tableColumn id="24" xr3:uid="{20B1EEEF-A812-6542-82F5-921EC29E5642}" name="21:00"/>
+    <tableColumn id="25" xr3:uid="{06701350-0123-4145-BB07-32B012A91A73}" name="22:00"/>
+    <tableColumn id="26" xr3:uid="{01E15D91-49BE-F14E-88CC-ADBD0DED3A89}" name="23:00"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109">
+  <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="103"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -3950,12 +4727,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
-    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="101"/>
     <tableColumn id="5" xr3:uid="{017C7CC6-7A50-E14C-9010-4A96C3E17AAE}" name="周次"/>
     <tableColumn id="6" xr3:uid="{5013C261-37F5-024E-8869-62C7BB939C64}" name="总计"/>
     <tableColumn id="7" xr3:uid="{86979D30-41EE-6C4C-B773-E0842C968F33}" name="0:00"/>
@@ -4003,12 +4780,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="99"/>
     <tableColumn id="3" xr3:uid="{E3BB613C-2E5A-4046-9257-D1DB5057AC50}" name="月份"/>
     <tableColumn id="4" xr3:uid="{581D6C9B-0675-814D-8E48-FE3CBE3222FF}" name="总计"/>
     <tableColumn id="5" xr3:uid="{8CD512E4-B465-1948-AD0C-9D92E154A27C}" name="0:00"/>
@@ -4056,7 +4833,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
@@ -4069,16 +4846,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="98"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
       <calculatedColumnFormula>SUMIF(records!A2:A149, template!A2, records!E2:E149)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
-    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="97"/>
     <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
     <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
     <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
@@ -4122,7 +4899,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -4175,12 +4952,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="95"/>
     <tableColumn id="3" xr3:uid="{92055967-689A-EC42-B55A-6B47F10291F6}" name="月份"/>
     <tableColumn id="4" xr3:uid="{55866787-4B70-3048-A457-F0AE2ECD6322}" name="总计">
       <calculatedColumnFormula>SUMIFS(day!B3:B55,day!A3:A55,"&gt;="&amp;template!A41,day!A3:A55,"&lt;="&amp;template!B41)</calculatedColumnFormula>
@@ -4311,184 +5088,178 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
   <sortState ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="119"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="114"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" headerRowBorderDxfId="65" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" headerRowBorderDxfId="91" tableBorderDxfId="92">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
   <sortState ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowBorderDxfId="78" tableBorderDxfId="79">
   <autoFilter ref="K61:S68" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState ref="K62:S87">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" headerRowBorderDxfId="65" tableBorderDxfId="66">
   <autoFilter ref="K71:S75" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState ref="K72:S94">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="41">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
-  <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{DB348641-6509-1946-BF4A-65D4C285B05D}" name="日期"/>
-    <tableColumn id="2" xr3:uid="{984A3578-8B4C-FF47-890C-23F994CE29A7}" name="总计"/>
-    <tableColumn id="3" xr3:uid="{AB4BF04E-5252-2A45-BA9A-FE77AE04682C}" name="0:00"/>
-    <tableColumn id="4" xr3:uid="{F5481578-04BD-4747-B94B-07A528CB246A}" name="1:00"/>
-    <tableColumn id="5" xr3:uid="{C95BB74C-C926-9846-BE6C-586A841ACF0F}" name="2:00"/>
-    <tableColumn id="6" xr3:uid="{CFC4042D-D449-D04D-8340-326828E7D4A5}" name="3:00"/>
-    <tableColumn id="7" xr3:uid="{F016CEB8-9BFA-2B4D-BFAC-BFA14C72B826}" name="4:00"/>
-    <tableColumn id="8" xr3:uid="{BA7FB9BF-1093-ED44-9F83-D57C7FE01847}" name="5:00"/>
-    <tableColumn id="9" xr3:uid="{77294F2D-28ED-C34C-BFEF-5851A24EBF33}" name="6:00"/>
-    <tableColumn id="10" xr3:uid="{E99671D3-EF06-0644-9036-6ADDE74E11DF}" name="7:00"/>
-    <tableColumn id="11" xr3:uid="{3CAAE000-629C-B74F-9D6F-4C0769705305}" name="8:00"/>
-    <tableColumn id="12" xr3:uid="{5B47E6F3-457C-6941-B5C8-E355279ED643}" name="9:00"/>
-    <tableColumn id="13" xr3:uid="{195B383B-C1A1-3649-BE29-B283F8D7A5A2}" name="10:00"/>
-    <tableColumn id="14" xr3:uid="{7E4A4601-4C8A-4042-85E0-E114A44C97C2}" name="11:00"/>
-    <tableColumn id="15" xr3:uid="{DEBD9BEA-1E52-344E-B423-1AEC44A5EF3A}" name="12:00"/>
-    <tableColumn id="16" xr3:uid="{4740D7BD-EFD0-9D45-B836-FF1DA499E1AF}" name="13:00"/>
-    <tableColumn id="17" xr3:uid="{D453F3A6-05AB-4744-9839-84ECECB3868F}" name="14:00"/>
-    <tableColumn id="18" xr3:uid="{A8833EB5-D2ED-6D4A-BB41-3A9009754B55}" name="15:00"/>
-    <tableColumn id="19" xr3:uid="{5B7C3AEF-8793-ED4F-BAE9-87BD54D4924F}" name="16:00"/>
-    <tableColumn id="20" xr3:uid="{58A50733-BF36-2043-943F-18B034DA06F9}" name="17:00"/>
-    <tableColumn id="21" xr3:uid="{DCCF3356-D842-C347-9288-03BC2FB2B203}" name="18:00"/>
-    <tableColumn id="22" xr3:uid="{E87201F8-29DB-8942-BAC6-7F4830CC9B15}" name="19:00"/>
-    <tableColumn id="23" xr3:uid="{4B2D64E5-1C76-4A40-BBBE-CE936094CF8F}" name="20:00"/>
-    <tableColumn id="24" xr3:uid="{20B1EEEF-A812-6542-82F5-921EC29E5642}" name="21:00"/>
-    <tableColumn id="25" xr3:uid="{06701350-0123-4145-BB07-32B012A91A73}" name="22:00"/>
-    <tableColumn id="26" xr3:uid="{01E15D91-49BE-F14E-88CC-ADBD0DED3A89}" name="23:00"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+  <autoFilter ref="K78:S84" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
+  <sortState ref="K79:S103">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
-  <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="K87:S93" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
+  <sortState ref="K88:S112">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4791,8 +5562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:U149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J44" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8794,29 +9565,37 @@
         <v>43785</v>
       </c>
       <c r="B77" s="2">
-        <v>0.59513888888888888</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="C77" t="s">
         <v>258</v>
       </c>
       <c r="D77" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="E77">
-        <v>3.5</v>
+        <v>39.6</v>
       </c>
       <c r="F77" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="H77" t="s">
-        <v>323</v>
-      </c>
-      <c r="I77" t="s">
-        <v>268</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="K77" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1">
@@ -8829,10 +9608,10 @@
         <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F78" t="s">
         <v>233</v>
@@ -8841,189 +9620,347 @@
         <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I78" t="s">
         <v>268</v>
       </c>
+      <c r="K78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S78" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="1">
-        <v>43786</v>
+        <v>43785</v>
       </c>
       <c r="B79" s="2">
-        <v>0.7729166666666667</v>
+        <v>0.59513888888888888</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I79" t="s">
+        <v>268</v>
+      </c>
+      <c r="K79" s="1">
+        <v>43815</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="M79" t="s">
+        <v>258</v>
+      </c>
+      <c r="N79" t="s">
+        <v>380</v>
+      </c>
+      <c r="O79">
+        <v>1.8</v>
+      </c>
+      <c r="P79" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q79" t="s">
         <v>303</v>
       </c>
-      <c r="H79" t="s">
-        <v>47</v>
+      <c r="R79" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="1">
-        <v>43787</v>
+        <v>43785</v>
       </c>
       <c r="B80" s="2">
-        <v>0.40347222222222223</v>
+        <v>0.77013888888888893</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="E80">
-        <v>9.1199999999999992</v>
+        <v>36.5</v>
       </c>
       <c r="F80" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="H80" t="s">
-        <v>56</v>
-      </c>
-      <c r="I80" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="K80" s="1">
+        <v>43815</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="M80" t="s">
+        <v>258</v>
+      </c>
+      <c r="N80" t="s">
+        <v>382</v>
+      </c>
+      <c r="O80">
+        <v>22.5</v>
+      </c>
+      <c r="P80" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>303</v>
+      </c>
+      <c r="R80" t="s">
+        <v>283</v>
+      </c>
+      <c r="S80" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
-        <v>43787</v>
+        <v>43786</v>
       </c>
       <c r="B81" s="2">
-        <v>0.52847222222222223</v>
+        <v>0.7729166666666667</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="E81">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G81" t="s">
         <v>303</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="K81" s="1">
+        <v>43815</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="M81" t="s">
+        <v>258</v>
+      </c>
+      <c r="N81" t="s">
+        <v>385</v>
+      </c>
+      <c r="O81">
+        <v>1.2</v>
+      </c>
+      <c r="P81" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>303</v>
+      </c>
+      <c r="R81" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>43787</v>
       </c>
       <c r="B82" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E82">
-        <v>18.399999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="G82" t="s">
         <v>24</v>
       </c>
       <c r="H82" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" t="s">
+        <v>245</v>
+      </c>
+      <c r="K82" s="1">
+        <v>43815</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="M82" t="s">
+        <v>258</v>
+      </c>
+      <c r="N82" t="s">
+        <v>387</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>303</v>
+      </c>
+      <c r="R82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>322</v>
+      </c>
+      <c r="E83">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>303</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="1">
+        <v>43815</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="M83" t="s">
+        <v>258</v>
+      </c>
+      <c r="N83" t="s">
+        <v>384</v>
+      </c>
+      <c r="O83">
+        <v>2</v>
+      </c>
+      <c r="P83" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>303</v>
+      </c>
+      <c r="R83" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C84" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" t="s">
+        <v>271</v>
+      </c>
+      <c r="E84">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
         <v>272</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I84" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1">
-        <v>43788</v>
-      </c>
-      <c r="B83" s="2">
-        <v>0.35138888888888892</v>
-      </c>
-      <c r="C83" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>321</v>
-      </c>
-      <c r="E83">
-        <v>3</v>
-      </c>
-      <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" t="s">
-        <v>25</v>
-      </c>
-      <c r="I83" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1">
-        <v>43788</v>
-      </c>
-      <c r="B84" s="2">
-        <v>0.53055555555555556</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
-        <v>318</v>
-      </c>
-      <c r="E84">
-        <v>29</v>
-      </c>
-      <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>303</v>
-      </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="K84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L84" s="2"/>
+      <c r="O84" s="13">
+        <f>SUM(O79:O83)</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>43788</v>
       </c>
       <c r="B85" s="2">
-        <v>0.90833333333333333</v>
+        <v>0.35138888888888892</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -9041,21 +9978,21 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
-        <v>43789</v>
+        <v>43788</v>
       </c>
       <c r="B86" s="2">
-        <v>0.5395833333333333</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="E86">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
@@ -9064,82 +10001,144 @@
         <v>303</v>
       </c>
       <c r="H86" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="K86" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
-        <v>43789</v>
+        <v>43788</v>
       </c>
       <c r="B87" s="2">
-        <v>0.63055555555555554</v>
+        <v>0.90833333333333333</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="E87">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s">
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S87" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>43789</v>
       </c>
       <c r="B88" s="2">
-        <v>0.7909722222222223</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E88">
-        <v>16.690000000000001</v>
+        <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="H88" t="s">
-        <v>272</v>
-      </c>
-      <c r="I88" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>316</v>
+      </c>
+      <c r="K88" s="1">
+        <v>43815</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="M88" t="s">
+        <v>78</v>
+      </c>
+      <c r="N88" t="s">
+        <v>395</v>
+      </c>
+      <c r="O88">
+        <v>9.9</v>
+      </c>
+      <c r="P88" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>303</v>
+      </c>
+      <c r="R88" t="s">
+        <v>391</v>
+      </c>
+      <c r="S88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
-        <v>43790</v>
+        <v>43789</v>
       </c>
       <c r="B89" s="2">
-        <v>0.41250000000000003</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="C89" t="s">
         <v>53</v>
       </c>
       <c r="D89" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="E89">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="F89" t="s">
         <v>191</v>
@@ -9151,70 +10150,115 @@
         <v>56</v>
       </c>
       <c r="I89" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>315</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="2"/>
+      <c r="O89">
+        <v>22.5</v>
+      </c>
+      <c r="P89" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>303</v>
+      </c>
+      <c r="R89" t="s">
+        <v>283</v>
+      </c>
+      <c r="S89" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
-        <v>43790</v>
+        <v>43789</v>
       </c>
       <c r="B90" s="2">
-        <v>0.52916666666666667</v>
+        <v>0.7909722222222223</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="D90" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G90" t="s">
         <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="I90" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>312</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="2"/>
+      <c r="O90">
+        <v>1.2</v>
+      </c>
+      <c r="P90" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>303</v>
+      </c>
+      <c r="R90" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>43790</v>
       </c>
       <c r="B91" s="2">
-        <v>0.75</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="E91">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="G91" t="s">
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="I91" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>311</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="2"/>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>303</v>
+      </c>
+      <c r="R91" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
-        <v>43791</v>
+        <v>43790</v>
       </c>
       <c r="B92" s="2">
         <v>0.52916666666666667</v>
@@ -9223,129 +10267,154 @@
         <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="E92">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="I92" t="s">
+        <v>141</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="2"/>
+      <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="P92" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>303</v>
+      </c>
+      <c r="R92" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
-        <v>43791</v>
+        <v>43790</v>
       </c>
       <c r="B93" s="2">
-        <v>0.82430555555555562</v>
+        <v>0.75</v>
       </c>
       <c r="C93" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="D93" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="E93">
-        <v>3200</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="I93" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>313</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L93" s="2"/>
+      <c r="O93" s="13">
+        <f>SUM(O88:O92)</f>
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>43791</v>
       </c>
       <c r="B94" s="2">
-        <v>0.89930555555555547</v>
+        <v>0.52916666666666667</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E94">
-        <v>15.99</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
-        <v>43792</v>
+        <v>43791</v>
       </c>
       <c r="B95" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.82430555555555562</v>
       </c>
       <c r="C95" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D95" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E95">
-        <v>13.8</v>
+        <v>3200</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="G95" t="s">
         <v>303</v>
       </c>
       <c r="H95" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>298</v>
+      </c>
+      <c r="I95" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
-        <v>43792</v>
+        <v>43791</v>
       </c>
       <c r="B96" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.89930555555555547</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E96">
-        <v>9600</v>
+        <v>15.99</v>
       </c>
       <c r="F96" t="s">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>298</v>
-      </c>
-      <c r="I96" t="s">
-        <v>300</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -9353,77 +10422,80 @@
         <v>43792</v>
       </c>
       <c r="B97" s="2">
-        <v>0.87361111111111101</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="C97" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E97">
-        <v>9120</v>
+        <v>13.8</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="G97" t="s">
         <v>303</v>
       </c>
       <c r="H97" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>43793</v>
+        <v>43792</v>
       </c>
       <c r="B98" s="2">
-        <v>0.59930555555555554</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="C98" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>9600</v>
       </c>
       <c r="F98" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="H98" t="s">
-        <v>291</v>
+        <v>298</v>
+      </c>
+      <c r="I98" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>43793</v>
+        <v>43792</v>
       </c>
       <c r="B99" s="2">
-        <v>0.60138888888888886</v>
+        <v>0.87361111111111101</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D99" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>9120</v>
       </c>
       <c r="F99" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="H99" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -9431,25 +10503,25 @@
         <v>43793</v>
       </c>
       <c r="B100" s="2">
-        <v>0.61458333333333337</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D100" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E100">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9457,25 +10529,25 @@
         <v>43793</v>
       </c>
       <c r="B101" s="2">
-        <v>0.85138888888888886</v>
+        <v>0.60138888888888886</v>
       </c>
       <c r="C101" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="D101" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E101">
-        <v>15.8</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9483,25 +10555,25 @@
         <v>43793</v>
       </c>
       <c r="B102" s="2">
-        <v>0.85277777777777775</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="C102" t="s">
         <v>258</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="F102" t="s">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9509,19 +10581,19 @@
         <v>43793</v>
       </c>
       <c r="B103" s="2">
-        <v>0.85416666666666663</v>
+        <v>0.85138888888888886</v>
       </c>
       <c r="C103" t="s">
         <v>258</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E103">
-        <v>59.8</v>
+        <v>15.8</v>
       </c>
       <c r="F103" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
@@ -9535,77 +10607,74 @@
         <v>43793</v>
       </c>
       <c r="B104" s="2">
-        <v>0.9243055555555556</v>
+        <v>0.85277777777777775</v>
       </c>
       <c r="C104" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E104">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>43794</v>
+        <v>43793</v>
       </c>
       <c r="B105" s="2">
-        <v>0.52916666666666667</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="D105" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="E105">
-        <v>16</v>
+        <v>59.8</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="G105" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>22</v>
-      </c>
-      <c r="I105" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>43794</v>
+        <v>43793</v>
       </c>
       <c r="B106" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.9243055555555556</v>
       </c>
       <c r="C106" t="s">
         <v>274</v>
       </c>
       <c r="D106" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="E106">
-        <v>9.8000000000000007</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>330</v>
+        <v>23</v>
       </c>
       <c r="G106" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
         <v>278</v>
@@ -9616,28 +10685,28 @@
         <v>43794</v>
       </c>
       <c r="B107" s="2">
-        <v>0.7104166666666667</v>
+        <v>0.52916666666666667</v>
       </c>
       <c r="C107" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="E107">
-        <v>10.26</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="H107" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I107" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -9645,28 +10714,25 @@
         <v>43794</v>
       </c>
       <c r="B108" s="2">
-        <v>0.8354166666666667</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="E108">
-        <v>18.670000000000002</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="G108" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="H108" t="s">
-        <v>272</v>
-      </c>
-      <c r="I108" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -9674,42 +10740,45 @@
         <v>43794</v>
       </c>
       <c r="B109" s="2">
-        <v>0.96388888888888891</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="C109" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="D109" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="E109">
-        <v>219.6</v>
+        <v>10.26</v>
       </c>
       <c r="F109" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H109" t="s">
-        <v>276</v>
+        <v>56</v>
+      </c>
+      <c r="I109" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>43795</v>
+        <v>43794</v>
       </c>
       <c r="B110" s="2">
-        <v>0.5395833333333333</v>
+        <v>0.8354166666666667</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="E110">
-        <v>25</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="F110" t="s">
         <v>23</v>
@@ -9718,36 +10787,36 @@
         <v>24</v>
       </c>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="I110" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>43795</v>
+        <v>43794</v>
       </c>
       <c r="B111" s="2">
-        <v>0.85486111111111107</v>
+        <v>0.96388888888888891</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="D111" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="E111">
-        <v>50</v>
+        <v>219.6</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="G111" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -9755,16 +10824,16 @@
         <v>43795</v>
       </c>
       <c r="B112" s="2">
-        <v>0.89513888888888893</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="E112">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
         <v>23</v>
@@ -9773,27 +10842,27 @@
         <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>43796</v>
+        <v>43795</v>
       </c>
       <c r="B113" s="2">
-        <v>0.52847222222222223</v>
+        <v>0.85486111111111107</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>339</v>
+        <v>48</v>
       </c>
       <c r="E113">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
         <v>23</v>
@@ -9802,36 +10871,36 @@
         <v>303</v>
       </c>
       <c r="H113" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>43796</v>
+        <v>43795</v>
       </c>
       <c r="B114" s="2">
-        <v>0.7104166666666667</v>
+        <v>0.89513888888888893</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="D114" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="E114">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
         <v>23</v>
       </c>
       <c r="G114" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="I114" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -9839,16 +10908,16 @@
         <v>43796</v>
       </c>
       <c r="B115" s="2">
-        <v>0.73541666666666661</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="C115" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="E115">
-        <v>13.8</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
         <v>23</v>
@@ -9857,10 +10926,7 @@
         <v>303</v>
       </c>
       <c r="H115" t="s">
-        <v>251</v>
-      </c>
-      <c r="I115" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -9868,62 +10934,65 @@
         <v>43796</v>
       </c>
       <c r="B116" s="2">
-        <v>0.75</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="C116" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="D116" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="E116">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="F116" t="s">
         <v>23</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="H116" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="I116" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="B117" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.73541666666666661</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="D117" t="s">
-        <v>335</v>
+        <v>252</v>
       </c>
       <c r="E117">
-        <v>16</v>
+        <v>13.8</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G117" t="s">
         <v>303</v>
       </c>
       <c r="H117" t="s">
-        <v>22</v>
+        <v>251</v>
+      </c>
+      <c r="I117" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="B118" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C118" t="s">
         <v>260</v>
@@ -9932,149 +11001,149 @@
         <v>252</v>
       </c>
       <c r="E118">
-        <v>20</v>
+        <v>13.8</v>
       </c>
       <c r="F118" t="s">
         <v>23</v>
       </c>
       <c r="G118" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="I118" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>43798</v>
+        <v>43797</v>
       </c>
       <c r="B119" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="C119" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="E119">
-        <v>9.1199999999999992</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="H119" t="s">
-        <v>56</v>
-      </c>
-      <c r="I119" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>43798</v>
+        <v>43797</v>
       </c>
       <c r="B120" s="2">
-        <v>0.54097222222222219</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="D120" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="E120">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G120" t="s">
         <v>24</v>
       </c>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="I120" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>43800</v>
+        <v>43798</v>
       </c>
       <c r="B121" s="2">
-        <v>0.44236111111111115</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D121" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="E121">
-        <v>25.4</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="H121" t="s">
-        <v>251</v>
+        <v>56</v>
+      </c>
+      <c r="I121" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>43801</v>
+        <v>43798</v>
       </c>
       <c r="B122" s="2">
-        <v>0.45902777777777781</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="E122">
-        <v>9.1199999999999992</v>
+        <v>21</v>
       </c>
       <c r="F122" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="G122" t="s">
         <v>24</v>
       </c>
       <c r="H122" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="I122" t="s">
-        <v>245</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>43801</v>
+        <v>43800</v>
       </c>
       <c r="B123" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E123">
-        <v>13</v>
+        <v>25.4</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -10083,76 +11152,79 @@
         <v>303</v>
       </c>
       <c r="H123" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>43805</v>
+        <v>43801</v>
       </c>
       <c r="B124" s="2">
-        <v>0.89583333333333337</v>
+        <v>0.45902777777777781</v>
       </c>
       <c r="C124" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="D124" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="E124">
-        <v>51.1</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="G124" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="H124" t="s">
-        <v>283</v>
+        <v>56</v>
+      </c>
+      <c r="I124" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>43785</v>
+        <v>43801</v>
       </c>
       <c r="B125" s="2">
-        <v>0.77013888888888893</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="C125" t="s">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="E125">
-        <v>36.5</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G125" t="s">
         <v>303</v>
       </c>
       <c r="H125" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>43785</v>
+        <v>43801</v>
       </c>
       <c r="B126" s="2">
-        <v>0.47222222222222227</v>
+        <v>0.78125</v>
       </c>
       <c r="C126" t="s">
         <v>258</v>
       </c>
       <c r="D126" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="E126">
-        <v>39.6</v>
+        <v>19.7</v>
       </c>
       <c r="F126" t="s">
         <v>23</v>
@@ -10166,19 +11238,19 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>43801</v>
+        <v>43805</v>
       </c>
       <c r="B127" s="2">
-        <v>0.78125</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C127" t="s">
         <v>258</v>
       </c>
       <c r="D127" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="E127">
-        <v>19.7</v>
+        <v>51.1</v>
       </c>
       <c r="F127" t="s">
         <v>23</v>
@@ -10191,97 +11263,550 @@
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="A128" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C128" t="s">
+        <v>274</v>
+      </c>
+      <c r="D128" t="s">
+        <v>373</v>
+      </c>
+      <c r="E128">
+        <v>69.8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>374</v>
+      </c>
+      <c r="G128" t="s">
+        <v>303</v>
+      </c>
+      <c r="H128" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>321</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>317</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" t="s">
+        <v>25</v>
+      </c>
+      <c r="I130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>321</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" t="s">
+        <v>25</v>
+      </c>
+      <c r="I131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" t="s">
+        <v>270</v>
+      </c>
+      <c r="E132">
+        <v>6.72</v>
+      </c>
+      <c r="F132" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" t="s">
+        <v>56</v>
+      </c>
+      <c r="I132" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="C133" t="s">
+        <v>274</v>
+      </c>
+      <c r="D133" t="s">
+        <v>376</v>
+      </c>
+      <c r="E133">
+        <v>200.9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>377</v>
+      </c>
+      <c r="G133" t="s">
+        <v>303</v>
+      </c>
+      <c r="H133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="C134" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" t="s">
+        <v>378</v>
+      </c>
+      <c r="E134">
+        <v>29.5</v>
+      </c>
+      <c r="F134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>303</v>
+      </c>
+      <c r="H134" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>27</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>303</v>
+      </c>
+      <c r="H135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.95208333333333339</v>
+      </c>
+      <c r="C136" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" t="s">
+        <v>270</v>
+      </c>
+      <c r="E136">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F136" t="s">
+        <v>191</v>
+      </c>
+      <c r="G136" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" t="s">
+        <v>56</v>
+      </c>
+      <c r="I136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C137" t="s">
+        <v>274</v>
+      </c>
+      <c r="D137" t="s">
+        <v>389</v>
+      </c>
+      <c r="E137">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F137" t="s">
+        <v>390</v>
+      </c>
+      <c r="G137" t="s">
+        <v>303</v>
+      </c>
+      <c r="H137" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="C138" t="s">
+        <v>274</v>
+      </c>
+      <c r="D138" t="s">
+        <v>391</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>394</v>
+      </c>
+      <c r="H138" t="s">
+        <v>392</v>
+      </c>
+      <c r="I138" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>400</v>
+      </c>
+      <c r="E139">
+        <v>188.29</v>
+      </c>
+      <c r="F139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>303</v>
+      </c>
+      <c r="H139" t="s">
+        <v>397</v>
+      </c>
+      <c r="I139" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" t="s">
+        <v>399</v>
+      </c>
+      <c r="E140">
+        <v>25</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>303</v>
+      </c>
+      <c r="H140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>401</v>
+      </c>
+      <c r="E141">
+        <v>247.5</v>
+      </c>
+      <c r="F141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>303</v>
+      </c>
+      <c r="H141" t="s">
+        <v>402</v>
+      </c>
+      <c r="I141" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>403</v>
+      </c>
+      <c r="E142">
+        <v>428</v>
+      </c>
+      <c r="F142" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>303</v>
+      </c>
+      <c r="H142" t="s">
+        <v>402</v>
+      </c>
+      <c r="I142" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>303</v>
+      </c>
+      <c r="H143" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>404</v>
+      </c>
+      <c r="E144">
+        <v>428</v>
+      </c>
+      <c r="F144" t="s">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>303</v>
+      </c>
+      <c r="H144" t="s">
+        <v>402</v>
+      </c>
+      <c r="I144" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>408</v>
+      </c>
+      <c r="E145">
+        <v>255.5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>303</v>
+      </c>
+      <c r="H145" t="s">
+        <v>402</v>
+      </c>
+      <c r="I145" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" t="s">
+        <v>410</v>
+      </c>
+      <c r="E146">
+        <v>7.98</v>
+      </c>
+      <c r="F146" t="s">
+        <v>191</v>
+      </c>
+      <c r="G146" t="s">
+        <v>150</v>
+      </c>
+      <c r="H146" t="s">
+        <v>56</v>
+      </c>
+      <c r="I146" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:9">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:9">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="K70:S70"/>
     <mergeCell ref="K52:U52"/>
+    <mergeCell ref="K77:S77"/>
+    <mergeCell ref="K86:S86"/>
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K60:S60"/>
@@ -10331,7 +11856,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="7">
+  <tableParts count="9">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -10339,6 +11864,8 @@
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13628,7 +15155,7 @@
       </c>
       <c r="B2">
         <f>SUM(records!E2:E110)</f>
-        <v>28785.00499999999</v>
+        <v>28616.504999999994</v>
       </c>
     </row>
   </sheetData>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17177039-058E-104D-A9D4-B1B7A41F1B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2B336-416F-9040-BF82-C2C7A1EC938A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="413">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1508,10 +1508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>候补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡腿饭套餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1557,6 +1553,63 @@
   </si>
   <si>
     <t>标准美式咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>候补，嘟嘟账号（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>候补（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +1620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1633,6 +1686,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4633,8 +4699,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I149" totalsRowShown="0">
-  <autoFilter ref="A1:I149" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I162" totalsRowShown="0">
+  <autoFilter ref="A1:I162" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
   <sortState ref="A2:I149">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
@@ -4839,7 +4905,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E149)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E162)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4852,7 +4918,7 @@
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="98"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A149, template!A2, records!E2:E149)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A162, template!A2, records!E2:E162)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="97"/>
@@ -5560,10 +5626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:U149"/>
+  <dimension ref="A1:U162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="I147" sqref="I147"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11574,7 +11640,7 @@
         <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E139">
         <v>188.29</v>
@@ -11589,7 +11655,7 @@
         <v>397</v>
       </c>
       <c r="I139" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -11603,7 +11669,7 @@
         <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E140">
         <v>25</v>
@@ -11629,7 +11695,7 @@
         <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E141">
         <v>247.5</v>
@@ -11641,10 +11707,10 @@
         <v>303</v>
       </c>
       <c r="H141" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I141" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -11658,7 +11724,7 @@
         <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E142">
         <v>428</v>
@@ -11670,10 +11736,10 @@
         <v>303</v>
       </c>
       <c r="H142" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I142" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -11713,7 +11779,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E144">
         <v>428</v>
@@ -11725,10 +11791,10 @@
         <v>303</v>
       </c>
       <c r="H144" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I144" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -11742,7 +11808,7 @@
         <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E145">
         <v>255.5</v>
@@ -11754,10 +11820,10 @@
         <v>303</v>
       </c>
       <c r="H145" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I145" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -11771,7 +11837,7 @@
         <v>53</v>
       </c>
       <c r="D146" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E146">
         <v>7.98</v>
@@ -11790,16 +11856,140 @@
       </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
+      <c r="A147" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>410</v>
+      </c>
+      <c r="E147">
+        <v>19.97</v>
+      </c>
+      <c r="F147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>303</v>
+      </c>
+      <c r="H147" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="1"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>403</v>
+      </c>
+      <c r="E148">
+        <v>428</v>
+      </c>
+      <c r="F148" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>303</v>
+      </c>
+      <c r="H148" t="s">
+        <v>401</v>
+      </c>
+      <c r="I148" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="1"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="C149" t="s">
+        <v>53</v>
+      </c>
+      <c r="D149" t="s">
+        <v>409</v>
+      </c>
+      <c r="E149">
+        <v>7.98</v>
+      </c>
+      <c r="F149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" t="s">
+        <v>56</v>
+      </c>
+      <c r="I149" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15317,163 +15507,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!G2:G162,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!G2:G162,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A2,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -15486,163 +15676,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!G2:G162,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!G2:G162,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A3,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -15655,163 +15845,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!G2:G162,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!G2:G162,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A4,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -15824,163 +16014,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!G2:G162,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!G2:G162,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A5,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -15993,163 +16183,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!G2:G162,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!G2:G162,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A6,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16162,163 +16352,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!G2:G162,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!G2:G162,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A7,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16331,163 +16521,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!G2:G162,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!G2:G162,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A8,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16500,163 +16690,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!G2:G162,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!G2:G162,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A9,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16669,163 +16859,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!G2:G162,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!G2:G162,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!G2:G162,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A10,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16838,163 +17028,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!G2:G162,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!G2:G162,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!G2:G162,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A11,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17007,163 +17197,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!C1,records!B2:B149, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!D1,records!B2:B149, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!E1,records!B2:B149, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!F1,records!B2:B149, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!G1,records!B2:B149, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!H1,records!B2:B149, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!I1,records!B2:B149, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!J1,records!B2:B149, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!K1,records!B2:B149, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!L1,records!B2:B149, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!M1,records!B2:B149, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!N1,records!B2:B149, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!O1,records!B2:B149, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!P1,records!B2:B149, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!Q1,records!B2:B149, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!R1,records!B2:B149, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!S1,records!B2:B149, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!T1,records!B2:B149, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!U1,records!B2:B149, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!V1,records!B2:B149, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!W1,records!B2:B149, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!X1,records!B2:B149, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!Y1,records!B2:B149, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12, records!B2:B149, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!G2:G149,template!AA1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!G2:G162,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!G2:G149,template!AB1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!G2:G162,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!G2:G149,template!AC1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!G2:G162,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!G2:G149,template!AD1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!G2:G162,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AE1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AF1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AG1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AH1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AI1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AK1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AL1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AM1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AN1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AO1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E149,records!A2:A149,template!A12,records!C2:C149,template!AP1)</f>
+        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2B336-416F-9040-BF82-C2C7A1EC938A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A0C3D2-6B02-1942-8195-FAF00CFB2ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="416">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1610,6 +1610,18 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机：长沙-北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-24 21:45 起飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11940,8 +11952,33 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="1"/>
-      <c r="B150" s="2"/>
+      <c r="A150" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>413</v>
+      </c>
+      <c r="E150">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>303</v>
+      </c>
+      <c r="H150" t="s">
+        <v>414</v>
+      </c>
+      <c r="I150" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1"/>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A0C3D2-6B02-1942-8195-FAF00CFB2ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54733CB6-32FF-6747-A834-5AA5BA672550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54733CB6-32FF-6747-A834-5AA5BA672550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA05FA5-E25C-2549-8013-FD38FB288F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA05FA5-E25C-2549-8013-FD38FB288F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF57143-8462-664D-B8FB-44C54A781B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="418">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1624,6 +1624,14 @@
     <t>2020-01-24 21:45 起飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>硬座：深圳-长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/1/24  8:10 发车（谭文晗账号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1632,7 +1640,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1711,6 +1719,12 @@
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFB8BFC6"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1797,7 +1811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1888,15 +1902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1909,2259 +1914,29 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="129">
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
@@ -4546,6 +2321,2235 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
@@ -4718,8 +4722,8 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="127"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -4768,15 +4772,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4809,8 +4813,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
-    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{017C7CC6-7A50-E14C-9010-4A96C3E17AAE}" name="周次"/>
     <tableColumn id="6" xr3:uid="{5013C261-37F5-024E-8869-62C7BB939C64}" name="总计"/>
     <tableColumn id="7" xr3:uid="{86979D30-41EE-6C4C-B773-E0842C968F33}" name="0:00"/>
@@ -4862,8 +4866,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{E3BB613C-2E5A-4046-9257-D1DB5057AC50}" name="月份"/>
     <tableColumn id="4" xr3:uid="{581D6C9B-0675-814D-8E48-FE3CBE3222FF}" name="总计"/>
     <tableColumn id="5" xr3:uid="{8CD512E4-B465-1948-AD0C-9D92E154A27C}" name="0:00"/>
@@ -4928,12 +4932,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
       <calculatedColumnFormula>SUMIF(records!A2:A162, template!A2, records!E2:E162)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
-    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
     <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
     <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
@@ -5034,8 +5038,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{92055967-689A-EC42-B55A-6B47F10291F6}" name="月份"/>
     <tableColumn id="4" xr3:uid="{55866787-4B70-3048-A457-F0AE2ECD6322}" name="总计">
       <calculatedColumnFormula>SUMIFS(day!B3:B55,day!A3:A55,"&gt;="&amp;template!A41,day!A3:A55,"&lt;="&amp;template!B41)</calculatedColumnFormula>
@@ -5166,176 +5170,176 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123">
   <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
   <sortState ref="K3:U30">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="120"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="119"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="117"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="116"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="114"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="119"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="118"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" headerRowBorderDxfId="91" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
   <sortState ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80" headerRowBorderDxfId="78" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82">
   <autoFilter ref="K61:S68" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState ref="K62:S87">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" headerRowBorderDxfId="65" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
   <autoFilter ref="K71:S75" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState ref="K72:S94">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="65"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="K78:S84" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState ref="K79:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="K87:S93" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState ref="K88:S112">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5641,7 +5645,7 @@
   <dimension ref="A1:U162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5650,7 +5654,7 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
     <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
@@ -5683,19 +5687,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -7472,17 +7476,17 @@
       <c r="I32" t="s">
         <v>143</v>
       </c>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -7929,20 +7933,20 @@
       <c r="I41" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="36">
+      <c r="L41" s="31"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="33">
         <f>SUM(O34:O40)</f>
         <v>39.6</v>
       </c>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="1">
@@ -8001,17 +8005,17 @@
       <c r="I43" t="s">
         <v>141</v>
       </c>
-      <c r="K43" s="30" t="s">
+      <c r="K43" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -8356,20 +8360,20 @@
       <c r="I50" t="s">
         <v>240</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="L50" s="34"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="36">
+      <c r="L50" s="31"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="33">
         <f>SUM(O45:O49)</f>
         <v>36.5</v>
       </c>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1">
@@ -8428,19 +8432,19 @@
       <c r="I52" t="s">
         <v>214</v>
       </c>
-      <c r="K52" s="37" t="s">
+      <c r="K52" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1">
@@ -8871,17 +8875,17 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K60" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1">
@@ -9348,17 +9352,17 @@
       <c r="I70" t="s">
         <v>214</v>
       </c>
-      <c r="K70" s="30" t="s">
+      <c r="K70" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="1">
@@ -9663,17 +9667,17 @@
       <c r="H77" t="s">
         <v>283</v>
       </c>
-      <c r="K77" s="30" t="s">
+      <c r="K77" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1">
@@ -10081,17 +10085,17 @@
       <c r="H86" t="s">
         <v>22</v>
       </c>
-      <c r="K86" s="30" t="s">
+      <c r="K86" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="34"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -11809,7 +11813,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:11">
       <c r="A145" s="1">
         <v>43820</v>
       </c>
@@ -11838,7 +11842,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:11">
       <c r="A146" s="1">
         <v>43820</v>
       </c>
@@ -11867,7 +11871,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:11">
       <c r="A147" s="1">
         <v>43822</v>
       </c>
@@ -11893,7 +11897,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:11">
       <c r="A148" s="1">
         <v>43822</v>
       </c>
@@ -11922,7 +11926,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:11">
       <c r="A149" s="1">
         <v>43822</v>
       </c>
@@ -11951,7 +11955,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:11">
       <c r="A150" s="1">
         <v>43823</v>
       </c>
@@ -11980,43 +11984,69 @@
         <v>415</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1"/>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:9">
+    <row r="151" spans="1:11" ht="20">
+      <c r="A151" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>416</v>
+      </c>
+      <c r="E151">
+        <v>112</v>
+      </c>
+      <c r="F151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s">
+        <v>303</v>
+      </c>
+      <c r="H151" t="s">
+        <v>401</v>
+      </c>
+      <c r="I151" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="K151" s="39"/>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:11">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:11">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:11">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:11">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:11">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:11">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:11">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:11">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
@@ -12111,58 +12141,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AB1" s="32" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AB1" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AI1" s="31" t="s">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AI1" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF57143-8462-664D-B8FB-44C54A781B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299BEE7B-E7BA-CF4D-9E78-71B1BB218716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -1914,6 +1914,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1925,12 +1931,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5687,19 +5687,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -7476,17 +7476,17 @@
       <c r="I32" t="s">
         <v>143</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -8005,17 +8005,17 @@
       <c r="I43" t="s">
         <v>141</v>
       </c>
-      <c r="K43" s="34" t="s">
+      <c r="K43" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -8432,19 +8432,19 @@
       <c r="I52" t="s">
         <v>214</v>
       </c>
-      <c r="K52" s="35" t="s">
+      <c r="K52" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1">
@@ -8875,17 +8875,17 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="34" t="s">
+      <c r="K60" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1">
@@ -9352,17 +9352,17 @@
       <c r="I70" t="s">
         <v>214</v>
       </c>
-      <c r="K70" s="34" t="s">
+      <c r="K70" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="1">
@@ -9667,17 +9667,17 @@
       <c r="H77" t="s">
         <v>283</v>
       </c>
-      <c r="K77" s="34" t="s">
+      <c r="K77" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1">
@@ -10085,17 +10085,17 @@
       <c r="H86" t="s">
         <v>22</v>
       </c>
-      <c r="K86" s="34" t="s">
+      <c r="K86" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1">
@@ -12009,10 +12009,10 @@
       <c r="H151" t="s">
         <v>401</v>
       </c>
-      <c r="I151" s="38" t="s">
+      <c r="I151" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="K151" s="39"/>
+      <c r="K151" s="35"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="1"/>
@@ -12141,58 +12141,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AB1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AB1" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AI1" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299BEE7B-E7BA-CF4D-9E78-71B1BB218716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DF05B4-0CCE-B648-84F3-E25A4C8E9DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="422">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1631,6 +1631,21 @@
   <si>
     <t>2020/1/24  8:10 发车（谭文晗账号）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增肌粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练代购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷氨酰胺</t>
   </si>
 </sst>
 </file>
@@ -5645,7 +5660,7 @@
   <dimension ref="A1:U162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12015,12 +12030,56 @@
       <c r="K151" s="35"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="1"/>
-      <c r="B152" s="2"/>
+      <c r="A152" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="C152" t="s">
+        <v>53</v>
+      </c>
+      <c r="D152" t="s">
+        <v>419</v>
+      </c>
+      <c r="E152">
+        <v>480</v>
+      </c>
+      <c r="F152" t="s">
+        <v>418</v>
+      </c>
+      <c r="G152" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
+      <c r="A153" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="C153" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" t="s">
+        <v>421</v>
+      </c>
+      <c r="E153">
+        <v>180</v>
+      </c>
+      <c r="F153" t="s">
+        <v>418</v>
+      </c>
+      <c r="G153" t="s">
+        <v>24</v>
+      </c>
+      <c r="H153" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="1"/>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DF05B4-0CCE-B648-84F3-E25A4C8E9DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748ADBA3-D0C8-EC47-A057-8DB364FCE54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="427">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1646,6 +1646,26 @@
   </si>
   <si>
     <t>谷氨酰胺</t>
+  </si>
+  <si>
+    <t>32个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡嘉贝他舅舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两箱，一箱 18 个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5660,7 +5680,7 @@
   <dimension ref="A1:U162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12082,8 +12102,33 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C154" t="s">
+        <v>423</v>
+      </c>
+      <c r="D154" t="s">
+        <v>424</v>
+      </c>
+      <c r="E154">
+        <v>100</v>
+      </c>
+      <c r="F154" t="s">
+        <v>422</v>
+      </c>
+      <c r="G154" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" t="s">
+        <v>425</v>
+      </c>
+      <c r="I154" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="1"/>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748ADBA3-D0C8-EC47-A057-8DB364FCE54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA16F2-02BA-EC4E-9E57-20F520ECFDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="432">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1665,6 +1665,26 @@
   </si>
   <si>
     <t>两箱，一箱 18 个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅菜扣肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴粮品汤包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶叶蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5680,7 +5700,7 @@
   <dimension ref="A1:U162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="I154" sqref="I154"/>
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12131,16 +12151,82 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
+      <c r="A155" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C155" t="s">
+        <v>427</v>
+      </c>
+      <c r="D155" t="s">
+        <v>428</v>
+      </c>
+      <c r="E155">
+        <v>1.5</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>303</v>
+      </c>
+      <c r="H155" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
+      <c r="A156" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C156" t="s">
+        <v>427</v>
+      </c>
+      <c r="D156" t="s">
+        <v>430</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156" t="s">
+        <v>303</v>
+      </c>
+      <c r="H156" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C157" t="s">
+        <v>427</v>
+      </c>
+      <c r="D157" t="s">
+        <v>431</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>303</v>
+      </c>
+      <c r="H157" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="1"/>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA16F2-02BA-EC4E-9E57-20F520ECFDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4227876-F47B-B94E-9639-1E506C90B467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="438">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1685,6 +1685,30 @@
   </si>
   <si>
     <t>茶叶蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通手机营业厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海汉庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华住会APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮陈祖光定的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5700,7 +5724,7 @@
   <dimension ref="A1:U162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12166,8 +12190,8 @@
       <c r="E155">
         <v>1.5</v>
       </c>
-      <c r="F155">
-        <v>1</v>
+      <c r="F155" t="s">
+        <v>65</v>
       </c>
       <c r="G155" t="s">
         <v>303</v>
@@ -12192,8 +12216,8 @@
       <c r="E156">
         <v>3</v>
       </c>
-      <c r="F156">
-        <v>2</v>
+      <c r="F156" t="s">
+        <v>287</v>
       </c>
       <c r="G156" t="s">
         <v>303</v>
@@ -12218,8 +12242,8 @@
       <c r="E157">
         <v>2</v>
       </c>
-      <c r="F157">
-        <v>1</v>
+      <c r="F157" t="s">
+        <v>65</v>
       </c>
       <c r="G157" t="s">
         <v>303</v>
@@ -12229,22 +12253,113 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
+      <c r="A158" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" t="s">
+        <v>410</v>
+      </c>
+      <c r="E158">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F158" t="s">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>303</v>
+      </c>
+      <c r="H158" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
+      <c r="A159" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C159" t="s">
+        <v>427</v>
+      </c>
+      <c r="D159" t="s">
+        <v>430</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>287</v>
+      </c>
+      <c r="G159" t="s">
+        <v>303</v>
+      </c>
+      <c r="H159" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="1"/>
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1"/>
-      <c r="B161" s="2"/>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="A160" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C160" t="s">
+        <v>427</v>
+      </c>
+      <c r="D160" t="s">
+        <v>431</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>287</v>
+      </c>
+      <c r="G160" t="s">
+        <v>303</v>
+      </c>
+      <c r="H160" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C161" t="s">
+        <v>433</v>
+      </c>
+      <c r="D161" t="s">
+        <v>434</v>
+      </c>
+      <c r="E161">
+        <v>149</v>
+      </c>
+      <c r="F161" t="s">
+        <v>435</v>
+      </c>
+      <c r="G161" t="s">
+        <v>303</v>
+      </c>
+      <c r="H161" t="s">
+        <v>436</v>
+      </c>
+      <c r="I161" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4227876-F47B-B94E-9639-1E506C90B467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0B770-2870-244D-8F4B-2754EDF1CCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="442">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1709,6 +1709,22 @@
   </si>
   <si>
     <t>帮陈祖光定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜肉小混沌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海小混沌店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸酱面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4794,8 +4810,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I162" totalsRowShown="0">
-  <autoFilter ref="A1:I162" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I166" totalsRowShown="0">
+  <autoFilter ref="A1:I166" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
   <sortState ref="A2:I149">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
@@ -5000,7 +5016,7 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E162)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E166)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5013,7 +5029,7 @@
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A162, template!A2, records!E2:E162)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A166, template!A2, records!E2:E166)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
@@ -5721,10 +5737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:U162"/>
+  <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12360,8 +12376,68 @@
       </c>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
+      <c r="A162" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" t="s">
+        <v>438</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162" t="s">
+        <v>439</v>
+      </c>
+      <c r="G162" t="s">
+        <v>303</v>
+      </c>
+      <c r="H162" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" t="s">
+        <v>441</v>
+      </c>
+      <c r="E163">
+        <v>12</v>
+      </c>
+      <c r="F163" t="s">
+        <v>439</v>
+      </c>
+      <c r="G163" t="s">
+        <v>303</v>
+      </c>
+      <c r="H163" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15879,163 +15955,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!G2:G166,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!G2:G166,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A2,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16048,163 +16124,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!G2:G166,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!G2:G166,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A3,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16217,163 +16293,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!G2:G166,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!G2:G166,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A4,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16386,163 +16462,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!G2:G166,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!G2:G166,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A5,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16555,163 +16631,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!G2:G166,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!G2:G166,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A6,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16724,163 +16800,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!G2:G166,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!G2:G166,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A7,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16893,163 +16969,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!G2:G166,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!G2:G166,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A8,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17062,163 +17138,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!G2:G166,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!G2:G166,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A9,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17231,163 +17307,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!G2:G166,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!G2:G166,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!G2:G166,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A10,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17400,163 +17476,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!G2:G166,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!G2:G166,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!G2:G166,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A11,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17569,163 +17645,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!C1,records!B2:B162, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!D1,records!B2:B162, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!E1,records!B2:B162, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!F1,records!B2:B162, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!G1,records!B2:B162, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!H1,records!B2:B162, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!I1,records!B2:B162, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!J1,records!B2:B162, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!K1,records!B2:B162, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!L1,records!B2:B162, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!M1,records!B2:B162, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!N1,records!B2:B162, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!O1,records!B2:B162, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!P1,records!B2:B162, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!Q1,records!B2:B162, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!R1,records!B2:B162, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!S1,records!B2:B162, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!T1,records!B2:B162, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!U1,records!B2:B162, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!V1,records!B2:B162, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!W1,records!B2:B162, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!X1,records!B2:B162, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!Y1,records!B2:B162, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12, records!B2:B162, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!G2:G162,template!AA1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!G2:G166,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!G2:G162,template!AB1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!G2:G166,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!G2:G162,template!AC1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!G2:G166,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!G2:G162,template!AD1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!G2:G166,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AE1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AF1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AG1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AH1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AI1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AK1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AL1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AM1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AN1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AO1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E162,records!A2:A162,template!A12,records!C2:C162,template!AP1)</f>
+        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0B770-2870-244D-8F4B-2754EDF1CCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4684870-EA11-E448-B988-F6090F861C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="447">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1725,6 +1725,26 @@
   </si>
   <si>
     <t>炸酱面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门签注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福田出入境办理处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港签注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5740,7 +5760,7 @@
   <dimension ref="A1:U166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12428,12 +12448,56 @@
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="1"/>
-      <c r="B164" s="2"/>
+      <c r="A164" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C164" t="s">
+        <v>442</v>
+      </c>
+      <c r="D164" t="s">
+        <v>443</v>
+      </c>
+      <c r="E164">
+        <v>15</v>
+      </c>
+      <c r="F164" t="s">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s">
+        <v>303</v>
+      </c>
+      <c r="H164" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="1"/>
-      <c r="B165" s="2"/>
+      <c r="A165" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C165" t="s">
+        <v>442</v>
+      </c>
+      <c r="D165" t="s">
+        <v>446</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+      <c r="F165" t="s">
+        <v>445</v>
+      </c>
+      <c r="G165" t="s">
+        <v>303</v>
+      </c>
+      <c r="H165" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1"/>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/filebackup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4684870-EA11-E448-B988-F6090F861C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6F666-31C8-234A-A5A0-3A27E4CED913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="8080" windowWidth="18020" windowHeight="11680" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="533">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1595,7 +1595,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>已取消</t>
     </r>
@@ -1745,6 +1744,317 @@
   </si>
   <si>
     <t>香港签注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019 年 12 月 29 号 一次海底捞聚餐</t>
+  </si>
+  <si>
+    <t>2019 年 12 月 29 号 一次海底捞聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>海底捞京基KKONE购物中心店</t>
+  </si>
+  <si>
+    <t>捞派毛肚</t>
+  </si>
+  <si>
+    <t>0.5份</t>
+  </si>
+  <si>
+    <t>捞派脆脆毛肚</t>
+  </si>
+  <si>
+    <t>捞派鸭肠</t>
+  </si>
+  <si>
+    <t>鳕鱼蟹味棒</t>
+  </si>
+  <si>
+    <t>精品蟹黄草虾滑</t>
+  </si>
+  <si>
+    <t>血旺</t>
+  </si>
+  <si>
+    <t>羊排卷</t>
+  </si>
+  <si>
+    <t>鲜切牛肉</t>
+  </si>
+  <si>
+    <t>青笋</t>
+  </si>
+  <si>
+    <t>竹笋</t>
+  </si>
+  <si>
+    <t>豆腐皮</t>
+  </si>
+  <si>
+    <t>炸豆衣卷</t>
+  </si>
+  <si>
+    <t>豆苗</t>
+  </si>
+  <si>
+    <t>自选小料</t>
+  </si>
+  <si>
+    <t>4份</t>
+  </si>
+  <si>
+    <t>拼锅</t>
+  </si>
+  <si>
+    <t>清油麻辣火锅+番茄火锅</t>
+  </si>
+  <si>
+    <t>和健身房经历及两个酒吧妹一起，浪费时间、进去、感情。缴了智商税。</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>金额($)</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>支付宝-花呗</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>家乐福新洲店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂峰精品瘦肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.308kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：117.6/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿庄园小黄姜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土磨坊小桂皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思念豆沙包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家乐福葱香味手抓饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双汇特嫩三文治香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼菜籽油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈克明清汤面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太港玉米生粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁门红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剁辣椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外婆之手碗装佬米酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣惠寿司紫菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城丝宝宝木耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土磨坊小茴香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李锦记锦珍老抽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽雅钢丝球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个钢丝球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个钢丝球+1个金柔菜瓜布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2大块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大料（八角）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON冬笋片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>960g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1袋，大概50～80个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15只，1袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1袋，10片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5根手指粗一把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.086kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：186/kg，1瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1袋，6片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 2 月 9 号 一次超市购物</t>
+  </si>
+  <si>
+    <t>2020 年 2 月 9 号 一次超市购物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1833,7 +2143,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2051,7 +2360,295 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="142">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
@@ -4830,15 +5427,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I166" totalsRowShown="0">
-  <autoFilter ref="A1:I166" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState ref="A2:I149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I179" totalsRowShown="0">
+  <autoFilter ref="A1:I179" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState ref="A2:I179">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="127"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="140"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -4852,6 +5449,47 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{56FD8E46-8A76-0B44-B564-92ED8B2D7696}" name="表21" displayName="表21" ref="K96:T112" totalsRowShown="0">
+  <autoFilter ref="K96:T112" xr:uid="{320DA192-901E-CA4C-AABF-40185994002C}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{69CE390D-322F-1549-9A87-DE7C192DC734}" name="日期"/>
+    <tableColumn id="2" xr3:uid="{72F736D9-070E-B44F-BA6B-A9C210EF765C}" name="时间"/>
+    <tableColumn id="3" xr3:uid="{2710D071-AB3C-3244-A489-F78C5F1E521F}" name="类别"/>
+    <tableColumn id="4" xr3:uid="{A94C57F4-B44E-A240-9392-211B3F244C48}" name="名称"/>
+    <tableColumn id="5" xr3:uid="{19CBCC2B-5FEA-1545-A842-31B0CC847D36}" name="金额($)"/>
+    <tableColumn id="6" xr3:uid="{BFF3A0B0-5AE8-B849-938C-7B4FDC18D349}" name="数量"/>
+    <tableColumn id="7" xr3:uid="{1435ADA9-CE81-B943-8929-7851860A158E}" name="支付方式"/>
+    <tableColumn id="8" xr3:uid="{3186C1B6-5C03-454C-9826-EE1D4AA7BD7E}" name="渠道"/>
+    <tableColumn id="9" xr3:uid="{8405EB9C-21A3-684D-94E5-A2A171366AEF}" name="备注"/>
+    <tableColumn id="10" xr3:uid="{9DE8FF71-EAEA-4840-AAD4-707EFD234105}" name="列1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K115:S137" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="K115:S137" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
+  <sortState ref="K116:S130">
+    <sortCondition ref="K3:K27"/>
+    <sortCondition ref="L3:L27"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -4886,22 +5524,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{AD21D3B0-716F-7E48-8025-AFE6FCD92120}" name="日期" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{FC1DE92B-2BB9-C747-9F2C-31A1E6EC711A}" name="总计" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2CF739A1-8CBC-4B46-BFBE-38C9697B1DC3}" name="支付宝" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{37AC6B7D-8DE6-EA44-989F-87DDDBECA772}" name="微信" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00BE3057-47F6-7B4F-87A9-6B0CC4188CEF}" name="现金" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{B6C7CF2F-B1B2-3E49-8ACD-DD1A2CA77F01}" name="银行卡" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -4924,12 +5562,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
-    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2581BCC0-F69D-6B4D-AEC8-D0030C419CB3}" name="起始日期2" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{95E26320-E744-E549-B533-39AC4179085D}" name="结束日期3" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{017C7CC6-7A50-E14C-9010-4A96C3E17AAE}" name="周次"/>
     <tableColumn id="6" xr3:uid="{5013C261-37F5-024E-8869-62C7BB939C64}" name="总计"/>
     <tableColumn id="7" xr3:uid="{86979D30-41EE-6C4C-B773-E0842C968F33}" name="0:00"/>
@@ -4977,12 +5615,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C0F5CD09-98E8-DD4D-8B07-7A63CBC46885}" name="起始日期" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{310700D5-AA51-6C4F-9C4C-EBF3E9EFEA2B}" name="结束日期" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{E3BB613C-2E5A-4046-9257-D1DB5057AC50}" name="月份"/>
     <tableColumn id="4" xr3:uid="{581D6C9B-0675-814D-8E48-FE3CBE3222FF}" name="总计"/>
     <tableColumn id="5" xr3:uid="{8CD512E4-B465-1948-AD0C-9D92E154A27C}" name="0:00"/>
@@ -5030,29 +5668,29 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E166)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E179)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
-    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A166, template!A2, records!E2:E166)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A179, template!A2, records!E2:E179)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
-    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{C3E9F398-2977-274F-AC07-745B24EA6D5B}" name="2:00"/>
     <tableColumn id="6" xr3:uid="{538DED39-B589-734E-A6B3-BC72BF0D9B0D}" name="3:00"/>
     <tableColumn id="7" xr3:uid="{108D9D1B-57A3-B849-9C65-4BBC2558EB2F}" name="4:00"/>
@@ -5096,7 +5734,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -5149,12 +5787,36 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136">
+  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
+  <sortState ref="K3:U30">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="125"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4B46A71B-91FB-1542-AB1C-88155CE27D04}" name="起始日期" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8482E588-E7EF-7B49-8CA8-6F2A7133DEAD}" name="结束日期" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{92055967-689A-EC42-B55A-6B47F10291F6}" name="月份"/>
     <tableColumn id="4" xr3:uid="{55866787-4B70-3048-A457-F0AE2ECD6322}" name="总计">
       <calculatedColumnFormula>SUMIFS(day!B3:B55,day!A3:A55,"&gt;="&amp;template!A41,day!A3:A55,"&lt;="&amp;template!B41)</calculatedColumnFormula>
@@ -5284,177 +5946,153 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123">
-  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
-  <sortState ref="K3:U30">
-    <sortCondition ref="K3:K30"/>
-    <sortCondition ref="L3:L30"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="118"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="112"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
   <sortState ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
   <autoFilter ref="K61:S68" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState ref="K62:S87">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82">
   <autoFilter ref="K71:S75" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState ref="K72:S94">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="65"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
   <autoFilter ref="K78:S84" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState ref="K79:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="K87:S93" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState ref="K88:S112">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5757,10 +6395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:U166"/>
+  <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="K157" sqref="K157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5770,6 +6408,8 @@
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
     <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
@@ -9956,7 +10596,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>43786</v>
       </c>
@@ -10006,7 +10646,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>43787</v>
       </c>
@@ -10059,7 +10699,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>43787</v>
       </c>
@@ -10109,7 +10749,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>43787</v>
       </c>
@@ -10146,7 +10786,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>43788</v>
       </c>
@@ -10175,7 +10815,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>43788</v>
       </c>
@@ -10212,7 +10852,7 @@
       <c r="R86" s="36"/>
       <c r="S86" s="36"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>43788</v>
       </c>
@@ -10268,7 +10908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>43789</v>
       </c>
@@ -10321,7 +10961,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>43789</v>
       </c>
@@ -10367,7 +11007,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>43789</v>
       </c>
@@ -10410,7 +11050,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>43790</v>
       </c>
@@ -10453,7 +11093,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>43790</v>
       </c>
@@ -10496,7 +11136,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>43790</v>
       </c>
@@ -10533,7 +11173,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:20">
       <c r="A94" s="1">
         <v>43791</v>
       </c>
@@ -10559,7 +11199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:20">
       <c r="A95" s="1">
         <v>43791</v>
       </c>
@@ -10587,8 +11227,19 @@
       <c r="I95" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="K95" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="1">
         <v>43791</v>
       </c>
@@ -10613,8 +11264,38 @@
       <c r="H96" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="K96" t="s">
+        <v>145</v>
+      </c>
+      <c r="L96" t="s">
+        <v>470</v>
+      </c>
+      <c r="M96" t="s">
+        <v>471</v>
+      </c>
+      <c r="N96" t="s">
+        <v>472</v>
+      </c>
+      <c r="O96" t="s">
+        <v>473</v>
+      </c>
+      <c r="P96" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>475</v>
+      </c>
+      <c r="R96" t="s">
+        <v>476</v>
+      </c>
+      <c r="S96" t="s">
+        <v>477</v>
+      </c>
+      <c r="T96" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="1">
         <v>43792</v>
       </c>
@@ -10639,8 +11320,35 @@
       <c r="H97" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="K97" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M97" t="s">
+        <v>449</v>
+      </c>
+      <c r="N97" t="s">
+        <v>467</v>
+      </c>
+      <c r="O97">
+        <v>78</v>
+      </c>
+      <c r="P97" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>478</v>
+      </c>
+      <c r="R97" t="s">
+        <v>450</v>
+      </c>
+      <c r="S97" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="1">
         <v>43792</v>
       </c>
@@ -10668,8 +11376,32 @@
       <c r="I98" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="K98" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M98" t="s">
+        <v>449</v>
+      </c>
+      <c r="N98" t="s">
+        <v>451</v>
+      </c>
+      <c r="O98">
+        <v>32</v>
+      </c>
+      <c r="P98" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>478</v>
+      </c>
+      <c r="R98" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="1">
         <v>43792</v>
       </c>
@@ -10694,8 +11426,32 @@
       <c r="H99" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="K99" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M99" t="s">
+        <v>449</v>
+      </c>
+      <c r="N99" t="s">
+        <v>453</v>
+      </c>
+      <c r="O99">
+        <v>70</v>
+      </c>
+      <c r="P99" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>478</v>
+      </c>
+      <c r="R99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="1">
         <v>43793</v>
       </c>
@@ -10720,8 +11476,32 @@
       <c r="H100" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="K100" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M100" t="s">
+        <v>449</v>
+      </c>
+      <c r="N100" t="s">
+        <v>454</v>
+      </c>
+      <c r="O100">
+        <v>44</v>
+      </c>
+      <c r="P100" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>478</v>
+      </c>
+      <c r="R100" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="1">
         <v>43793</v>
       </c>
@@ -10746,8 +11526,32 @@
       <c r="H101" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="K101" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M101" t="s">
+        <v>449</v>
+      </c>
+      <c r="N101" t="s">
+        <v>455</v>
+      </c>
+      <c r="O101">
+        <v>19</v>
+      </c>
+      <c r="P101" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>478</v>
+      </c>
+      <c r="R101" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="1">
         <v>43793</v>
       </c>
@@ -10772,8 +11576,32 @@
       <c r="H102" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="K102" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M102" t="s">
+        <v>449</v>
+      </c>
+      <c r="N102" t="s">
+        <v>456</v>
+      </c>
+      <c r="O102">
+        <v>29</v>
+      </c>
+      <c r="P102" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>478</v>
+      </c>
+      <c r="R102" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="1">
         <v>43793</v>
       </c>
@@ -10798,8 +11626,32 @@
       <c r="H103" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="K103" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M103" t="s">
+        <v>449</v>
+      </c>
+      <c r="N103" t="s">
+        <v>457</v>
+      </c>
+      <c r="O103">
+        <v>40</v>
+      </c>
+      <c r="P103" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>478</v>
+      </c>
+      <c r="R103" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="1">
         <v>43793</v>
       </c>
@@ -10824,8 +11676,32 @@
       <c r="H104" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="K104" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M104" t="s">
+        <v>449</v>
+      </c>
+      <c r="N104" t="s">
+        <v>458</v>
+      </c>
+      <c r="O104">
+        <v>29</v>
+      </c>
+      <c r="P104" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>478</v>
+      </c>
+      <c r="R104" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="1">
         <v>43793</v>
       </c>
@@ -10850,8 +11726,32 @@
       <c r="H105" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="K105" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M105" t="s">
+        <v>449</v>
+      </c>
+      <c r="N105" t="s">
+        <v>459</v>
+      </c>
+      <c r="O105">
+        <v>72</v>
+      </c>
+      <c r="P105" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>478</v>
+      </c>
+      <c r="R105" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="1">
         <v>43793</v>
       </c>
@@ -10876,8 +11776,32 @@
       <c r="H106" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="K106" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M106" t="s">
+        <v>449</v>
+      </c>
+      <c r="N106" t="s">
+        <v>460</v>
+      </c>
+      <c r="O106">
+        <v>13</v>
+      </c>
+      <c r="P106" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>478</v>
+      </c>
+      <c r="R106" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="1">
         <v>43794</v>
       </c>
@@ -10905,8 +11829,32 @@
       <c r="I107" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="K107" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M107" t="s">
+        <v>449</v>
+      </c>
+      <c r="N107" t="s">
+        <v>461</v>
+      </c>
+      <c r="O107">
+        <v>14</v>
+      </c>
+      <c r="P107" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>478</v>
+      </c>
+      <c r="R107" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="1">
         <v>43794</v>
       </c>
@@ -10931,8 +11879,32 @@
       <c r="H108" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="K108" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M108" t="s">
+        <v>449</v>
+      </c>
+      <c r="N108" t="s">
+        <v>462</v>
+      </c>
+      <c r="O108">
+        <v>13</v>
+      </c>
+      <c r="P108" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>478</v>
+      </c>
+      <c r="R108" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="1">
         <v>43794</v>
       </c>
@@ -10960,8 +11932,32 @@
       <c r="I109" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="K109" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M109" t="s">
+        <v>449</v>
+      </c>
+      <c r="N109" t="s">
+        <v>463</v>
+      </c>
+      <c r="O109">
+        <v>14</v>
+      </c>
+      <c r="P109" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>478</v>
+      </c>
+      <c r="R109" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="1">
         <v>43794</v>
       </c>
@@ -10989,8 +11985,32 @@
       <c r="I110" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="K110" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M110" t="s">
+        <v>449</v>
+      </c>
+      <c r="N110" t="s">
+        <v>464</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>478</v>
+      </c>
+      <c r="R110" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="1">
         <v>43794</v>
       </c>
@@ -11015,8 +12035,32 @@
       <c r="H111" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="K111" s="1">
+        <v>43827</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0.15208333333333299</v>
+      </c>
+      <c r="M111" t="s">
+        <v>449</v>
+      </c>
+      <c r="N111" t="s">
+        <v>465</v>
+      </c>
+      <c r="O111">
+        <v>40</v>
+      </c>
+      <c r="P111" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>478</v>
+      </c>
+      <c r="R111" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="1">
         <v>43795</v>
       </c>
@@ -11044,8 +12088,17 @@
       <c r="I112" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="K112" t="s">
+        <v>146</v>
+      </c>
+      <c r="O112" s="13">
+        <v>516</v>
+      </c>
+      <c r="S112" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>43795</v>
       </c>
@@ -11071,7 +12124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>43795</v>
       </c>
@@ -11099,8 +12152,19 @@
       <c r="I114" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="K114" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="36"/>
+      <c r="Q114" s="36"/>
+      <c r="R114" s="36"/>
+      <c r="S114" s="36"/>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>43796</v>
       </c>
@@ -11125,8 +12189,35 @@
       <c r="H115" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="K115" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N115" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O115" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S115" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>43796</v>
       </c>
@@ -11154,8 +12245,35 @@
       <c r="I116" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="K116" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="M116" t="s">
+        <v>258</v>
+      </c>
+      <c r="N116" t="s">
+        <v>481</v>
+      </c>
+      <c r="O116">
+        <v>36.22</v>
+      </c>
+      <c r="P116" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>24</v>
+      </c>
+      <c r="R116" t="s">
+        <v>480</v>
+      </c>
+      <c r="S116" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>43796</v>
       </c>
@@ -11183,8 +12301,35 @@
       <c r="I117" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="K117" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="M117" t="s">
+        <v>83</v>
+      </c>
+      <c r="N117" t="s">
+        <v>484</v>
+      </c>
+      <c r="O117">
+        <v>7.9</v>
+      </c>
+      <c r="P117" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>24</v>
+      </c>
+      <c r="R117" t="s">
+        <v>480</v>
+      </c>
+      <c r="S117" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>43796</v>
       </c>
@@ -11212,8 +12357,35 @@
       <c r="I118" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="K118" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M118" t="s">
+        <v>258</v>
+      </c>
+      <c r="N118" t="s">
+        <v>485</v>
+      </c>
+      <c r="O118">
+        <v>4.8</v>
+      </c>
+      <c r="P118" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>24</v>
+      </c>
+      <c r="R118" t="s">
+        <v>480</v>
+      </c>
+      <c r="S118" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>43797</v>
       </c>
@@ -11238,8 +12410,35 @@
       <c r="H119" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="K119" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M119" t="s">
+        <v>83</v>
+      </c>
+      <c r="N119" t="s">
+        <v>511</v>
+      </c>
+      <c r="O119">
+        <v>9.9</v>
+      </c>
+      <c r="P119" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>24</v>
+      </c>
+      <c r="R119" t="s">
+        <v>480</v>
+      </c>
+      <c r="S119" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>43797</v>
       </c>
@@ -11267,8 +12466,35 @@
       <c r="I120" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="K120" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M120" t="s">
+        <v>258</v>
+      </c>
+      <c r="N120" t="s">
+        <v>514</v>
+      </c>
+      <c r="O120">
+        <v>9.9</v>
+      </c>
+      <c r="P120" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>24</v>
+      </c>
+      <c r="R120" t="s">
+        <v>480</v>
+      </c>
+      <c r="S120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>43798</v>
       </c>
@@ -11296,8 +12522,35 @@
       <c r="I121" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="K121" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M121" t="s">
+        <v>83</v>
+      </c>
+      <c r="N121" t="s">
+        <v>486</v>
+      </c>
+      <c r="O121">
+        <v>10</v>
+      </c>
+      <c r="P121" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>24</v>
+      </c>
+      <c r="R121" t="s">
+        <v>480</v>
+      </c>
+      <c r="S121" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>43798</v>
       </c>
@@ -11325,8 +12578,35 @@
       <c r="I122" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="K122" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M122" t="s">
+        <v>258</v>
+      </c>
+      <c r="N122" t="s">
+        <v>487</v>
+      </c>
+      <c r="O122">
+        <v>8.5</v>
+      </c>
+      <c r="P122" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>24</v>
+      </c>
+      <c r="R122" t="s">
+        <v>480</v>
+      </c>
+      <c r="S122" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>43800</v>
       </c>
@@ -11351,8 +12631,35 @@
       <c r="H123" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="K123" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M123" t="s">
+        <v>83</v>
+      </c>
+      <c r="N123" t="s">
+        <v>488</v>
+      </c>
+      <c r="O123">
+        <v>16</v>
+      </c>
+      <c r="P123" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>24</v>
+      </c>
+      <c r="R123" t="s">
+        <v>480</v>
+      </c>
+      <c r="S123" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>43801</v>
       </c>
@@ -11380,8 +12687,32 @@
       <c r="I124" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="K124" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M124" t="s">
+        <v>258</v>
+      </c>
+      <c r="N124" t="s">
+        <v>489</v>
+      </c>
+      <c r="O124">
+        <v>8.5</v>
+      </c>
+      <c r="P124" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>24</v>
+      </c>
+      <c r="R124" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>43801</v>
       </c>
@@ -11406,8 +12737,35 @@
       <c r="H125" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="K125" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M125" t="s">
+        <v>83</v>
+      </c>
+      <c r="N125" t="s">
+        <v>490</v>
+      </c>
+      <c r="O125">
+        <v>10</v>
+      </c>
+      <c r="P125" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>24</v>
+      </c>
+      <c r="R125" t="s">
+        <v>480</v>
+      </c>
+      <c r="S125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>43801</v>
       </c>
@@ -11432,8 +12790,35 @@
       <c r="H126" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="K126" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L126" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M126" t="s">
+        <v>258</v>
+      </c>
+      <c r="N126" t="s">
+        <v>492</v>
+      </c>
+      <c r="O126">
+        <v>6.6</v>
+      </c>
+      <c r="P126" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>24</v>
+      </c>
+      <c r="R126" t="s">
+        <v>480</v>
+      </c>
+      <c r="S126" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>43805</v>
       </c>
@@ -11458,126 +12843,252 @@
       <c r="H127" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="K127" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L127" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M127" t="s">
+        <v>83</v>
+      </c>
+      <c r="N127" t="s">
+        <v>493</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>24</v>
+      </c>
+      <c r="R127" t="s">
+        <v>480</v>
+      </c>
+      <c r="S127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
-        <v>43817</v>
+        <v>43815</v>
       </c>
       <c r="B128" s="2">
-        <v>0.38055555555555554</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="C128" t="s">
         <v>274</v>
       </c>
       <c r="D128" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="E128">
-        <v>69.8</v>
+        <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>374</v>
+        <v>23</v>
       </c>
       <c r="G128" t="s">
+        <v>394</v>
+      </c>
+      <c r="H128" t="s">
+        <v>392</v>
+      </c>
+      <c r="I128" t="s">
+        <v>393</v>
+      </c>
+      <c r="K128" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L128" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M128" t="s">
+        <v>258</v>
+      </c>
+      <c r="N128" t="s">
+        <v>495</v>
+      </c>
+      <c r="O128">
+        <v>16</v>
+      </c>
+      <c r="P128" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>24</v>
+      </c>
+      <c r="R128" t="s">
+        <v>480</v>
+      </c>
+      <c r="S128" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" t="s">
+        <v>389</v>
+      </c>
+      <c r="E129">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="F129" t="s">
+        <v>390</v>
+      </c>
+      <c r="G129" t="s">
         <v>303</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H129" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1">
-        <v>43817</v>
-      </c>
-      <c r="B129" s="2">
-        <v>0.36180555555555555</v>
-      </c>
-      <c r="C129" t="s">
-        <v>0</v>
-      </c>
-      <c r="D129" t="s">
-        <v>321</v>
-      </c>
-      <c r="E129">
-        <v>3</v>
-      </c>
-      <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="K129" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L129" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M129" t="s">
+        <v>83</v>
+      </c>
+      <c r="N129" t="s">
+        <v>496</v>
+      </c>
+      <c r="O129">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P129" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q129" t="s">
         <v>24</v>
       </c>
-      <c r="H129" t="s">
-        <v>25</v>
-      </c>
-      <c r="I129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="R129" t="s">
+        <v>480</v>
+      </c>
+      <c r="S129" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="1">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="B130" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="C130" t="s">
-        <v>0</v>
-      </c>
-      <c r="D130" t="s">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
+        <v>303</v>
+      </c>
+      <c r="H130" t="s">
+        <v>22</v>
+      </c>
+      <c r="K130" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L130" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M130" t="s">
+        <v>258</v>
+      </c>
+      <c r="N130" t="s">
+        <v>497</v>
+      </c>
+      <c r="O130">
+        <v>7.8</v>
+      </c>
+      <c r="P130" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q130" t="s">
         <v>24</v>
       </c>
-      <c r="H130" t="s">
-        <v>25</v>
-      </c>
-      <c r="I130" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="R130" t="s">
+        <v>480</v>
+      </c>
+      <c r="S130" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="1">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="B131" s="2">
-        <v>0.35625000000000001</v>
+        <v>0.78541666666666676</v>
       </c>
       <c r="C131" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D131" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>29.5</v>
       </c>
       <c r="F131" t="s">
         <v>23</v>
       </c>
       <c r="G131" t="s">
+        <v>303</v>
+      </c>
+      <c r="H131" t="s">
+        <v>283</v>
+      </c>
+      <c r="K131" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L131" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M131" t="s">
+        <v>83</v>
+      </c>
+      <c r="N131" t="s">
+        <v>498</v>
+      </c>
+      <c r="O131">
+        <v>17.5</v>
+      </c>
+      <c r="P131" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q131" t="s">
         <v>24</v>
       </c>
-      <c r="H131" t="s">
-        <v>25</v>
-      </c>
-      <c r="I131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="R131" t="s">
+        <v>480</v>
+      </c>
+      <c r="S131" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="1">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="B132" s="2">
-        <v>0.62847222222222221</v>
+        <v>0.95208333333333339</v>
       </c>
       <c r="C132" t="s">
         <v>53</v>
@@ -11586,10 +13097,10 @@
         <v>270</v>
       </c>
       <c r="E132">
-        <v>6.72</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="G132" t="s">
         <v>24</v>
@@ -11598,183 +13109,334 @@
         <v>56</v>
       </c>
       <c r="I132" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>331</v>
+      </c>
+      <c r="K132" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L132" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M132" t="s">
+        <v>258</v>
+      </c>
+      <c r="N132" t="s">
+        <v>500</v>
+      </c>
+      <c r="O132">
+        <v>10.9</v>
+      </c>
+      <c r="P132" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>24</v>
+      </c>
+      <c r="R132" t="s">
+        <v>480</v>
+      </c>
+      <c r="S132" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="1">
         <v>43816</v>
       </c>
       <c r="B133" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>321</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" t="s">
+        <v>25</v>
+      </c>
+      <c r="I133" t="s">
+        <v>176</v>
+      </c>
+      <c r="K133" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L133" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M133" t="s">
+        <v>83</v>
+      </c>
+      <c r="N133" t="s">
+        <v>502</v>
+      </c>
+      <c r="O133">
+        <v>4.8</v>
+      </c>
+      <c r="P133" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>24</v>
+      </c>
+      <c r="R133" t="s">
+        <v>480</v>
+      </c>
+      <c r="S133" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B134" s="2">
         <v>0.36527777777777781</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>274</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>376</v>
       </c>
-      <c r="E133">
+      <c r="E134">
         <v>200.9</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F134" t="s">
         <v>377</v>
-      </c>
-      <c r="G133" t="s">
-        <v>303</v>
-      </c>
-      <c r="H133" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1">
-        <v>43815</v>
-      </c>
-      <c r="B134" s="2">
-        <v>0.78541666666666676</v>
-      </c>
-      <c r="C134" t="s">
-        <v>83</v>
-      </c>
-      <c r="D134" t="s">
-        <v>378</v>
-      </c>
-      <c r="E134">
-        <v>29.5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>23</v>
       </c>
       <c r="G134" t="s">
         <v>303</v>
       </c>
       <c r="H134" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="K134" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L134" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M134" t="s">
+        <v>258</v>
+      </c>
+      <c r="N134" t="s">
+        <v>503</v>
+      </c>
+      <c r="O134">
+        <v>6.8</v>
+      </c>
+      <c r="P134" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>24</v>
+      </c>
+      <c r="R134" t="s">
+        <v>480</v>
+      </c>
+      <c r="S134" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="1">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="B135" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="D135" t="s">
+        <v>270</v>
       </c>
       <c r="E135">
-        <v>27</v>
+        <v>6.72</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G135" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="H135" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="I135" t="s">
+        <v>375</v>
+      </c>
+      <c r="K135" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L135" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M135" t="s">
+        <v>258</v>
+      </c>
+      <c r="N135" t="s">
+        <v>504</v>
+      </c>
+      <c r="O135">
+        <v>9.9</v>
+      </c>
+      <c r="P135" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>14</v>
+      </c>
+      <c r="R135" t="s">
+        <v>480</v>
+      </c>
+      <c r="S135" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="1">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="B136" s="2">
-        <v>0.95208333333333339</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="E136">
-        <v>9.1199999999999992</v>
+        <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="G136" t="s">
         <v>24</v>
       </c>
       <c r="H136" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="K136" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L136" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M136" t="s">
+        <v>83</v>
+      </c>
+      <c r="N136" t="s">
+        <v>506</v>
+      </c>
+      <c r="O136">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P136" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>14</v>
+      </c>
+      <c r="R136" t="s">
+        <v>480</v>
+      </c>
+      <c r="S136" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="1">
-        <v>43815</v>
+        <v>43817</v>
       </c>
       <c r="B137" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="C137" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="E137">
-        <v>68.900000000000006</v>
+        <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>390</v>
+        <v>23</v>
       </c>
       <c r="G137" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="I137" t="s">
+        <v>176</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L137" s="2"/>
+      <c r="O137" s="13">
+        <v>218.52000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="1">
-        <v>43815</v>
+        <v>43817</v>
       </c>
       <c r="B138" s="2">
-        <v>0.35833333333333334</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C138" t="s">
         <v>274</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>69.8</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
+        <v>374</v>
       </c>
       <c r="G138" t="s">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="H138" t="s">
-        <v>392</v>
-      </c>
-      <c r="I138" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="1">
-        <v>43820</v>
+        <v>43819</v>
       </c>
       <c r="B139" s="2">
-        <v>0.56805555555555554</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E139">
-        <v>188.29</v>
+        <v>428</v>
       </c>
       <c r="F139" t="s">
         <v>23</v>
@@ -11783,53 +13445,53 @@
         <v>303</v>
       </c>
       <c r="H139" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="I139" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="1">
-        <v>43820</v>
+        <v>43819</v>
       </c>
       <c r="B140" s="2">
-        <v>0.52847222222222223</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>398</v>
+        <v>48</v>
       </c>
       <c r="E140">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G140" t="s">
         <v>303</v>
       </c>
       <c r="H140" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="1">
         <v>43820</v>
       </c>
       <c r="B141" s="2">
-        <v>0.52152777777777781</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E141">
-        <v>247.5</v>
+        <v>428</v>
       </c>
       <c r="F141" t="s">
         <v>23</v>
@@ -11841,24 +13503,24 @@
         <v>401</v>
       </c>
       <c r="I141" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="1">
         <v>43820</v>
       </c>
       <c r="B142" s="2">
-        <v>0.46180555555555558</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E142">
-        <v>428</v>
+        <v>247.5</v>
       </c>
       <c r="F142" t="s">
         <v>23</v>
@@ -11870,50 +13532,50 @@
         <v>401</v>
       </c>
       <c r="I142" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="1">
-        <v>43819</v>
+        <v>43820</v>
       </c>
       <c r="B143" s="2">
-        <v>0.77777777777777779</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>48</v>
+        <v>398</v>
       </c>
       <c r="E143">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G143" t="s">
         <v>303</v>
       </c>
       <c r="H143" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="1">
-        <v>43819</v>
+        <v>43820</v>
       </c>
       <c r="B144" s="2">
-        <v>0.39999999999999997</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E144">
-        <v>428</v>
+        <v>188.29</v>
       </c>
       <c r="F144" t="s">
         <v>23</v>
@@ -11922,10 +13584,10 @@
         <v>303</v>
       </c>
       <c r="H144" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I144" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -11991,16 +13653,16 @@
         <v>43822</v>
       </c>
       <c r="B147" s="2">
-        <v>0.40763888888888888</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E147">
-        <v>19.97</v>
+        <v>428</v>
       </c>
       <c r="F147" t="s">
         <v>23</v>
@@ -12009,7 +13671,10 @@
         <v>303</v>
       </c>
       <c r="H147" t="s">
-        <v>276</v>
+        <v>401</v>
+      </c>
+      <c r="I147" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -12017,16 +13682,16 @@
         <v>43822</v>
       </c>
       <c r="B148" s="2">
-        <v>0.39930555555555558</v>
+        <v>0.40763888888888888</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E148">
-        <v>428</v>
+        <v>19.97</v>
       </c>
       <c r="F148" t="s">
         <v>23</v>
@@ -12035,10 +13700,7 @@
         <v>303</v>
       </c>
       <c r="H148" t="s">
-        <v>401</v>
-      </c>
-      <c r="I148" t="s">
-        <v>408</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -12212,28 +13874,31 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="1">
-        <v>43832</v>
+        <v>43827</v>
       </c>
       <c r="B155" s="2">
-        <v>0.375</v>
+        <v>0.15208333333333299</v>
       </c>
       <c r="C155" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="D155" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="E155">
-        <v>1.5</v>
+        <v>516</v>
       </c>
       <c r="F155" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G155" t="s">
-        <v>303</v>
+        <v>478</v>
       </c>
       <c r="H155" t="s">
-        <v>429</v>
+        <v>450</v>
+      </c>
+      <c r="I155" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -12247,13 +13912,13 @@
         <v>427</v>
       </c>
       <c r="D156" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F156" t="s">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="G156" t="s">
         <v>303</v>
@@ -12273,13 +13938,13 @@
         <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F157" t="s">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="G157" t="s">
         <v>303</v>
@@ -12290,28 +13955,28 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="1">
-        <v>43834</v>
+        <v>43832</v>
       </c>
       <c r="B158" s="2">
-        <v>0.37986111111111115</v>
+        <v>0.375</v>
       </c>
       <c r="C158" t="s">
-        <v>26</v>
+        <v>427</v>
       </c>
       <c r="D158" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="E158">
-        <v>19.899999999999999</v>
+        <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G158" t="s">
         <v>303</v>
       </c>
       <c r="H158" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -12371,54 +14036,54 @@
         <v>43834</v>
       </c>
       <c r="B161" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="C161" t="s">
-        <v>433</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="E161">
-        <v>149</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F161" t="s">
-        <v>435</v>
+        <v>23</v>
       </c>
       <c r="G161" t="s">
         <v>303</v>
       </c>
       <c r="H161" t="s">
-        <v>436</v>
-      </c>
-      <c r="I161" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>43836</v>
+        <v>43834</v>
       </c>
       <c r="B162" s="2">
-        <v>0.52986111111111112</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>433</v>
       </c>
       <c r="D162" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E162">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F162" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G162" t="s">
         <v>303</v>
       </c>
       <c r="H162" t="s">
-        <v>440</v>
+        <v>436</v>
+      </c>
+      <c r="I162" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -12432,7 +14097,7 @@
         <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E163">
         <v>12</v>
@@ -12449,28 +14114,28 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>43837</v>
+        <v>43836</v>
       </c>
       <c r="B164" s="2">
-        <v>0.37847222222222227</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="C164" t="s">
-        <v>442</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E164">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
+        <v>439</v>
       </c>
       <c r="G164" t="s">
         <v>303</v>
       </c>
       <c r="H164" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -12484,13 +14149,13 @@
         <v>442</v>
       </c>
       <c r="D165" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E165">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F165" t="s">
-        <v>445</v>
+        <v>23</v>
       </c>
       <c r="G165" t="s">
         <v>303</v>
@@ -12500,11 +14165,109 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
+      <c r="A166" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C166" t="s">
+        <v>442</v>
+      </c>
+      <c r="D166" t="s">
+        <v>446</v>
+      </c>
+      <c r="E166">
+        <v>30</v>
+      </c>
+      <c r="F166" t="s">
+        <v>445</v>
+      </c>
+      <c r="G166" t="s">
+        <v>303</v>
+      </c>
+      <c r="H166" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="C167" t="s">
+        <v>83</v>
+      </c>
+      <c r="D167" t="s">
+        <v>531</v>
+      </c>
+      <c r="E167">
+        <v>218.52000000000004</v>
+      </c>
+      <c r="F167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s">
+        <v>24</v>
+      </c>
+      <c r="H167" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="K95:S95"/>
+    <mergeCell ref="K114:S114"/>
     <mergeCell ref="K70:S70"/>
     <mergeCell ref="K52:U52"/>
     <mergeCell ref="K77:S77"/>
@@ -12558,7 +14321,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="9">
+  <tableParts count="11">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -12568,6 +14331,8 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12576,7 +14341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2B069-B7D1-B241-94FB-BD2BABA4F21B}">
   <dimension ref="A1:AV29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
@@ -16019,163 +17784,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!G2:G179,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!G2:G179,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A2,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16188,163 +17953,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!G2:G179,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!G2:G179,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A3,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16357,163 +18122,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>16</v>
       </c>
       <c r="O4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!G2:G179,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!G2:G179,template!AB1)</f>
         <v>16</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP4">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A4,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16526,163 +18291,163 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D5" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>34</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>3</v>
       </c>
       <c r="R5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>32</v>
       </c>
       <c r="W5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!G2:G179,template!AA1)</f>
         <v>66</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!G2:G179,template!AB1)</f>
         <v>3</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AE1)</f>
         <v>32</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AF1)</f>
         <v>34</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AJ1)</f>
         <v>3</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A5,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A5,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16695,163 +18460,163 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D6" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>17</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!G2:G179,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!G2:G179,template!AB1)</f>
         <v>17</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AF1)</f>
         <v>17</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP6">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A6,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A6,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -16864,163 +18629,163 @@
         <v>146.69999999999999</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D7" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>16</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>32</v>
       </c>
       <c r="V7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>98.7</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!G2:G179,template!AA1)</f>
         <v>37</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!G2:G179,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AK1)</f>
         <v>11</v>
       </c>
       <c r="AL7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AL1)</f>
         <v>21</v>
       </c>
       <c r="AM7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AN1)</f>
         <v>98.7</v>
       </c>
       <c r="AO7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP7">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A7,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A7,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17033,163 +18798,163 @@
         <v>2017.98</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D8" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>2000</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>17.98</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!G2:G179,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!G2:G179,template!AB1)</f>
         <v>2000</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AF1)</f>
         <v>17.98</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP8">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A8,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A8,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17202,163 +18967,163 @@
         <v>1532.5</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>20</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>10.5</v>
       </c>
       <c r="R9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>1500</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!G2:G179,template!AA1)</f>
         <v>1502</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!G2:G179,template!AB1)</f>
         <v>30.5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AE1)</f>
         <v>2</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AF1)</f>
         <v>20</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AH1)</f>
         <v>1500</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AJ1)</f>
         <v>10.5</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP9">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A9,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A9,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17371,163 +19136,163 @@
         <v>109</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>18</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>15</v>
       </c>
       <c r="N10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>30</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>30</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>6</v>
       </c>
       <c r="S10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>10</v>
       </c>
       <c r="U10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!G2:G179,template!AA1)</f>
         <v>94</v>
       </c>
       <c r="AB10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!G2:G179,template!AB1)</f>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!G2:G179,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AE1)</f>
         <v>33</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AF1)</f>
         <v>30</v>
       </c>
       <c r="AG10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AJ1)</f>
         <v>6</v>
       </c>
       <c r="AK10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AO1)</f>
         <v>10</v>
       </c>
       <c r="AP10">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A10,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A10,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17540,163 +19305,163 @@
         <v>115</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D11" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>18</v>
       </c>
       <c r="O11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>51</v>
       </c>
       <c r="R11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>15</v>
       </c>
       <c r="S11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>31</v>
       </c>
       <c r="U11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!G2:G179,template!AA1)</f>
         <v>49</v>
       </c>
       <c r="AB11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!G2:G179,template!AB1)</f>
         <v>51</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!G2:G179,template!AC1)</f>
         <v>15</v>
       </c>
       <c r="AD11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AE1)</f>
         <v>64</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AF1)</f>
         <v>51</v>
       </c>
       <c r="AG11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP11">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A11,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A11,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -17709,163 +19474,163 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!C1,records!B2:B166, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D12" s="14">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!D1,records!B2:B166, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!E1,records!B2:B166, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!F1,records!B2:B166, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!G1,records!B2:B166, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!H1,records!B2:B166, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!I1,records!B2:B166, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!J1,records!B2:B166, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!K1,records!B2:B166, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!L1,records!B2:B166, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!M1,records!B2:B166, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!N1,records!B2:B166, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!O1,records!B2:B166, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!P1,records!B2:B166, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!Q1,records!B2:B166, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!R1,records!B2:B166, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!S1,records!B2:B166, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
         <v>88</v>
       </c>
       <c r="T12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!T1,records!B2:B166, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!U1,records!B2:B166, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
         <v>12</v>
       </c>
       <c r="V12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!V1,records!B2:B166, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!W1,records!B2:B166, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!X1,records!B2:B166, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!Y1,records!B2:B166, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12, records!B2:B166, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!G2:G166,template!AA1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!G2:G179,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!G2:G166,template!AB1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!G2:G179,template!AB1)</f>
         <v>100</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!G2:G166,template!AC1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!G2:G179,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!G2:G166,template!AD1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!G2:G179,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AE1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AF1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AF1)</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AG1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AH1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AH1)</f>
         <v>88</v>
       </c>
       <c r="AI12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AI1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AK1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AL1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AL1)</f>
         <v>12</v>
       </c>
       <c r="AM12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AM1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AN1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AO1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>SUMIFS(records!E2:E166,records!A2:A166,template!A12,records!C2:C166,template!AP1)</f>
+        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A12,records!C2:C179,template!AP1)</f>
         <v>0</v>
       </c>
     </row>

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6F666-31C8-234A-A5A0-3A27E4CED913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333967A3-D608-0345-833C-FBD4C16FC6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="549">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2055,6 +2055,68 @@
   </si>
   <si>
     <t>2020 年 2 月 9 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 2 月 10 号 一次超市购物</t>
+  </si>
+  <si>
+    <t>2020 年 2 月 10 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠宜泰生活超市</t>
+  </si>
+  <si>
+    <t>惠宜泰生活超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳草地F0091木棉棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约90支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散花（白花菜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思湘土鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25～35个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个，5.96元/kg，3.5根食指宽，1.3根食指长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.196kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.96元/kg，2个一半的，每个大概0.8个手掌那么大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.616kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2344,13 +2406,13 @@
     <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2360,7 +2422,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="155">
     <dxf>
       <font>
         <b val="0"/>
@@ -2834,6 +2896,294 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -5434,8 +5784,8 @@
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="153"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -5468,28 +5818,50 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K115:S137" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K115:S137" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="K115:S137" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
   <sortState ref="K116:S130">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K140:S145" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="K140:S145" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
+  <sortState ref="K141:S145">
+    <sortCondition ref="K3:K16"/>
+    <sortCondition ref="L3:L16"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -5524,7 +5896,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
@@ -5539,7 +5911,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -5562,7 +5934,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
@@ -5615,7 +5987,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
@@ -5668,7 +6040,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
@@ -5681,7 +6053,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
@@ -5734,7 +6106,31 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="152" dataDxfId="150" headerRowBorderDxfId="151" tableBorderDxfId="149">
+  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
+  <sortState ref="K3:U30">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="145"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="144"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="143"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="138"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -5787,31 +6183,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136">
-  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
-  <sortState ref="K3:U30">
-    <sortCondition ref="K3:K30"/>
-    <sortCondition ref="L3:L30"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="132"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="131"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="126"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="125"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
@@ -5947,152 +6319,152 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
   <sortState ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="117"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
   <autoFilter ref="K61:S68" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState ref="K62:S87">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
   <autoFilter ref="K71:S75" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState ref="K72:S94">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="K78:S84" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState ref="K79:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
   <autoFilter ref="K87:S93" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState ref="K88:S112">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6397,8 +6769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="L164" sqref="L164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6442,19 +6814,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -8231,17 +8603,17 @@
       <c r="I32" t="s">
         <v>143</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -8760,17 +9132,17 @@
       <c r="I43" t="s">
         <v>141</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -9187,19 +9559,19 @@
       <c r="I52" t="s">
         <v>214</v>
       </c>
-      <c r="K52" s="37" t="s">
+      <c r="K52" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1">
@@ -9630,17 +10002,17 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="36" t="s">
+      <c r="K60" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1">
@@ -10107,17 +10479,17 @@
       <c r="I70" t="s">
         <v>214</v>
       </c>
-      <c r="K70" s="36" t="s">
+      <c r="K70" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="1">
@@ -10422,17 +10794,17 @@
       <c r="H77" t="s">
         <v>283</v>
       </c>
-      <c r="K77" s="36" t="s">
+      <c r="K77" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1">
@@ -10840,17 +11212,17 @@
       <c r="H86" t="s">
         <v>22</v>
       </c>
-      <c r="K86" s="36" t="s">
+      <c r="K86" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="1">
@@ -11227,17 +11599,17 @@
       <c r="I95" t="s">
         <v>309</v>
       </c>
-      <c r="K95" s="38" t="s">
+      <c r="K95" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
-      <c r="S95" s="38"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="1">
@@ -12152,17 +12524,17 @@
       <c r="I114" t="s">
         <v>312</v>
       </c>
-      <c r="K114" s="36" t="s">
+      <c r="K114" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="L114" s="36"/>
-      <c r="M114" s="36"/>
-      <c r="N114" s="36"/>
-      <c r="O114" s="36"/>
-      <c r="P114" s="36"/>
-      <c r="Q114" s="36"/>
-      <c r="R114" s="36"/>
-      <c r="S114" s="36"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="37"/>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="1">
@@ -13450,6 +13822,17 @@
       <c r="I139" t="s">
         <v>404</v>
       </c>
+      <c r="K139" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="L139" s="37"/>
+      <c r="M139" s="37"/>
+      <c r="N139" s="37"/>
+      <c r="O139" s="37"/>
+      <c r="P139" s="37"/>
+      <c r="Q139" s="37"/>
+      <c r="R139" s="37"/>
+      <c r="S139" s="37"/>
     </row>
     <row r="140" spans="1:19">
       <c r="A140" s="1">
@@ -13476,6 +13859,33 @@
       <c r="H140" t="s">
         <v>47</v>
       </c>
+      <c r="K140" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P140" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S140" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" spans="1:19">
       <c r="A141" s="1">
@@ -13505,6 +13915,33 @@
       <c r="I141" t="s">
         <v>405</v>
       </c>
+      <c r="K141" s="1">
+        <v>43871</v>
+      </c>
+      <c r="L141" s="2">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="M141" t="s">
+        <v>258</v>
+      </c>
+      <c r="N141" t="s">
+        <v>537</v>
+      </c>
+      <c r="O141">
+        <v>1.8</v>
+      </c>
+      <c r="P141" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>13</v>
+      </c>
+      <c r="R141" t="s">
+        <v>536</v>
+      </c>
+      <c r="S141" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="142" spans="1:19">
       <c r="A142" s="1">
@@ -13534,6 +13971,33 @@
       <c r="I142" t="s">
         <v>406</v>
       </c>
+      <c r="K142" s="1">
+        <v>43871</v>
+      </c>
+      <c r="L142" s="2">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="M142" t="s">
+        <v>258</v>
+      </c>
+      <c r="N142" t="s">
+        <v>540</v>
+      </c>
+      <c r="O142">
+        <v>7.1</v>
+      </c>
+      <c r="P142" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>13</v>
+      </c>
+      <c r="R142" t="s">
+        <v>536</v>
+      </c>
+      <c r="S142" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="143" spans="1:19">
       <c r="A143" s="1">
@@ -13560,6 +14024,33 @@
       <c r="H143" t="s">
         <v>22</v>
       </c>
+      <c r="K143" s="1">
+        <v>43871</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0.60902777777777795</v>
+      </c>
+      <c r="M143" t="s">
+        <v>258</v>
+      </c>
+      <c r="N143" t="s">
+        <v>541</v>
+      </c>
+      <c r="O143">
+        <v>3.7</v>
+      </c>
+      <c r="P143" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>13</v>
+      </c>
+      <c r="R143" t="s">
+        <v>536</v>
+      </c>
+      <c r="S143" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="144" spans="1:19">
       <c r="A144" s="1">
@@ -13589,8 +14080,35 @@
       <c r="I144" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="K144" s="1">
+        <v>43871</v>
+      </c>
+      <c r="L144" s="2">
+        <v>0.60902777777777795</v>
+      </c>
+      <c r="M144" t="s">
+        <v>258</v>
+      </c>
+      <c r="N144" t="s">
+        <v>542</v>
+      </c>
+      <c r="O144">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P144" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>13</v>
+      </c>
+      <c r="R144" t="s">
+        <v>536</v>
+      </c>
+      <c r="S144" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1">
         <v>43820</v>
       </c>
@@ -13618,8 +14136,15 @@
       <c r="I145" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="K145" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L145" s="2"/>
+      <c r="O145" s="13">
+        <v>46.300000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1">
         <v>43820</v>
       </c>
@@ -13648,7 +14173,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:15">
       <c r="A147" s="1">
         <v>43822</v>
       </c>
@@ -13677,7 +14202,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:15">
       <c r="A148" s="1">
         <v>43822</v>
       </c>
@@ -13703,7 +14228,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:15">
       <c r="A149" s="1">
         <v>43822</v>
       </c>
@@ -13732,7 +14257,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:15">
       <c r="A150" s="1">
         <v>43823</v>
       </c>
@@ -13761,7 +14286,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="20">
+    <row r="151" spans="1:15" ht="20">
       <c r="A151" s="1">
         <v>43825</v>
       </c>
@@ -13791,7 +14316,7 @@
       </c>
       <c r="K151" s="35"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:15">
       <c r="A152" s="1">
         <v>43825</v>
       </c>
@@ -13817,7 +14342,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:15">
       <c r="A153" s="1">
         <v>43825</v>
       </c>
@@ -13843,7 +14368,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:15">
       <c r="A154" s="1">
         <v>43826</v>
       </c>
@@ -13872,7 +14397,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:15">
       <c r="A155" s="1">
         <v>43827</v>
       </c>
@@ -13901,7 +14426,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:15">
       <c r="A156" s="1">
         <v>43832</v>
       </c>
@@ -13927,7 +14452,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:15">
       <c r="A157" s="1">
         <v>43832</v>
       </c>
@@ -13953,7 +14478,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:15">
       <c r="A158" s="1">
         <v>43832</v>
       </c>
@@ -13979,7 +14504,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:15">
       <c r="A159" s="1">
         <v>43834</v>
       </c>
@@ -14005,7 +14530,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:15">
       <c r="A160" s="1">
         <v>43834</v>
       </c>
@@ -14217,8 +14742,30 @@
       </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
+      <c r="A168" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.60902777777777795</v>
+      </c>
+      <c r="C168" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" t="s">
+        <v>533</v>
+      </c>
+      <c r="E168" s="4">
+        <v>46.300000000000004</v>
+      </c>
+      <c r="F168" t="s">
+        <v>23</v>
+      </c>
+      <c r="G168" t="s">
+        <v>33</v>
+      </c>
+      <c r="H168" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1"/>
@@ -14265,17 +14812,18 @@
       <c r="B179" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="K1:U1"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="K60:S60"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="K139:S139"/>
     <mergeCell ref="K95:S95"/>
     <mergeCell ref="K114:S114"/>
     <mergeCell ref="K70:S70"/>
     <mergeCell ref="K52:U52"/>
     <mergeCell ref="K77:S77"/>
     <mergeCell ref="K86:S86"/>
-    <mergeCell ref="K1:U1"/>
-    <mergeCell ref="K32:S32"/>
-    <mergeCell ref="K60:S60"/>
-    <mergeCell ref="K43:S43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="13">
@@ -14321,7 +14869,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="11">
+  <tableParts count="12">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -14333,6 +14881,7 @@
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14341,8 +14890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2B069-B7D1-B241-94FB-BD2BABA4F21B}">
   <dimension ref="A1:AV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14351,34 +14900,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
       <c r="AB1" s="39" t="s">
         <v>327</v>
       </c>
@@ -14387,22 +14936,22 @@
       <c r="AE1" s="39"/>
       <c r="AF1" s="39"/>
       <c r="AG1" s="39"/>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">

--- a/账本.xlsx
+++ b/账本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/filebackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333967A3-D608-0345-833C-FBD4C16FC6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98965812-21AA-4449-912B-AD7A83BED4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{A4B237F3-D40A-B348-9C86-2374278242E5}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="596">
   <si>
     <t>地铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1844,9 +1844,6 @@
     <t>支付宝-花呗</t>
   </si>
   <si>
-    <t>列1</t>
-  </si>
-  <si>
     <t>家乐福新洲店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2117,6 +2114,197 @@
   </si>
   <si>
     <t>0.616kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 2 月 3 号 一次超市购物</t>
+  </si>
+  <si>
+    <t>2020 年 2 月 3 号 一次超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋葱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大葱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健力宝（橙蜜味）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金瓜（南瓜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5个手掌那么大一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3个手掌那么大一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汕牛肉丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科迪水饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8元/袋，500g/袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利口福核桃包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>337.5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合口味牛奶馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1袋，大概20～30个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三全甜品汤圆组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡面排挡香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡面拍档香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.87kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个，单价：7.96元/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.456kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2根，单价：11.96元/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.158kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两根手指宽一把，单价：7.96元/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特价蔬菜（白菜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.81kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个，单价：3.96元/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1瓣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平切，半根手指宽的一瓣，放了一两天后吃的时候坏了，下次还是别买了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：27.6元/kg，一盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.194kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1盒，单价：97.6元/kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价：69.6元/kg，1盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40g*10根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30g*8根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2406,10 +2594,10 @@
     <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2422,7 +2610,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="155">
+  <dxfs count="168">
     <dxf>
       <font>
         <b val="0"/>
@@ -2896,6 +3084,294 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="5" tint="-0.249977111117893"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -5777,15 +6253,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I179" totalsRowShown="0">
-  <autoFilter ref="A1:I179" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
-  <sortState ref="A2:I179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEFEF66-0DFC-B343-AE55-FC43085C5197}" name="表1" displayName="表1" ref="A1:I203" totalsRowShown="0">
+  <autoFilter ref="A1:I203" xr:uid="{5BBC9419-B13B-B148-8ACF-0DE90D8ED5A0}"/>
+  <sortState ref="A2:I203">
     <sortCondition ref="A2:A22"/>
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="153"/>
+    <tableColumn id="1" xr3:uid="{72722D89-93C2-8A41-9B20-0A4F424C6AC1}" name="日期" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{E3DDD260-AD94-3B4D-A5E3-388891DDD893}" name="时间" dataDxfId="166"/>
     <tableColumn id="3" xr3:uid="{DCBF4A5F-9919-504B-8B8E-109C04FA8E2B}" name="类别"/>
     <tableColumn id="4" xr3:uid="{A8A4CCEB-557C-D346-B945-54BF13A8C825}" name="名称"/>
     <tableColumn id="5" xr3:uid="{DF4347C8-27B6-5643-97AF-17AC7096A509}" name="金额(¥)"/>
@@ -5799,9 +6275,9 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{56FD8E46-8A76-0B44-B564-92ED8B2D7696}" name="表21" displayName="表21" ref="K96:T112" totalsRowShown="0">
-  <autoFilter ref="K96:T112" xr:uid="{320DA192-901E-CA4C-AABF-40185994002C}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{56FD8E46-8A76-0B44-B564-92ED8B2D7696}" name="表21" displayName="表21" ref="K96:S112" totalsRowShown="0">
+  <autoFilter ref="K96:S112" xr:uid="{320DA192-901E-CA4C-AABF-40185994002C}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{69CE390D-322F-1549-9A87-DE7C192DC734}" name="日期"/>
     <tableColumn id="2" xr3:uid="{72F736D9-070E-B44F-BA6B-A9C210EF765C}" name="时间"/>
     <tableColumn id="3" xr3:uid="{2710D071-AB3C-3244-A489-F78C5F1E521F}" name="类别"/>
@@ -5811,57 +6287,78 @@
     <tableColumn id="7" xr3:uid="{1435ADA9-CE81-B943-8929-7851860A158E}" name="支付方式"/>
     <tableColumn id="8" xr3:uid="{3186C1B6-5C03-454C-9826-EE1D4AA7BD7E}" name="渠道"/>
     <tableColumn id="9" xr3:uid="{8405EB9C-21A3-684D-94E5-A2A171366AEF}" name="备注"/>
-    <tableColumn id="10" xr3:uid="{9DE8FF71-EAEA-4840-AAD4-707EFD234105}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K115:S137" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
-  <autoFilter ref="K115:S137" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
-  <sortState ref="K116:S130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AB454117-BA52-2544-9127-12465162C859}" name="表2_1213151620211823" displayName="表2_1213151620211823" ref="K139:S161" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
+  <autoFilter ref="K139:S161" xr:uid="{02D241E9-3DCF-8D40-BFFA-FFE3C0F5535D}"/>
+  <sortState ref="K140:S154">
     <sortCondition ref="K3:K27"/>
     <sortCondition ref="L3:L27"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{E0363E3F-8A48-934C-B29D-6F37B2A1F390}" name="日期" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{8EF78633-EF5B-D949-9349-9BA90D233A6B}" name="时间" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{0A291899-58E8-2546-9EB0-FB388ED22547}" name="类别" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{816B9FC9-9687-FC4B-BB06-0D42F1052B33}" name="名称" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{02884C40-934F-0D4A-BD96-621C5C5CA1BD}" name="金额($)" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{0ECCB125-B4E3-624F-8652-7FC0D1EFC1D8}" name="数量" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{18528009-3F29-5D42-9C0D-9AA95B859C4C}" name="支付方式" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{03F449A0-F068-C340-AEDC-BDBC5A0F46EB}" name="渠道" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{ADC9AE2A-A61B-414C-89E7-D98600793217}" name="备注" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K140:S145" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="K140:S145" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
-  <sortState ref="K141:S145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{87DA1393-6827-EA44-A084-237782089CCF}" name="表2_12131516202118231718" displayName="表2_12131516202118231718" ref="K164:S169" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+  <autoFilter ref="K164:S169" xr:uid="{91480F83-2419-784F-8386-55181DF5FEED}"/>
+  <sortState ref="K165:S169">
     <sortCondition ref="K3:K16"/>
     <sortCondition ref="L3:L16"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7C3343CA-D706-6144-8941-580B84CF394E}" name="日期" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F0847EE3-B118-BE48-8689-812598FEC9AB}" name="时间" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{DDD877B7-BAD5-4F47-9769-A90FCED37116}" name="类别" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{5733AB69-4847-A948-B567-029768E79D0F}" name="名称" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{77BDEA3A-FF25-D243-BE63-AC4C735EE37B}" name="金额($)" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{E8909EDA-F899-A749-B5A9-EF6D64858A24}" name="数量" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{FF1D4B60-B5F5-C841-A54B-3C394BED27E0}" name="支付方式" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{0C20E0FA-7029-A345-AE88-BCCB51C0FB8F}" name="渠道" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{5E0D300F-446D-D245-97F6-C4F1EDF51911}" name="备注" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D07645E1-FF51-BE44-A108-6E2E28DFE3B7}" name="表2_121315162021182317181725" displayName="表2_121315162021182317181725" ref="K115:S135" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="K115:S135" xr:uid="{7F3530B9-75AA-9F46-8D36-5829A96A835C}"/>
+  <sortState ref="K116:S120">
+    <sortCondition ref="K3:K16"/>
+    <sortCondition ref="L3:L16"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{8388B4F3-69C3-C044-806B-2EE342EDD1C1}" name="日期" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1A44F757-A145-5C4B-8846-784AA96D8FE5}" name="时间" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{03320F0B-381F-4E4D-8C75-FE6DCBE2496F}" name="类别" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{16347860-F209-A641-A3C4-CD2748326322}" name="名称" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{39758E3B-78A9-5A48-8DFC-3FF15887AE7E}" name="金额($)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FF6795EE-AE94-E44E-8DC0-CC26ACFADE61}" name="数量" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{DA94A68D-2BBE-C746-9AA4-32A4797B9173}" name="支付方式" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2C9A8B05-D71F-7944-9F61-0DA82B1DFBF3}" name="渠道" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{EEF78B6C-8D16-8549-9C0B-F12CD0D648B8}" name="备注" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8827FEC-29EB-A64F-A117-AB93F5AF704B}" name="表4" displayName="表4" ref="A2:Z29" totalsRowShown="0">
   <autoFilter ref="A2:Z29" xr:uid="{ADCC33E7-0DD1-FA45-9C41-7D7E3B5A50FC}"/>
   <tableColumns count="26">
@@ -5896,7 +6393,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{608D5E4E-7BC0-414D-A696-97B3CAE12BE2}" name="表7" displayName="表7" ref="AB2:AG16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="AB2:AG16" xr:uid="{D99BBCC0-26F8-584F-82AF-B9C9A1318EBC}"/>
   <tableColumns count="6">
@@ -5911,7 +6408,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{410100AD-10E0-4F44-9412-B97D896BE399}" name="表12_14" displayName="表12_14" ref="AI2:AV16" totalsRowShown="0">
   <autoFilter ref="AI2:AV16" xr:uid="{89D068C2-82CB-8047-9DFF-C45CD4BCF7C3}"/>
   <tableColumns count="14">
@@ -5934,7 +6431,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8A3C27-EB59-8440-9FAF-B3CF2592953D}" name="表8" displayName="表8" ref="A1:AR3" totalsRowShown="0">
   <autoFilter ref="A1:AR3" xr:uid="{0F1C729B-8ECB-2146-BFBD-8CF0DB869F75}"/>
   <tableColumns count="44">
@@ -5987,7 +6484,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{02022759-1D6A-1B48-A9EF-B4775205DB9B}" name="表10" displayName="表10" ref="A1:AR2" totalsRowShown="0">
   <autoFilter ref="A1:AR2" xr:uid="{2368815E-0083-7C4E-AFD6-5BD45387C155}"/>
   <tableColumns count="44">
@@ -6040,26 +6537,50 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5C76C99-5210-AA4E-88F9-DA6CB4EC7370}" name="表6" displayName="表6" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2" xr:uid="{6D1BEB71-2A6D-204C-90D6-33D32A457DF7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{708C10D3-3099-AB43-BF6B-AAC0E5724B2D}" name="年"/>
     <tableColumn id="2" xr3:uid="{5D7EEFFC-1B1B-C442-8DD0-96BF0D9145E1}" name="总计">
-      <calculatedColumnFormula>SUM(records!E2:E179)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(records!E2:E203)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="165" dataDxfId="163" headerRowBorderDxfId="164" tableBorderDxfId="162">
+  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
+  <sortState ref="K3:U30">
+    <sortCondition ref="K3:K30"/>
+    <sortCondition ref="L3:L30"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="158"/>
+    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="157"/>
+    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="155"/>
+    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="152"/>
+    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="151"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{90CCD7A2-463A-D647-96DA-22DFD0FBF9A0}" name="表3" displayName="表3" ref="A1:AP32" totalsRowShown="0">
   <autoFilter ref="A1:AP32" xr:uid="{506FB319-DAC5-C74F-9129-972A005A58DA}"/>
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{F034F842-B0D4-7C49-92AC-92126BFED303}" name="日期" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{E4A20DC4-BCAA-5A4C-8F92-7768890FB62A}" name="总计">
-      <calculatedColumnFormula>SUMIF(records!A2:A179, template!A2, records!E2:E179)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIF(records!A2:A203, template!A2, records!E2:E203)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{4634C45B-FA6E-3A4F-A29C-00438EE32653}" name="0:00"/>
     <tableColumn id="4" xr3:uid="{FAE9234B-318D-7D47-AF72-AE2A681B63D3}" name="1:00" dataDxfId="15"/>
@@ -6106,31 +6627,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA735AAC-C770-2E42-A456-00A4A31FA22B}" name="表2" displayName="表2" ref="K2:U30" totalsRowShown="0" headerRowDxfId="152" dataDxfId="150" headerRowBorderDxfId="151" tableBorderDxfId="149">
-  <autoFilter ref="K2:U30" xr:uid="{4793C34A-1C18-7E44-A39F-05257DC17272}"/>
-  <sortState ref="K3:U30">
-    <sortCondition ref="K3:K30"/>
-    <sortCondition ref="L3:L30"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A8855FFB-69E8-5346-85D7-D302A4361F0D}" name="日期" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{7F5C8AE4-748F-B249-94E5-C82E8B468666}" name="时间" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{2038DB5F-A483-5B45-BD40-2EE71479D120}" name="类别" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{866FA0C4-A8D9-954D-B79F-91827E135B06}" name="名称" dataDxfId="145"/>
-    <tableColumn id="10" xr3:uid="{BDBE979D-A86E-9A42-B694-AF71E0F9E33B}" name="金额($)" dataDxfId="144"/>
-    <tableColumn id="11" xr3:uid="{34065CA2-B34E-7E48-9114-CF6B6AC8F093}" name="金额(陈)" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{A5B56494-2462-CB4D-8877-6002352002FB}" name="金额(李)" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{040AF034-DFE5-1447-B9DF-4AE4E769137D}" name="数量" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{C33AE25B-0D3A-124A-889B-B96CBDD49041}" name="支付方式" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{FDC575F4-37F8-2B42-AA8E-F9581923CCAD}" name="渠道" dataDxfId="139"/>
-    <tableColumn id="9" xr3:uid="{EBDE8156-8EBE-DE42-AE3D-F526626C95E6}" name="备注" dataDxfId="138"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80315183-2A95-B14D-B6F6-AFEEA10909ED}" name="表5" displayName="表5" ref="A34:AR36" totalsRowShown="0">
   <autoFilter ref="A34:AR36" xr:uid="{36935680-17BE-F74F-88AB-1DDEC0F4D885}"/>
   <tableColumns count="44">
@@ -6183,7 +6680,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9E9531E0-077A-C14A-B48F-4B3304B57241}" name="表9" displayName="表9" ref="A40:AR41" totalsRowShown="0">
   <autoFilter ref="A40:AR41" xr:uid="{76002C9A-0A0E-6F40-A4AF-4AD85C0C63A4}"/>
   <tableColumns count="44">
@@ -6319,152 +6816,152 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{11A792C6-3B2B-EB45-B402-6B17FF6ECC12}" name="表2_12" displayName="表2_12" ref="K33:S41" totalsRowShown="0" headerRowDxfId="150" dataDxfId="148" headerRowBorderDxfId="149" tableBorderDxfId="147">
   <autoFilter ref="K33:S41" xr:uid="{BF5DEAC1-034C-6E4F-BFC7-2363B9047242}"/>
   <sortState ref="K34:S60">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="126"/>
-    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{9E6DCB6F-2192-F341-9E3F-1C4530C10FA8}" name="日期" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{E2BCBFCC-07FA-4144-B6A7-6BA37CAE0B0B}" name="时间" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{9E554D31-EFE4-EC43-967A-01E672C5B7F9}" name="类别" dataDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{7F292805-5DAB-FB40-9F28-0C7BCA16DAA0}" name="名称" dataDxfId="143"/>
+    <tableColumn id="10" xr3:uid="{2F81F807-05F7-C04A-BB0E-654041F5B9F6}" name="金额($)" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{6DBF3C40-8B26-0048-A1C9-BE6D68464C6F}" name="数量" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{A64FDE06-A678-4646-A55C-2026413CC908}" name="支付方式" dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{3352A65C-6558-D843-9D75-CEE8687567E5}" name="渠道" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{9E21A11A-E4AD-DA4D-B780-F28E44B87A61}" name="备注" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8E6CF227-0B2A-9943-95A9-E98C28AA3996}" name="表2_1213" displayName="表2_1213" ref="K44:S50" totalsRowShown="0" headerRowDxfId="137" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134">
   <autoFilter ref="K44:S50" xr:uid="{DBBD540D-9ACB-A74D-BB39-A853F97094BD}"/>
   <sortState ref="K45:S69">
     <sortCondition ref="K2:K29"/>
     <sortCondition ref="L2:L29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="117"/>
-    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{BD21C2E9-1BF4-1A48-903A-DCDEC887088A}" name="日期" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{B11C4ABC-6240-EF48-A31A-8BECF6AE51C3}" name="时间" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{67754CDC-1A19-9D49-B251-9EC86E09BE70}" name="类别" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{3F8C96A0-999F-A049-BCA0-6ED855C07086}" name="名称" dataDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{CF71653C-3CB6-274A-8499-A136549F1D07}" name="金额($)" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{99FBADE8-F414-3D4E-9F3B-BDE3571F4BA1}" name="数量" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{24CADA98-38C4-8143-AA5C-9D7AE4D2221D}" name="支付方式" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{1D3BEB19-BBEB-C845-87BF-7C23136790B9}" name="渠道" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{3855FCA6-738B-7D49-9DEE-4106312F0DB2}" name="备注" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{85D5A6C9-0983-1F49-9E7D-1C7D322B37A0}" name="表2_121315" displayName="表2_121315" ref="K61:S68" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121">
   <autoFilter ref="K61:S68" xr:uid="{835B7ABE-F456-CF45-8A7D-5507E998E23E}"/>
   <sortState ref="K62:S87">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="104"/>
-    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{74D9CA40-4FE9-984A-A0EB-AA2378AD6CA6}" name="日期" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{399F4564-6842-1545-B8AF-E02DAC43416A}" name="时间" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{E8144FE3-3D58-0443-AF79-8BF552410036}" name="类别" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{8FBB1190-B9EE-0A40-B8AF-1F9469490287}" name="名称" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{0C6C1CDC-B4E4-8645-8C6D-D53E3E0CFEAC}" name="金额($)" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{D8196724-FF67-DD4A-A1BE-F88FB8237117}" name="数量" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{321E4B00-5C56-AF45-956D-93589BC551AF}" name="支付方式" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{8C94CA3B-1B09-C945-8241-D03F6F239F9F}" name="渠道" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{F056B581-94F6-6A4D-9231-DDC1C0437631}" name="备注" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5A08404A-170A-AF43-8E1D-DF9862393746}" name="表2_12131516" displayName="表2_12131516" ref="K71:S75" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108">
   <autoFilter ref="K71:S75" xr:uid="{94896363-E9F6-6743-B1C8-ACC0B149BEDF}"/>
   <sortState ref="K72:S94">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{834FC3A7-2586-5448-8952-7C3E0EC89688}" name="日期" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{7F1EF38F-268A-0F46-942E-72A9EF34A342}" name="时间" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{28FEEB6B-3150-6649-9028-BA0EE86B0496}" name="类别" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{347E68C4-C92A-4D49-BDAE-84DC38ED641B}" name="名称" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{17182FB7-D83A-1D4A-99C7-3B78D3BC590F}" name="金额($)" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{53E4A12C-B04D-EB4B-A0DE-59416C400198}" name="数量" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{393090AF-7A3C-C54A-825A-64E2B42A460E}" name="支付方式" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{549E8A07-2F1C-804C-B9F0-258E3F72FC60}" name="渠道" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{92665FCA-79D8-8145-8646-27E3066FA64C}" name="备注" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F8F4C9F9-ECF7-484B-BF22-500571CA134E}" name="表18" displayName="表18" ref="K53:U58" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <autoFilter ref="K53:U58" xr:uid="{D9ADCBF8-F752-BD45-92A5-FF212FE991D9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{A7BB4249-B024-D844-9DC5-DC40FE447B69}" name="日期" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{371CFA43-DD16-3D47-BFDB-319E8BB2562D}" name="时间" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{9E72B5C9-6F7B-EB40-B273-DC1E26E01184}" name="类别" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{05B51FE5-06F7-3B4A-9CE8-59C692D71DB6}" name="名称" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{971993D3-228B-BE4F-9FBE-3D1DDDBB8726}" name="金额($)" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{8E3188D8-5443-0141-87FC-8B6D4AFFEF54}" name="金额(陈)" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{648E2B1A-EBE3-8F4A-95A3-A09F24E0C9DA}" name="金额(李)" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{7D50B75C-424D-034A-9749-4961F0A2F2C9}" name="数量" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{85652E18-1A14-BD49-B7D7-2C7AA1447817}" name="支付方式" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{C770346D-F261-0347-B5FE-63CC5BAF59B4}" name="渠道" dataDxfId="84"/>
+    <tableColumn id="11" xr3:uid="{31FD91E5-37C9-BE46-9FA0-02CFBF3E45E1}" name="备注" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{606E3E97-D81D-AB41-BA99-E007537886BF}" name="表2_1213151620" displayName="表2_1213151620" ref="K78:S84" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
   <autoFilter ref="K78:S84" xr:uid="{2674F753-E0FA-1844-8EF2-AF7541B04290}"/>
   <sortState ref="K79:S103">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{15D7FFBF-4311-7F47-914F-8B84FE5F4082}" name="日期" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{27DD3D02-CE0C-FF46-B0B1-235BB58DA381}" name="时间" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{3F62F38A-6972-5A49-B690-81990D2CC035}" name="类别" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{EA1F0C6D-25C3-7342-8D38-1ADC56C101DF}" name="名称" dataDxfId="75"/>
+    <tableColumn id="10" xr3:uid="{90C5F47D-F18D-7942-A073-EAF9720C1C5F}" name="金额($)" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{23DA7484-2642-294C-B615-581AB57BD3A1}" name="数量" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{82AC8D78-CF26-9F4D-8211-2B13B307DFC3}" name="支付方式" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{91141D7B-3679-F747-9F5F-E409D72331DA}" name="渠道" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{529F0920-90E6-EB41-A2FB-D0928A57CD99}" name="备注" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{65F04204-4685-BD44-A9A9-528E74381FD5}" name="表2_121315162021" displayName="表2_121315162021" ref="K87:S93" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="K87:S93" xr:uid="{667113CE-E40C-644A-9375-DFFA158F767D}"/>
   <sortState ref="K88:S112">
     <sortCondition ref="K3:K30"/>
     <sortCondition ref="L3:L30"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{86FDBD0A-C64B-684E-88E4-97A9B8A90394}" name="日期" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{E706DFF2-17A8-074C-A9BC-624F5932127D}" name="时间" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{4178F89C-CD46-CA48-BE92-ECFE4C3DFE56}" name="类别" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{A549C014-3FFF-9F40-9F34-910684A4517C}" name="名称" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{C84AE528-810C-6C47-8DF2-AF970AF9A2D4}" name="金额($)" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{5270CAB9-ED19-D449-9926-0A2551F4C6AD}" name="数量" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{A50583DC-76A3-3246-BBE9-4A25FC54C124}" name="支付方式" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{F0F66474-976C-7E44-8C1D-71BF0D6187AB}" name="渠道" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{7CB81F3A-0F01-4E45-8F36-0A6F6C393579}" name="备注" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6767,10 +7264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81ADFD-2D83-574A-AD81-B8046C388F80}">
-  <dimension ref="A1:U179"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="L164" sqref="L164"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6814,19 +7311,19 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
@@ -8603,17 +9100,17 @@
       <c r="I32" t="s">
         <v>143</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
     </row>
@@ -9132,17 +9629,17 @@
       <c r="I43" t="s">
         <v>141</v>
       </c>
-      <c r="K43" s="37" t="s">
+      <c r="K43" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="1">
@@ -10002,17 +10499,17 @@
       <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="37" t="s">
+      <c r="K60" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="1">
@@ -10479,17 +10976,17 @@
       <c r="I70" t="s">
         <v>214</v>
       </c>
-      <c r="K70" s="37" t="s">
+      <c r="K70" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="1">
@@ -10794,17 +11291,17 @@
       <c r="H77" t="s">
         <v>283</v>
       </c>
-      <c r="K77" s="37" t="s">
+      <c r="K77" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1">
@@ -10968,7 +11465,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>43786</v>
       </c>
@@ -11018,7 +11515,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>43787</v>
       </c>
@@ -11071,7 +11568,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>43787</v>
       </c>
@@ -11121,7 +11618,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
         <v>43787</v>
       </c>
@@ -11158,7 +11655,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>43788</v>
       </c>
@@ -11187,7 +11684,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>43788</v>
       </c>
@@ -11212,19 +11709,19 @@
       <c r="H86" t="s">
         <v>22</v>
       </c>
-      <c r="K86" s="37" t="s">
+      <c r="K86" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>43788</v>
       </c>
@@ -11280,7 +11777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>43789</v>
       </c>
@@ -11333,7 +11830,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>43789</v>
       </c>
@@ -11379,7 +11876,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>43789</v>
       </c>
@@ -11422,7 +11919,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>43790</v>
       </c>
@@ -11465,7 +11962,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>43790</v>
       </c>
@@ -11508,7 +12005,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
         <v>43790</v>
       </c>
@@ -11545,7 +12042,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>43791</v>
       </c>
@@ -11571,7 +12068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>43791</v>
       </c>
@@ -11599,19 +12096,19 @@
       <c r="I95" t="s">
         <v>309</v>
       </c>
-      <c r="K95" s="36" t="s">
+      <c r="K95" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>43791</v>
       </c>
@@ -11662,9 +12159,6 @@
       </c>
       <c r="S96" t="s">
         <v>477</v>
-      </c>
-      <c r="T96" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -12495,6 +12989,7 @@
       <c r="H113" t="s">
         <v>47</v>
       </c>
+      <c r="O113" s="13"/>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="1">
@@ -12524,17 +13019,17 @@
       <c r="I114" t="s">
         <v>312</v>
       </c>
-      <c r="K114" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="37"/>
-      <c r="O114" s="37"/>
-      <c r="P114" s="37"/>
-      <c r="Q114" s="37"/>
-      <c r="R114" s="37"/>
-      <c r="S114" s="37"/>
+      <c r="K114" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="36"/>
+      <c r="Q114" s="36"/>
+      <c r="R114" s="36"/>
+      <c r="S114" s="36"/>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="1">
@@ -12618,31 +13113,31 @@
         <v>338</v>
       </c>
       <c r="K116" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L116" s="2">
-        <v>0.58194444444444449</v>
+        <v>0.43888888888888888</v>
       </c>
       <c r="M116" t="s">
         <v>258</v>
       </c>
       <c r="N116" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="O116">
-        <v>36.22</v>
+        <v>6.9</v>
       </c>
       <c r="P116" t="s">
-        <v>482</v>
+        <v>574</v>
       </c>
       <c r="Q116" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R116" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S116" t="s">
-        <v>483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -12674,31 +13169,31 @@
         <v>313</v>
       </c>
       <c r="K117" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L117" s="2">
-        <v>0.58194444444444449</v>
+        <v>0.43888888888888888</v>
       </c>
       <c r="M117" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N117" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
       <c r="O117">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="P117" t="s">
-        <v>62</v>
+        <v>576</v>
       </c>
       <c r="Q117" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R117" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S117" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -12730,31 +13225,31 @@
         <v>313</v>
       </c>
       <c r="K118" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L118" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M118" t="s">
         <v>258</v>
       </c>
       <c r="N118" t="s">
-        <v>485</v>
+        <v>362</v>
       </c>
       <c r="O118">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="P118" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="Q118" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R118" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S118" t="s">
-        <v>290</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -12783,31 +13278,28 @@
         <v>22</v>
       </c>
       <c r="K119" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L119" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M119" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N119" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="O119">
-        <v>9.9</v>
+        <v>6.8</v>
       </c>
       <c r="P119" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="Q119" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R119" t="s">
-        <v>480</v>
-      </c>
-      <c r="S119" t="s">
-        <v>290</v>
+        <v>535</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -12839,31 +13331,28 @@
         <v>340</v>
       </c>
       <c r="K120" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L120" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M120" t="s">
         <v>258</v>
       </c>
       <c r="N120" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="O120">
-        <v>9.9</v>
+        <v>24.7</v>
       </c>
       <c r="P120" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
       <c r="Q120" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R120" t="s">
-        <v>480</v>
-      </c>
-      <c r="S120" t="s">
-        <v>290</v>
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -12895,31 +13384,31 @@
         <v>245</v>
       </c>
       <c r="K121" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L121" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M121" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N121" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="O121">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="P121" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="Q121" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R121" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S121" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -12951,31 +13440,31 @@
         <v>334</v>
       </c>
       <c r="K122" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L122" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M122" t="s">
         <v>258</v>
       </c>
       <c r="N122" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="O122">
-        <v>8.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P122" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="Q122" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R122" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S122" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -13004,31 +13493,31 @@
         <v>251</v>
       </c>
       <c r="K123" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L123" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M123" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N123" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="O123">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="P123" t="s">
-        <v>519</v>
+        <v>287</v>
       </c>
       <c r="Q123" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R123" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S123" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -13060,28 +13549,31 @@
         <v>245</v>
       </c>
       <c r="K124" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L124" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M124" t="s">
         <v>258</v>
       </c>
       <c r="N124" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="O124">
-        <v>8.5</v>
+        <v>4.7</v>
       </c>
       <c r="P124" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="Q124" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R124" t="s">
-        <v>480</v>
+        <v>535</v>
+      </c>
+      <c r="S124" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -13110,31 +13602,31 @@
         <v>22</v>
       </c>
       <c r="K125" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L125" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M125" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N125" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="O125">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="P125" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="Q125" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R125" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S125" t="s">
-        <v>233</v>
+        <v>586</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -13163,31 +13655,31 @@
         <v>283</v>
       </c>
       <c r="K126" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L126" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M126" t="s">
         <v>258</v>
       </c>
       <c r="N126" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="O126">
-        <v>6.6</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="P126" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="Q126" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R126" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S126" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -13216,31 +13708,31 @@
         <v>283</v>
       </c>
       <c r="K127" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L127" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M127" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N127" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>14.6</v>
       </c>
       <c r="P127" t="s">
-        <v>494</v>
+        <v>589</v>
       </c>
       <c r="Q127" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R127" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S127" t="s">
-        <v>290</v>
+        <v>590</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -13272,31 +13764,28 @@
         <v>393</v>
       </c>
       <c r="K128" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L128" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M128" t="s">
         <v>258</v>
       </c>
       <c r="N128" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="O128">
-        <v>16</v>
+        <v>5.8</v>
       </c>
       <c r="P128" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="Q128" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R128" t="s">
-        <v>480</v>
-      </c>
-      <c r="S128" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -13325,31 +13814,31 @@
         <v>276</v>
       </c>
       <c r="K129" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L129" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M129" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N129" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="O129">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="P129" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="Q129" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R129" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S129" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -13375,31 +13864,31 @@
         <v>22</v>
       </c>
       <c r="K130" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L130" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M130" t="s">
         <v>258</v>
       </c>
       <c r="N130" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="O130">
-        <v>7.8</v>
+        <v>14.8</v>
       </c>
       <c r="P130" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q130" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R130" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S130" t="s">
-        <v>439</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -13428,31 +13917,31 @@
         <v>283</v>
       </c>
       <c r="K131" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L131" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M131" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N131" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="O131">
-        <v>17.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="P131" t="s">
-        <v>499</v>
+        <v>374</v>
       </c>
       <c r="Q131" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R131" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S131" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -13484,28 +13973,28 @@
         <v>331</v>
       </c>
       <c r="K132" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L132" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M132" t="s">
         <v>258</v>
       </c>
       <c r="N132" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="O132">
-        <v>10.9</v>
+        <v>18.8</v>
       </c>
       <c r="P132" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="Q132" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R132" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S132" t="s">
         <v>290</v>
@@ -13540,31 +14029,31 @@
         <v>176</v>
       </c>
       <c r="K133" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L133" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M133" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="N133" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="O133">
-        <v>4.8</v>
+        <v>13.8</v>
       </c>
       <c r="P133" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="Q133" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R133" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="S133" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -13593,31 +14082,28 @@
         <v>276</v>
       </c>
       <c r="K134" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="L134" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888899</v>
       </c>
       <c r="M134" t="s">
         <v>258</v>
       </c>
       <c r="N134" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="O134">
-        <v>6.8</v>
+        <v>22.8</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>571</v>
       </c>
       <c r="Q134" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R134" t="s">
-        <v>480</v>
-      </c>
-      <c r="S134" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -13648,32 +14134,12 @@
       <c r="I135" t="s">
         <v>375</v>
       </c>
-      <c r="K135" s="1">
-        <v>43870</v>
-      </c>
-      <c r="L135" s="2">
-        <v>0.58194444444444404</v>
-      </c>
-      <c r="M135" t="s">
-        <v>258</v>
-      </c>
-      <c r="N135" t="s">
-        <v>504</v>
-      </c>
-      <c r="O135">
-        <v>9.9</v>
-      </c>
-      <c r="P135" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>14</v>
-      </c>
-      <c r="R135" t="s">
-        <v>480</v>
-      </c>
-      <c r="S135" t="s">
-        <v>505</v>
+      <c r="K135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L135" s="2"/>
+      <c r="O135" s="13">
+        <v>203.30000000000004</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -13704,33 +14170,7 @@
       <c r="I136" t="s">
         <v>176</v>
       </c>
-      <c r="K136" s="1">
-        <v>43870</v>
-      </c>
-      <c r="L136" s="2">
-        <v>0.58194444444444404</v>
-      </c>
-      <c r="M136" t="s">
-        <v>83</v>
-      </c>
-      <c r="N136" t="s">
-        <v>506</v>
-      </c>
-      <c r="O136">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P136" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>14</v>
-      </c>
-      <c r="R136" t="s">
-        <v>480</v>
-      </c>
-      <c r="S136" t="s">
-        <v>508</v>
-      </c>
+      <c r="O136" s="13"/>
     </row>
     <row r="137" spans="1:19">
       <c r="A137" s="1">
@@ -13760,13 +14200,6 @@
       <c r="I137" t="s">
         <v>176</v>
       </c>
-      <c r="K137" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L137" s="2"/>
-      <c r="O137" s="13">
-        <v>218.52000000000004</v>
-      </c>
     </row>
     <row r="138" spans="1:19">
       <c r="A138" s="1">
@@ -13793,6 +14226,17 @@
       <c r="H138" t="s">
         <v>276</v>
       </c>
+      <c r="K138" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="L138" s="36"/>
+      <c r="M138" s="36"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+      <c r="P138" s="36"/>
+      <c r="Q138" s="36"/>
+      <c r="R138" s="36"/>
+      <c r="S138" s="36"/>
     </row>
     <row r="139" spans="1:19">
       <c r="A139" s="1">
@@ -13822,17 +14266,33 @@
       <c r="I139" t="s">
         <v>404</v>
       </c>
-      <c r="K139" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="L139" s="37"/>
-      <c r="M139" s="37"/>
-      <c r="N139" s="37"/>
-      <c r="O139" s="37"/>
-      <c r="P139" s="37"/>
-      <c r="Q139" s="37"/>
-      <c r="R139" s="37"/>
-      <c r="S139" s="37"/>
+      <c r="K139" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O139" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q139" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R139" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S139" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="140" spans="1:19">
       <c r="A140" s="1">
@@ -13859,32 +14319,32 @@
       <c r="H140" t="s">
         <v>47</v>
       </c>
-      <c r="K140" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L140" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M140" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N140" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O140" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="P140" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q140" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R140" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S140" s="9" t="s">
-        <v>4</v>
+      <c r="K140" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L140" s="2">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="M140" t="s">
+        <v>258</v>
+      </c>
+      <c r="N140" t="s">
+        <v>480</v>
+      </c>
+      <c r="O140">
+        <v>36.22</v>
+      </c>
+      <c r="P140" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>24</v>
+      </c>
+      <c r="R140" t="s">
+        <v>479</v>
+      </c>
+      <c r="S140" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -13916,31 +14376,31 @@
         <v>405</v>
       </c>
       <c r="K141" s="1">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="L141" s="2">
-        <v>0.60902777777777783</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="M141" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="N141" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="O141">
-        <v>1.8</v>
+        <v>7.9</v>
       </c>
       <c r="P141" t="s">
-        <v>538</v>
+        <v>62</v>
       </c>
       <c r="Q141" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R141" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="S141" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -13972,31 +14432,31 @@
         <v>406</v>
       </c>
       <c r="K142" s="1">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="L142" s="2">
-        <v>0.60902777777777783</v>
+        <v>0.58194444444444404</v>
       </c>
       <c r="M142" t="s">
         <v>258</v>
       </c>
       <c r="N142" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
       <c r="O142">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="P142" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="Q142" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R142" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="S142" t="s">
-        <v>545</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -14025,31 +14485,31 @@
         <v>22</v>
       </c>
       <c r="K143" s="1">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="L143" s="2">
-        <v>0.60902777777777795</v>
+        <v>0.58194444444444404</v>
       </c>
       <c r="M143" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="N143" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="O143">
-        <v>3.7</v>
+        <v>9.9</v>
       </c>
       <c r="P143" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="Q143" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R143" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="S143" t="s">
-        <v>547</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -14081,34 +14541,34 @@
         <v>412</v>
       </c>
       <c r="K144" s="1">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="L144" s="2">
-        <v>0.60902777777777795</v>
+        <v>0.58194444444444404</v>
       </c>
       <c r="M144" t="s">
         <v>258</v>
       </c>
       <c r="N144" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="O144">
-        <v>33.700000000000003</v>
+        <v>9.9</v>
       </c>
       <c r="P144" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="Q144" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R144" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="S144" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="1">
         <v>43820</v>
       </c>
@@ -14136,15 +14596,35 @@
       <c r="I145" t="s">
         <v>411</v>
       </c>
-      <c r="K145" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L145" s="2"/>
-      <c r="O145" s="13">
-        <v>46.300000000000004</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="K145" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L145" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M145" t="s">
+        <v>83</v>
+      </c>
+      <c r="N145" t="s">
+        <v>485</v>
+      </c>
+      <c r="O145">
+        <v>10</v>
+      </c>
+      <c r="P145" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>24</v>
+      </c>
+      <c r="R145" t="s">
+        <v>479</v>
+      </c>
+      <c r="S145" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="1">
         <v>43820</v>
       </c>
@@ -14172,8 +14652,35 @@
       <c r="I146" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="K146" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L146" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M146" t="s">
+        <v>258</v>
+      </c>
+      <c r="N146" t="s">
+        <v>486</v>
+      </c>
+      <c r="O146">
+        <v>8.5</v>
+      </c>
+      <c r="P146" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>24</v>
+      </c>
+      <c r="R146" t="s">
+        <v>479</v>
+      </c>
+      <c r="S146" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="1">
         <v>43822</v>
       </c>
@@ -14201,8 +14708,35 @@
       <c r="I147" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="K147" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L147" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M147" t="s">
+        <v>83</v>
+      </c>
+      <c r="N147" t="s">
+        <v>487</v>
+      </c>
+      <c r="O147">
+        <v>16</v>
+      </c>
+      <c r="P147" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>24</v>
+      </c>
+      <c r="R147" t="s">
+        <v>479</v>
+      </c>
+      <c r="S147" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="1">
         <v>43822</v>
       </c>
@@ -14227,8 +14761,32 @@
       <c r="H148" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="K148" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L148" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M148" t="s">
+        <v>258</v>
+      </c>
+      <c r="N148" t="s">
+        <v>488</v>
+      </c>
+      <c r="O148">
+        <v>8.5</v>
+      </c>
+      <c r="P148" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>24</v>
+      </c>
+      <c r="R148" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="1">
         <v>43822</v>
       </c>
@@ -14256,8 +14814,35 @@
       <c r="I149" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="150" spans="1:15">
+      <c r="K149" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M149" t="s">
+        <v>83</v>
+      </c>
+      <c r="N149" t="s">
+        <v>489</v>
+      </c>
+      <c r="O149">
+        <v>10</v>
+      </c>
+      <c r="P149" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>24</v>
+      </c>
+      <c r="R149" t="s">
+        <v>479</v>
+      </c>
+      <c r="S149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="1">
         <v>43823</v>
       </c>
@@ -14285,8 +14870,35 @@
       <c r="I150" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" ht="20">
+      <c r="K150" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L150" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M150" t="s">
+        <v>258</v>
+      </c>
+      <c r="N150" t="s">
+        <v>491</v>
+      </c>
+      <c r="O150">
+        <v>6.6</v>
+      </c>
+      <c r="P150" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>24</v>
+      </c>
+      <c r="R150" t="s">
+        <v>479</v>
+      </c>
+      <c r="S150" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="1">
         <v>43825</v>
       </c>
@@ -14314,9 +14926,35 @@
       <c r="I151" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="K151" s="35"/>
-    </row>
-    <row r="152" spans="1:15">
+      <c r="K151" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L151" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M151" t="s">
+        <v>83</v>
+      </c>
+      <c r="N151" t="s">
+        <v>492</v>
+      </c>
+      <c r="O151">
+        <v>3.4</v>
+      </c>
+      <c r="P151" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>24</v>
+      </c>
+      <c r="R151" t="s">
+        <v>479</v>
+      </c>
+      <c r="S151" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="1">
         <v>43825</v>
       </c>
@@ -14341,8 +14979,35 @@
       <c r="H152" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="K152" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L152" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M152" t="s">
+        <v>258</v>
+      </c>
+      <c r="N152" t="s">
+        <v>494</v>
+      </c>
+      <c r="O152">
+        <v>16</v>
+      </c>
+      <c r="P152" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>24</v>
+      </c>
+      <c r="R152" t="s">
+        <v>479</v>
+      </c>
+      <c r="S152" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="1">
         <v>43825</v>
       </c>
@@ -14367,8 +15032,35 @@
       <c r="H153" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="154" spans="1:15">
+      <c r="K153" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L153" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M153" t="s">
+        <v>83</v>
+      </c>
+      <c r="N153" t="s">
+        <v>495</v>
+      </c>
+      <c r="O153">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P153" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>24</v>
+      </c>
+      <c r="R153" t="s">
+        <v>479</v>
+      </c>
+      <c r="S153" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="1">
         <v>43826</v>
       </c>
@@ -14396,8 +15088,35 @@
       <c r="I154" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="155" spans="1:15">
+      <c r="K154" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L154" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M154" t="s">
+        <v>258</v>
+      </c>
+      <c r="N154" t="s">
+        <v>496</v>
+      </c>
+      <c r="O154">
+        <v>7.8</v>
+      </c>
+      <c r="P154" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>24</v>
+      </c>
+      <c r="R154" t="s">
+        <v>479</v>
+      </c>
+      <c r="S154" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="1">
         <v>43827</v>
       </c>
@@ -14425,8 +15144,35 @@
       <c r="I155" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="K155" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L155" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M155" t="s">
+        <v>83</v>
+      </c>
+      <c r="N155" t="s">
+        <v>497</v>
+      </c>
+      <c r="O155">
+        <v>17.5</v>
+      </c>
+      <c r="P155" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>24</v>
+      </c>
+      <c r="R155" t="s">
+        <v>479</v>
+      </c>
+      <c r="S155" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="1">
         <v>43832</v>
       </c>
@@ -14451,8 +15197,35 @@
       <c r="H156" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="157" spans="1:15">
+      <c r="K156" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L156" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M156" t="s">
+        <v>258</v>
+      </c>
+      <c r="N156" t="s">
+        <v>499</v>
+      </c>
+      <c r="O156">
+        <v>10.9</v>
+      </c>
+      <c r="P156" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>24</v>
+      </c>
+      <c r="R156" t="s">
+        <v>479</v>
+      </c>
+      <c r="S156" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="1">
         <v>43832</v>
       </c>
@@ -14477,8 +15250,35 @@
       <c r="H157" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="158" spans="1:15">
+      <c r="K157" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L157" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M157" t="s">
+        <v>83</v>
+      </c>
+      <c r="N157" t="s">
+        <v>501</v>
+      </c>
+      <c r="O157">
+        <v>4.8</v>
+      </c>
+      <c r="P157" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>24</v>
+      </c>
+      <c r="R157" t="s">
+        <v>479</v>
+      </c>
+      <c r="S157" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="1">
         <v>43832</v>
       </c>
@@ -14503,8 +15303,35 @@
       <c r="H158" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="159" spans="1:15">
+      <c r="K158" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L158" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M158" t="s">
+        <v>258</v>
+      </c>
+      <c r="N158" t="s">
+        <v>502</v>
+      </c>
+      <c r="O158">
+        <v>6.8</v>
+      </c>
+      <c r="P158" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>24</v>
+      </c>
+      <c r="R158" t="s">
+        <v>479</v>
+      </c>
+      <c r="S158" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="1">
         <v>43834</v>
       </c>
@@ -14529,8 +15356,35 @@
       <c r="H159" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="160" spans="1:15">
+      <c r="K159" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L159" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M159" t="s">
+        <v>258</v>
+      </c>
+      <c r="N159" t="s">
+        <v>503</v>
+      </c>
+      <c r="O159">
+        <v>9.9</v>
+      </c>
+      <c r="P159" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>14</v>
+      </c>
+      <c r="R159" t="s">
+        <v>479</v>
+      </c>
+      <c r="S159" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="1">
         <v>43834</v>
       </c>
@@ -14555,8 +15409,35 @@
       <c r="H160" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="K160" s="1">
+        <v>43870</v>
+      </c>
+      <c r="L160" s="2">
+        <v>0.58194444444444404</v>
+      </c>
+      <c r="M160" t="s">
+        <v>83</v>
+      </c>
+      <c r="N160" t="s">
+        <v>505</v>
+      </c>
+      <c r="O160">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P160" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>14</v>
+      </c>
+      <c r="R160" t="s">
+        <v>479</v>
+      </c>
+      <c r="S160" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="1">
         <v>43834</v>
       </c>
@@ -14581,8 +15462,15 @@
       <c r="H161" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="K161" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L161" s="2"/>
+      <c r="O161" s="13">
+        <v>218.52000000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="1">
         <v>43834</v>
       </c>
@@ -14611,7 +15499,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:19">
       <c r="A163" s="1">
         <v>43836</v>
       </c>
@@ -14636,8 +15524,19 @@
       <c r="H163" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="K163" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="L163" s="36"/>
+      <c r="M163" s="36"/>
+      <c r="N163" s="36"/>
+      <c r="O163" s="36"/>
+      <c r="P163" s="36"/>
+      <c r="Q163" s="36"/>
+      <c r="R163" s="36"/>
+      <c r="S163" s="36"/>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="1">
         <v>43836</v>
       </c>
@@ -14662,8 +15561,35 @@
       <c r="H164" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="K164" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L164" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M164" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N164" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O164" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P164" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R164" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S164" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="1">
         <v>43837</v>
       </c>
@@ -14688,8 +15614,35 @@
       <c r="H165" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="K165" s="1">
+        <v>43871</v>
+      </c>
+      <c r="L165" s="2">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="M165" t="s">
+        <v>258</v>
+      </c>
+      <c r="N165" t="s">
+        <v>536</v>
+      </c>
+      <c r="O165">
+        <v>1.8</v>
+      </c>
+      <c r="P165" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>13</v>
+      </c>
+      <c r="R165" t="s">
+        <v>535</v>
+      </c>
+      <c r="S165" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="1">
         <v>43837</v>
       </c>
@@ -14714,88 +15667,199 @@
       <c r="H166" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="K166" s="1">
+        <v>43871</v>
+      </c>
+      <c r="L166" s="2">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="M166" t="s">
+        <v>258</v>
+      </c>
+      <c r="N166" t="s">
+        <v>539</v>
+      </c>
+      <c r="O166">
+        <v>7.1</v>
+      </c>
+      <c r="P166" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>13</v>
+      </c>
+      <c r="R166" t="s">
+        <v>535</v>
+      </c>
+      <c r="S166" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="1">
-        <v>43870</v>
+        <v>43864</v>
       </c>
       <c r="B167" s="2">
-        <v>0.58194444444444404</v>
+        <v>0.43888888888888888</v>
       </c>
       <c r="C167" t="s">
         <v>83</v>
       </c>
       <c r="D167" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="E167">
-        <v>218.52000000000004</v>
+        <v>203.30000000000004</v>
       </c>
       <c r="F167" t="s">
         <v>23</v>
       </c>
       <c r="G167" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H167" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>534</v>
+      </c>
+      <c r="K167" s="1">
+        <v>43871</v>
+      </c>
+      <c r="L167" s="2">
+        <v>0.60902777777777795</v>
+      </c>
+      <c r="M167" t="s">
+        <v>258</v>
+      </c>
+      <c r="N167" t="s">
+        <v>540</v>
+      </c>
+      <c r="O167">
+        <v>3.7</v>
+      </c>
+      <c r="P167" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>13</v>
+      </c>
+      <c r="R167" t="s">
+        <v>535</v>
+      </c>
+      <c r="S167" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="1">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="B168" s="2">
-        <v>0.60902777777777795</v>
+        <v>0.58194444444444404</v>
       </c>
       <c r="C168" t="s">
         <v>83</v>
       </c>
       <c r="D168" t="s">
-        <v>533</v>
-      </c>
-      <c r="E168" s="4">
-        <v>46.300000000000004</v>
+        <v>530</v>
+      </c>
+      <c r="E168">
+        <v>218.52000000000004</v>
       </c>
       <c r="F168" t="s">
         <v>23</v>
       </c>
       <c r="G168" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" t="s">
+        <v>479</v>
+      </c>
+      <c r="K168" s="1">
+        <v>43871</v>
+      </c>
+      <c r="L168" s="2">
+        <v>0.60902777777777795</v>
+      </c>
+      <c r="M168" t="s">
+        <v>258</v>
+      </c>
+      <c r="N168" t="s">
+        <v>541</v>
+      </c>
+      <c r="O168">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P168" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>13</v>
+      </c>
+      <c r="R168" t="s">
+        <v>535</v>
+      </c>
+      <c r="S168" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.60902777777777795</v>
+      </c>
+      <c r="C169" t="s">
+        <v>83</v>
+      </c>
+      <c r="D169" t="s">
+        <v>532</v>
+      </c>
+      <c r="E169" s="4">
+        <v>46.300000000000004</v>
+      </c>
+      <c r="F169" t="s">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s">
         <v>33</v>
       </c>
-      <c r="H168" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="H169" t="s">
+        <v>534</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L169" s="2"/>
+      <c r="O169" s="13">
+        <v>46.300000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:19">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:19">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:19">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:19">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:19" ht="20">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="K175" s="35"/>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
@@ -14811,19 +15875,116 @@
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="K1:U1"/>
     <mergeCell ref="K32:S32"/>
     <mergeCell ref="K60:S60"/>
     <mergeCell ref="K43:S43"/>
-    <mergeCell ref="K139:S139"/>
+    <mergeCell ref="K163:S163"/>
     <mergeCell ref="K95:S95"/>
-    <mergeCell ref="K114:S114"/>
+    <mergeCell ref="K138:S138"/>
     <mergeCell ref="K70:S70"/>
     <mergeCell ref="K52:U52"/>
     <mergeCell ref="K77:S77"/>
     <mergeCell ref="K86:S86"/>
+    <mergeCell ref="K114:S114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="13">
@@ -14869,7 +16030,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="12">
+  <tableParts count="13">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -14882,6 +16043,7 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14890,7 +16052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB2B069-B7D1-B241-94FB-BD2BABA4F21B}">
   <dimension ref="A1:AV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -14900,34 +16062,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
       <c r="AB1" s="39" t="s">
         <v>327</v>
       </c>
@@ -14936,22 +16098,22 @@
       <c r="AE1" s="39"/>
       <c r="AF1" s="39"/>
       <c r="AG1" s="39"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AI1" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
     </row>
     <row r="2" spans="1:48">
       <c r="A2" t="s">
@@ -18333,163 +19495,163 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!C1,records!B2:B203, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!D1,records!B2:B203, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!E1,records!B2:B203, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!F1,records!B2:B203, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!G1,records!B2:B203, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!H1,records!B2:B203, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!I1,records!B2:B203, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!J1,records!B2:B203, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!K1,records!B2:B203, "&lt;" &amp; template!L1)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!L1,records!B2:B203, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!M1,records!B2:B203, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!N1,records!B2:B203, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!O1,records!B2:B203, "&lt;" &amp; template!P1)</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!P1,records!B2:B203, "&lt;" &amp; template!Q1)</f>
         <v>24</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!Q1,records!B2:B203, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!R1,records!B2:B203, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!S1,records!B2:B203, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!T1,records!B2:B203, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!U1,records!B2:B203, "&lt;" &amp; template!V1)</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!V1,records!B2:B203, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!W1,records!B2:B203, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!X1,records!B2:B203, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!Y1,records!B2:B203, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2, records!B2:B203, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!G2:G179,template!AA1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!G2:G203,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!G2:G179,template!AB1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!G2:G203,template!AB1)</f>
         <v>24</v>
       </c>
       <c r="AC2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!G2:G179,template!AC1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!G2:G203,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!G2:G179,template!AD1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!G2:G203,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AE1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AE1)</f>
         <v>0</v>
       </c>
       <c r="AF2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AF1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AF1)</f>
         <v>24</v>
       </c>
       <c r="AG2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AG1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AH1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AI1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AK1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AL1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AM1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AN1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AO1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP2">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A2,records!C2:C179,template!AP1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A2,records!C2:C203,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -18502,163 +19664,163 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!C1,records!B2:B203, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!D1,records!B2:B203, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!E1,records!B2:B203, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!F1,records!B2:B203, "&lt;" &amp; template!G1)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!G1,records!B2:B179, "&lt;" &amp; template!H1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!G1,records!B2:B203, "&lt;" &amp; template!H1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!H1,records!B2:B179, "&lt;" &amp; template!I1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!H1,records!B2:B203, "&lt;" &amp; template!I1)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!I1,records!B2:B179, "&lt;" &amp; template!J1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!I1,records!B2:B203, "&lt;" &amp; template!J1)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!J1,records!B2:B179, "&lt;" &amp; template!K1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!J1,records!B2:B203, "&lt;" &amp; template!K1)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!K1,records!B2:B179, "&lt;" &amp; template!L1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!K1,records!B2:B203, "&lt;" &amp; template!L1)</f>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!L1,records!B2:B179, "&lt;" &amp; template!M1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!L1,records!B2:B203, "&lt;" &amp; template!M1)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!M1,records!B2:B179, "&lt;" &amp; template!N1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!M1,records!B2:B203, "&lt;" &amp; template!N1)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!N1,records!B2:B179, "&lt;" &amp; template!O1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!N1,records!B2:B203, "&lt;" &amp; template!O1)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!O1,records!B2:B179, "&lt;" &amp; template!P1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!O1,records!B2:B203, "&lt;" &amp; template!P1)</f>
         <v>16</v>
       </c>
       <c r="P3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!P1,records!B2:B179, "&lt;" &amp; template!Q1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!P1,records!B2:B203, "&lt;" &amp; template!Q1)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!Q1,records!B2:B179, "&lt;" &amp; template!R1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!Q1,records!B2:B203, "&lt;" &amp; template!R1)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!R1,records!B2:B179, "&lt;" &amp; template!S1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!R1,records!B2:B203, "&lt;" &amp; template!S1)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!S1,records!B2:B179, "&lt;" &amp; template!T1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!S1,records!B2:B203, "&lt;" &amp; template!T1)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!T1,records!B2:B179, "&lt;" &amp; template!U1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!T1,records!B2:B203, "&lt;" &amp; template!U1)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!U1,records!B2:B179, "&lt;" &amp; template!V1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!U1,records!B2:B203, "&lt;" &amp; template!V1)</f>
         <v>3</v>
       </c>
       <c r="V3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!V1,records!B2:B179, "&lt;" &amp; template!W1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!V1,records!B2:B203, "&lt;" &amp; template!W1)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!W1,records!B2:B179, "&lt;" &amp; template!X1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!W1,records!B2:B203, "&lt;" &amp; template!X1)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!X1,records!B2:B179, "&lt;" &amp; template!Y1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!X1,records!B2:B203, "&lt;" &amp; template!Y1)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!Y1,records!B2:B179, "&lt;" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!Y1,records!B2:B203, "&lt;" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3, records!B2:B179, "&gt;=" &amp; template!Z1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3, records!B2:B203, "&gt;=" &amp; template!Z1)</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!G2:G179,template!AA1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!G2:G203,template!AA1)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!G2:G179,template!AB1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!G2:G203,template!AB1)</f>
         <v>22</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!G2:G179,template!AC1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!G2:G203,template!AC1)</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!G2:G179,template!AD1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!G2:G203,template!AD1)</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AE1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AE1)</f>
         <v>6</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AF1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AF1)</f>
         <v>16</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AG1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AG1)</f>
         <v>0</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AH1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AH1)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AI1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AI1)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AJ1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AK1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AK1)</f>
         <v>0</v>
       </c>
       <c r="AL3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AL1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AL1)</f>
         <v>0</v>
       </c>
       <c r="AM3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AM1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AM1)</f>
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AN1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AN1)</f>
         <v>0</v>
       </c>
       <c r="AO3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AO1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AO1)</f>
         <v>0</v>
       </c>
       <c r="AP3">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A3,records!C2:C179,template!AP1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A3,records!C2:C203,template!AP1)</f>
         <v>0</v>
       </c>
     </row>
@@ -18671,163 +19833,163 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!C1,records!B2:B179, "&lt;" &amp; template!D1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A4, records!B2:B203, "&gt;=" &amp; template!C1,records!B2:B203, "&lt;" &amp; template!D1)</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!D1,records!B2:B179, "&lt;" &amp; template!E1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A4, records!B2:B203, "&gt;=" &amp; template!D1,records!B2:B203, "&lt;" &amp; template!E1)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!E1,records!B2:B179, "&lt;" &amp; template!F1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A4, records!B2:B203, "&gt;=" &amp; template!E1,records!B2:B203, "&lt;" &amp; template!F1)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(records!E2:E179,records!A2:A179,template!A4, records!B2:B179, "&gt;=" &amp; template!F1,records!B2:B179, "&lt;" &amp; template!G1)</f>
+        <f>SUMIFS(records!E2:E203,records!A2:A203,template!A4, records!B2:B203, "&gt;=" &amp; template!F1,records!B2:B203, "&lt;" &amp; template!G1)</f>
         <v>0<